--- a/RPA.SearchTop10ProductsAmazon/Resultados.xlsx
+++ b/RPA.SearchTop10ProductsAmazon/Resultados.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="326" uniqueCount="326">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="332" uniqueCount="332">
   <si>
     <t>Nome</t>
   </si>
@@ -29,64 +29,43 @@
     <t>Apple iPhone 15 (128 GB) — Azul</t>
   </si>
   <si>
-    <t>R$ 4.781,26</t>
+    <t>R$ 4.781,27</t>
   </si>
   <si>
     <t>Mais de 500 compras no mês passado</t>
   </si>
   <si>
-    <t>https://www.amazon.com.br/sspa/click?ie=UTF8&amp;amp;spc=MTo1NzUwNzg5Njk4NzQyMDI6MTcyOTQyMzc0OTpzcF9hdGY6MzAwMzY1NDc2ODY4MDAyOjowOjo&amp;amp;url=%2FApple-iPhone-15-128-GB%2Fdp%2FB0CP6CR795%2Fref%3Dsr_1_2_sspa%3Fdib%3DeyJ2IjoiMSJ9.lKqyWQw5QWVdMIAOmdxyODtQhgT1qMMd5sdidlrXhM9M0GHr_pDwwlCC0m13TZSPLtjxi3qMtAb1uHji1Jf4KAsq8F5oF0EmaSs29Jm8YDQkrexpp4PXVts-9j6qdRQoWrok404kEr55O4HuDHEj2qOwY6U4NHLBNT6Bm3xvMIpB_DxugZLbM6M3qDg3wIKzyIjSFJs8SDTpmT5vZpRobYFlaGPLgOOt7LbnjchY9Ztj4c1bAtpzQ2v61pT6wSQ5dSqjNc4OqcICK__GYFcMTZnzxjmxsOkk4OjI8N2HDUY.7jtukDW3kQQIB14Wg9nDoQKUPlTvGPkzljjG1AejewY%26dib_tag%3Dse%26keywords%3DIphone%2B15%26qid%3D1729423749%26sr%3D8-2-spons%26ufe%3Dapp_do%253Aamzn1.fos.95de73c3-5dda-43a7-bd1f-63af03b14751%26sp_csd%3Dd2lkZ2V0TmFtZT1zcF9hdGY%26psc%3D1</t>
-  </si>
-  <si>
-    <t>https://www.amazon.com.br/Apple-iPhone-15-128-GB/dp/B0CP6CR795/ref=sr_1_3?dib=eyJ2IjoiMSJ9.lKqyWQw5QWVdMIAOmdxyODtQhgT1qMMd5sdidlrXhM9M0GHr_pDwwlCC0m13TZSPLtjxi3qMtAb1uHji1Jf4KAsq8F5oF0EmaSs29Jm8YDQkrexpp4PXVts-9j6qdRQoWrok404kEr55O4HuDHEj2qOwY6U4NHLBNT6Bm3xvMIpB_DxugZLbM6M3qDg3wIKzyIjSFJs8SDTpmT5vZpRobYFlaGPLgOOt7LbnjchY9Ztj4c1bAtpzQ2v61pT6wSQ5dSqjNc4OqcICK__GYFcMTZnzxjmxsOkk4OjI8N2HDUY.7jtukDW3kQQIB14Wg9nDoQKUPlTvGPkzljjG1AejewY&amp;amp;dib_tag=se&amp;amp;keywords=Iphone+15&amp;amp;qid=1729423749&amp;amp;sr=8-3&amp;amp;ufe=app_do%3Aamzn1.fos.95de73c3-5dda-43a7-bd1f-63af03b14751</t>
-  </si>
-  <si>
-    <t>Carregador Turbo 25W Compatível iPhone 15 PLUS 15 PRO 15 PRO MAX ANDROID GALAXY s10 s20 s21 s22 s23 s24, Todos ANDROID Entrada TIPO-C + Cabo Reforçado USB-C - Fast</t>
+    <t>https://www.amazon.com.br/sspa/click?ie=UTF8&amp;amp;spc=MToyMTk1MzIxMzg1NzI5NTc4OjE3Mjk2MTM5MTY6c3BfYXRmOjMwMDM2NTQ3Njg2ODAwMjo6MDo6&amp;amp;url=%2FApple-iPhone-15-128-GB%2Fdp%2FB0CP6CR795%2Fref%3Dsr_1_1_sspa%3Fdib%3DeyJ2IjoiMSJ9.H9sLnVuXuYiD-cGJ27u1aTtQhgT1qMMd5sdidlrXhM8eJH5a6L2ruRiaNpjdWPCUHltsh54aC5IDZQ1Hgv9oYgsq8F5oF0EmaSs29Jm8YDQkrexpp4PXVts-9j6qdRQoHwUrfer0QdhZPBHPsKSYto8mNRRf2zDbVwnulB3pCaqa8vDde_NPdNyziQtRQFz8pxOJyPMF4U721NNivjWHNQfKlG2JUS1qNmCq8-_J2TdflS28vSDU7fJ2zTyh93PjUxweBpjD5Qso-g5iC-DvJ6bw2JKgCzN8haFs17r5ltg.49dOwBSWiD8q7v4_RZmWcA4o9WMd_ujR9ibsvRroTGs%26dib_tag%3Dse%26keywords%3DIphone%2B15%26qid%3D1729613916%26sr%3D8-1-spons%26ufe%3Dapp_do%253Aamzn1.fos.95de73c3-5dda-43a7-bd1f-63af03b14751%26sp_csd%3Dd2lkZ2V0TmFtZT1zcF9hdGY%26psc%3D1</t>
+  </si>
+  <si>
+    <t>Carregador Turbo 25W Compatível iPhone 16, 16 PRO, 16 PRO MAX iPhone 15 PLUS 15 PRO 15 PRO MAX, GALAXY, Todos ANDROID Entrada TIPO-C + Cabo Reforçado USB-C - Fast</t>
   </si>
   <si>
     <t>R$ 55,90</t>
   </si>
   <si>
-    <t>https://www.amazon.com.br/Carregador-Compat%C3%ADvel-ANDROID-Entrada-Refor%C3%A7ado/dp/B0D2PH2YCY/ref=sr_1_23?dib=eyJ2IjoiMSJ9.lKqyWQw5QWVdMIAOmdxyODtQhgT1qMMd5sdidlrXhM9M0GHr_pDwwlCC0m13TZSPLtjxi3qMtAb1uHji1Jf4KAsq8F5oF0EmaSs29Jm8YDQkrexpp4PXVts-9j6qdRQoWrok404kEr55O4HuDHEj2qOwY6U4NHLBNT6Bm3xvMIpB_DxugZLbM6M3qDg3wIKzyIjSFJs8SDTpmT5vZpRobYFlaGPLgOOt7LbnjchY9Ztj4c1bAtpzQ2v61pT6wSQ5dSqjNc4OqcICK__GYFcMTZnzxjmxsOkk4OjI8N2HDUY.7jtukDW3kQQIB14Wg9nDoQKUPlTvGPkzljjG1AejewY&amp;amp;dib_tag=se&amp;amp;keywords=Iphone+15&amp;amp;qid=1729423749&amp;amp;sr=8-23</t>
-  </si>
-  <si>
-    <t>Smartphone Motorola Edge 40 Neo 256GB 8GB RAM + 8GB RAM Boost Peach Fuzz - Vegan Leather</t>
-  </si>
-  <si>
-    <t>R$ 1.763,00</t>
-  </si>
-  <si>
-    <t>https://www.amazon.com.br/Smartphone-Motorola-Boost-256GB-Peach/dp/B0CTKXC2BR/ref=sr_1_44?dib=eyJ2IjoiMSJ9.lKqyWQw5QWVdMIAOmdxyODtQhgT1qMMd5sdidlrXhM9M0GHr_pDwwlCC0m13TZSPLtjxi3qMtAb1uHji1Jf4KAsq8F5oF0EmaSs29Jm8YDQkrexpp4PXVts-9j6qdRQoWrok404kEr55O4HuDHEj2qOwY6U4NHLBNT6Bm3xvMIpB_DxugZLbM6M3qDg3wIKzyIjSFJs8SDTpmT5vZpRobYFlaGPLgOOt7LbnjchY9Ztj4c1bAtpzQ2v61pT6wSQ5dSqjNc4OqcICK__GYFcMTZnzxjmxsOkk4OjI8N2HDUY.7jtukDW3kQQIB14Wg9nDoQKUPlTvGPkzljjG1AejewY&amp;amp;dib_tag=se&amp;amp;keywords=Iphone+15&amp;amp;qid=1729423749&amp;amp;sr=8-44&amp;amp;ufe=app_do%3Aamzn1.fos.25548f35-0de7-44b3-b28e-0f56f3f96147</t>
-  </si>
-  <si>
-    <t>Samsung Galaxy A35 5G, Câmera Tripla Traseira de até 50MP, Selfie de 13MP, Nightography, Apagador de objetos, Design em vidro e IP67, Tela Super AMOLED de 6.6&amp;quot; 120Hz Vision Booster, 128GB - Rosa</t>
-  </si>
-  <si>
-    <t>R$ 2.782,00</t>
-  </si>
-  <si>
-    <t>https://www.amazon.com.br/Samsung-Traseira-Nightography-Apagador-objetos/dp/B0CX25574N/ref=sr_1_48?dib=eyJ2IjoiMSJ9.lKqyWQw5QWVdMIAOmdxyODtQhgT1qMMd5sdidlrXhM9M0GHr_pDwwlCC0m13TZSPLtjxi3qMtAb1uHji1Jf4KAsq8F5oF0EmaSs29Jm8YDQkrexpp4PXVts-9j6qdRQoWrok404kEr55O4HuDHEj2qOwY6U4NHLBNT6Bm3xvMIpB_DxugZLbM6M3qDg3wIKzyIjSFJs8SDTpmT5vZpRobYFlaGPLgOOt7LbnjchY9Ztj4c1bAtpzQ2v61pT6wSQ5dSqjNc4OqcICK__GYFcMTZnzxjmxsOkk4OjI8N2HDUY.7jtukDW3kQQIB14Wg9nDoQKUPlTvGPkzljjG1AejewY&amp;amp;dib_tag=se&amp;amp;keywords=Iphone+15&amp;amp;qid=1729423749&amp;amp;sr=8-48&amp;amp;ufe=app_do%3Aamzn1.fos.25548f35-0de7-44b3-b28e-0f56f3f96147</t>
-  </si>
-  <si>
-    <t>Smartphone Samsung Galaxy A25 5G 256GB - Azul Escuro</t>
-  </si>
-  <si>
-    <t>R$ 1.469,97</t>
-  </si>
-  <si>
-    <t>https://www.amazon.com.br/Smartphone-Samsung-Galaxy-A25-256GB/dp/B0CRWT2DTK/ref=sr_1_49?dib=eyJ2IjoiMSJ9.lKqyWQw5QWVdMIAOmdxyODtQhgT1qMMd5sdidlrXhM9M0GHr_pDwwlCC0m13TZSPLtjxi3qMtAb1uHji1Jf4KAsq8F5oF0EmaSs29Jm8YDQkrexpp4PXVts-9j6qdRQoWrok404kEr55O4HuDHEj2qOwY6U4NHLBNT6Bm3xvMIpB_DxugZLbM6M3qDg3wIKzyIjSFJs8SDTpmT5vZpRobYFlaGPLgOOt7LbnjchY9Ztj4c1bAtpzQ2v61pT6wSQ5dSqjNc4OqcICK__GYFcMTZnzxjmxsOkk4OjI8N2HDUY.7jtukDW3kQQIB14Wg9nDoQKUPlTvGPkzljjG1AejewY&amp;amp;dib_tag=se&amp;amp;keywords=Iphone+15&amp;amp;qid=1729423749&amp;amp;sr=8-49&amp;amp;ufe=app_do%3Aamzn1.fos.25548f35-0de7-44b3-b28e-0f56f3f96147</t>
+    <t>https://www.amazon.com.br/Carregador-Compat%C3%ADvel-ANDROID-Entrada-Refor%C3%A7ado/dp/B0D2PH2YCY/ref=sr_1_17?dib=eyJ2IjoiMSJ9.H9sLnVuXuYiD-cGJ27u1aTtQhgT1qMMd5sdidlrXhM8eJH5a6L2ruRiaNpjdWPCUHltsh54aC5IDZQ1Hgv9oYgsq8F5oF0EmaSs29Jm8YDQkrexpp4PXVts-9j6qdRQoHwUrfer0QdhZPBHPsKSYto8mNRRf2zDbVwnulB3pCaqa8vDde_NPdNyziQtRQFz8pxOJyPMF4U721NNivjWHNQfKlG2JUS1qNmCq8-_J2TdflS28vSDU7fJ2zTyh93PjUxweBpjD5Qso-g5iC-DvJ6bw2JKgCzN8haFs17r5ltg.49dOwBSWiD8q7v4_RZmWcA4o9WMd_ujR9ibsvRroTGs&amp;amp;dib_tag=se&amp;amp;keywords=Iphone+15&amp;amp;qid=1729613916&amp;amp;sr=8-17</t>
+  </si>
+  <si>
+    <t>Smartphone Samsung Galaxy A15 5G 128GB - Azul Claro</t>
+  </si>
+  <si>
+    <t>R$ 1.111,64</t>
+  </si>
+  <si>
+    <t>https://www.amazon.com.br/Smartphone-Samsung-Galaxy-A15-128GB/dp/B0CRWGHWTK/ref=sr_1_41?dib=eyJ2IjoiMSJ9.H9sLnVuXuYiD-cGJ27u1aTtQhgT1qMMd5sdidlrXhM8eJH5a6L2ruRiaNpjdWPCUHltsh54aC5IDZQ1Hgv9oYgsq8F5oF0EmaSs29Jm8YDQkrexpp4PXVts-9j6qdRQoHwUrfer0QdhZPBHPsKSYto8mNRRf2zDbVwnulB3pCaqa8vDde_NPdNyziQtRQFz8pxOJyPMF4U721NNivjWHNQfKlG2JUS1qNmCq8-_J2TdflS28vSDU7fJ2zTyh93PjUxweBpjD5Qso-g5iC-DvJ6bw2JKgCzN8haFs17r5ltg.49dOwBSWiD8q7v4_RZmWcA4o9WMd_ujR9ibsvRroTGs&amp;amp;dib_tag=se&amp;amp;keywords=Iphone+15&amp;amp;qid=1729613916&amp;amp;sr=8-41&amp;amp;ufe=app_do%3Aamzn1.fos.95de73c3-5dda-43a7-bd1f-63af03b14751</t>
   </si>
   <si>
     <t>Apple iPhone 14 Plus (128 GB) – Estelar</t>
   </si>
   <si>
-    <t>R$ 4.399,00</t>
+    <t>Preço não encontrado</t>
   </si>
   <si>
     <t>Mais de 400 compras no mês passado</t>
   </si>
   <si>
-    <t>https://www.amazon.com.br/Apple-iPhone-14-Plus-128/dp/B07DNQSMK6/ref=sr_1_4?dib=eyJ2IjoiMSJ9.lKqyWQw5QWVdMIAOmdxyODtQhgT1qMMd5sdidlrXhM9M0GHr_pDwwlCC0m13TZSPLtjxi3qMtAb1uHji1Jf4KAsq8F5oF0EmaSs29Jm8YDQkrexpp4PXVts-9j6qdRQoWrok404kEr55O4HuDHEj2qOwY6U4NHLBNT6Bm3xvMIpB_DxugZLbM6M3qDg3wIKzyIjSFJs8SDTpmT5vZpRobYFlaGPLgOOt7LbnjchY9Ztj4c1bAtpzQ2v61pT6wSQ5dSqjNc4OqcICK__GYFcMTZnzxjmxsOkk4OjI8N2HDUY.7jtukDW3kQQIB14Wg9nDoQKUPlTvGPkzljjG1AejewY&amp;amp;dib_tag=se&amp;amp;keywords=Iphone+15&amp;amp;qid=1729423749&amp;amp;sr=8-4&amp;amp;ufe=app_do%3Aamzn1.fos.95de73c3-5dda-43a7-bd1f-63af03b14751</t>
+    <t>https://www.amazon.com.br/Apple-iPhone-14-Plus-128/dp/B07DNQSMK6/ref=sr_1_4?dib=eyJ2IjoiMSJ9.H9sLnVuXuYiD-cGJ27u1aTtQhgT1qMMd5sdidlrXhM8eJH5a6L2ruRiaNpjdWPCUHltsh54aC5IDZQ1Hgv9oYgsq8F5oF0EmaSs29Jm8YDQkrexpp4PXVts-9j6qdRQoHwUrfer0QdhZPBHPsKSYto8mNRRf2zDbVwnulB3pCaqa8vDde_NPdNyziQtRQFz8pxOJyPMF4U721NNivjWHNQfKlG2JUS1qNmCq8-_J2TdflS28vSDU7fJ2zTyh93PjUxweBpjD5Qso-g5iC-DvJ6bw2JKgCzN8haFs17r5ltg.49dOwBSWiD8q7v4_RZmWcA4o9WMd_ujR9ibsvRroTGs&amp;amp;dib_tag=se&amp;amp;keywords=Iphone+15&amp;amp;qid=1729613916&amp;amp;sr=8-4</t>
   </si>
   <si>
     <t>Carregador Turbo Compativel c/Novo iPhone 15 e Galaxy IOS/Android, 40W Fonte Entrada Tipo-C e USB + Cabo USB-C Fast Charge - Premium®</t>
@@ -98,64 +77,70 @@
     <t>Mais de 300 compras no mês passado</t>
   </si>
   <si>
-    <t>https://www.amazon.com.br/Carregador-Compativel-iPhone-Android-Entrada/dp/B0D7WBSXY7/ref=sr_1_31?dib=eyJ2IjoiMSJ9.lKqyWQw5QWVdMIAOmdxyODtQhgT1qMMd5sdidlrXhM9M0GHr_pDwwlCC0m13TZSPLtjxi3qMtAb1uHji1Jf4KAsq8F5oF0EmaSs29Jm8YDQkrexpp4PXVts-9j6qdRQoWrok404kEr55O4HuDHEj2qOwY6U4NHLBNT6Bm3xvMIpB_DxugZLbM6M3qDg3wIKzyIjSFJs8SDTpmT5vZpRobYFlaGPLgOOt7LbnjchY9Ztj4c1bAtpzQ2v61pT6wSQ5dSqjNc4OqcICK__GYFcMTZnzxjmxsOkk4OjI8N2HDUY.7jtukDW3kQQIB14Wg9nDoQKUPlTvGPkzljjG1AejewY&amp;amp;dib_tag=se&amp;amp;keywords=Iphone+15&amp;amp;qid=1729423749&amp;amp;sr=8-31</t>
+    <t>https://www.amazon.com.br/Carregador-Compativel-iPhone-Android-Entrada/dp/B0D7WBSXY7/ref=sr_1_26?dib=eyJ2IjoiMSJ9.H9sLnVuXuYiD-cGJ27u1aTtQhgT1qMMd5sdidlrXhM8eJH5a6L2ruRiaNpjdWPCUHltsh54aC5IDZQ1Hgv9oYgsq8F5oF0EmaSs29Jm8YDQkrexpp4PXVts-9j6qdRQoHwUrfer0QdhZPBHPsKSYto8mNRRf2zDbVwnulB3pCaqa8vDde_NPdNyziQtRQFz8pxOJyPMF4U721NNivjWHNQfKlG2JUS1qNmCq8-_J2TdflS28vSDU7fJ2zTyh93PjUxweBpjD5Qso-g5iC-DvJ6bw2JKgCzN8haFs17r5ltg.49dOwBSWiD8q7v4_RZmWcA4o9WMd_ujR9ibsvRroTGs&amp;amp;dib_tag=se&amp;amp;keywords=Iphone+15&amp;amp;qid=1729613916&amp;amp;sr=8-26</t>
   </si>
   <si>
     <t>Apple Cabo trançado para recarga com conector USB-C (1m) ​​​​​​​</t>
   </si>
   <si>
-    <t>R$ 219,00</t>
-  </si>
-  <si>
-    <t>https://www.amazon.com.br/Apple-tran%C3%A7ado-recarga-conector-USB-C/dp/B0BJMDHRPS/ref=sr_1_32?dib=eyJ2IjoiMSJ9.lKqyWQw5QWVdMIAOmdxyODtQhgT1qMMd5sdidlrXhM9M0GHr_pDwwlCC0m13TZSPLtjxi3qMtAb1uHji1Jf4KAsq8F5oF0EmaSs29Jm8YDQkrexpp4PXVts-9j6qdRQoWrok404kEr55O4HuDHEj2qOwY6U4NHLBNT6Bm3xvMIpB_DxugZLbM6M3qDg3wIKzyIjSFJs8SDTpmT5vZpRobYFlaGPLgOOt7LbnjchY9Ztj4c1bAtpzQ2v61pT6wSQ5dSqjNc4OqcICK__GYFcMTZnzxjmxsOkk4OjI8N2HDUY.7jtukDW3kQQIB14Wg9nDoQKUPlTvGPkzljjG1AejewY&amp;amp;dib_tag=se&amp;amp;keywords=Iphone+15&amp;amp;qid=1729423749&amp;amp;sr=8-32&amp;amp;ufe=app_do%3Aamzn1.fos.6a09f7ec-d911-4889-ad70-de8dd83c8a74</t>
-  </si>
-  <si>
-    <t>Smartphone Samsung Galaxy A15 5G 128GB - Azul Claro</t>
-  </si>
-  <si>
-    <t>R$ 872,00</t>
-  </si>
-  <si>
-    <t>https://www.amazon.com.br/Smartphone-Samsung-Galaxy-A15-128GB/dp/B0CRWGHWTK/ref=sr_1_34?dib=eyJ2IjoiMSJ9.lKqyWQw5QWVdMIAOmdxyODtQhgT1qMMd5sdidlrXhM9M0GHr_pDwwlCC0m13TZSPLtjxi3qMtAb1uHji1Jf4KAsq8F5oF0EmaSs29Jm8YDQkrexpp4PXVts-9j6qdRQoWrok404kEr55O4HuDHEj2qOwY6U4NHLBNT6Bm3xvMIpB_DxugZLbM6M3qDg3wIKzyIjSFJs8SDTpmT5vZpRobYFlaGPLgOOt7LbnjchY9Ztj4c1bAtpzQ2v61pT6wSQ5dSqjNc4OqcICK__GYFcMTZnzxjmxsOkk4OjI8N2HDUY.7jtukDW3kQQIB14Wg9nDoQKUPlTvGPkzljjG1AejewY&amp;amp;dib_tag=se&amp;amp;keywords=Iphone+15&amp;amp;qid=1729423749&amp;amp;sr=8-34&amp;amp;ufe=app_do%3Aamzn1.fos.95de73c3-5dda-43a7-bd1f-63af03b14751</t>
-  </si>
-  <si>
-    <t>https://www.amazon.com.br/Carregador-Compat%C3%ADvel-ANDROID-Entrada-Refor%C3%A7ado/dp/B0D2PH2YCY/ref=sr_1_6?dib=eyJ2IjoiMSJ9.fBCEsbsvbrVzWS1pkladNDSlSZcnWo7YEUHmwS4nkPQAlWwrP7reKjqbnh92TQjSn16Tj9avTRC1LG_F36ZLXh1EZKmShPE9CuzCqb-TU8XxUX_IEgUgjTu_XtgjKX6bB3qpdTpIX3Z0p0wg7j-8MNysowbJdKB--sCwIhoBGDAlKfinAkNQzozHf6V9ckJ-FIiPzVx_A0URg89ZAdjMxMXoT89NNJEywLvxnmgVJrFez2J3gtR_TJ_l02g433jtyffpO7QzDQIkSYjwzvHKMRiWcUumejpBgW31kv_OIBc.wre61DmlPTT9dk8tTUPzlkhwbIpQi7EObTn5d3mzywo&amp;amp;dib_tag=se&amp;amp;keywords=S24+Pro&amp;amp;qid=1729423751&amp;amp;sr=8-6</t>
-  </si>
-  <si>
-    <t>Smartphone Samsung Galaxy S24 Ultra, Galaxy AI, Selfie de 12MP, Tela de 6.8&amp;quot; 1-120Hz, 256GB, 12GB RAM - Titânio Cinza</t>
-  </si>
-  <si>
-    <t>R$ 6.930,97</t>
-  </si>
-  <si>
-    <t>https://www.amazon.com.br/Smartphone-Samsung-Galaxy-Selfie-1-120Hz/dp/B0CQD912YR/ref=sr_1_11?dib=eyJ2IjoiMSJ9.fBCEsbsvbrVzWS1pkladNDSlSZcnWo7YEUHmwS4nkPQAlWwrP7reKjqbnh92TQjSn16Tj9avTRC1LG_F36ZLXh1EZKmShPE9CuzCqb-TU8XxUX_IEgUgjTu_XtgjKX6bB3qpdTpIX3Z0p0wg7j-8MNysowbJdKB--sCwIhoBGDAlKfinAkNQzozHf6V9ckJ-FIiPzVx_A0URg89ZAdjMxMXoT89NNJEywLvxnmgVJrFez2J3gtR_TJ_l02g433jtyffpO7QzDQIkSYjwzvHKMRiWcUumejpBgW31kv_OIBc.wre61DmlPTT9dk8tTUPzlkhwbIpQi7EObTn5d3mzywo&amp;amp;dib_tag=se&amp;amp;keywords=S24+Pro&amp;amp;qid=1729423751&amp;amp;sr=8-11&amp;amp;ufe=app_do%3Aamzn1.fos.95de73c3-5dda-43a7-bd1f-63af03b14751</t>
-  </si>
-  <si>
-    <t>Smartphone Samsung Galaxy S24 Ultra, Galaxy AI, Selfie de 12MP, Tela de 6.8&amp;quot; 1-120Hz, 256GB, 12GB RAM - Titânio Preto</t>
-  </si>
-  <si>
-    <t>R$ 6.930,99</t>
-  </si>
-  <si>
-    <t>https://www.amazon.com.br/Smartphone-Samsung-Galaxy-Selfie-1-120Hz/dp/B0CQD9VK7X/ref=sr_1_13?dib=eyJ2IjoiMSJ9.fBCEsbsvbrVzWS1pkladNDSlSZcnWo7YEUHmwS4nkPQAlWwrP7reKjqbnh92TQjSn16Tj9avTRC1LG_F36ZLXh1EZKmShPE9CuzCqb-TU8XxUX_IEgUgjTu_XtgjKX6bB3qpdTpIX3Z0p0wg7j-8MNysowbJdKB--sCwIhoBGDAlKfinAkNQzozHf6V9ckJ-FIiPzVx_A0URg89ZAdjMxMXoT89NNJEywLvxnmgVJrFez2J3gtR_TJ_l02g433jtyffpO7QzDQIkSYjwzvHKMRiWcUumejpBgW31kv_OIBc.wre61DmlPTT9dk8tTUPzlkhwbIpQi7EObTn5d3mzywo&amp;amp;dib_tag=se&amp;amp;keywords=S24+Pro&amp;amp;qid=1729423751&amp;amp;sr=8-13&amp;amp;ufe=app_do%3Aamzn1.fos.95de73c3-5dda-43a7-bd1f-63af03b14751</t>
-  </si>
-  <si>
-    <t>Carregador de Parede Ultra Rápido com 1 Saída USB-C Power Delivery 20W + 1 Saída USB-A 18W I2GO - i2GO PRO, Branco</t>
-  </si>
-  <si>
-    <t>R$ 89,90</t>
-  </si>
-  <si>
-    <t>https://www.amazon.com.br/sspa/click?ie=UTF8&amp;amp;spc=MTo2NDg4NjA2NDEyOTY0MzE4OjE3Mjk0MjM3NTE6c3BfbXRmOjMwMDMzNzc3MDY1ODUwMjo6MDo6&amp;amp;url=%2FCarregador-Parede-R%25C3%25A1pido-Delivery-I2GO%2Fdp%2FB09M8YW5V4%2Fref%3Dsr_1_24_sspa%3Fdib%3DeyJ2IjoiMSJ9.fBCEsbsvbrVzWS1pkladNDSlSZcnWo7YEUHmwS4nkPQAlWwrP7reKjqbnh92TQjSn16Tj9avTRC1LG_F36ZLXh1EZKmShPE9CuzCqb-TU8XxUX_IEgUgjTu_XtgjKX6bB3qpdTpIX3Z0p0wg7j-8MNysowbJdKB--sCwIhoBGDAlKfinAkNQzozHf6V9ckJ-FIiPzVx_A0URg89ZAdjMxMXoT89NNJEywLvxnmgVJrFez2J3gtR_TJ_l02g433jtyffpO7QzDQIkSYjwzvHKMRiWcUumejpBgW31kv_OIBc.wre61DmlPTT9dk8tTUPzlkhwbIpQi7EObTn5d3mzywo%26dib_tag%3Dse%26keywords%3DS24%2BPro%26qid%3D1729423751%26sr%3D8-24-spons%26sp_csd%3Dd2lkZ2V0TmFtZT1zcF9tdGY%26psc%3D1</t>
+    <t>R$ 203,90</t>
+  </si>
+  <si>
+    <t>https://www.amazon.com.br/Apple-tran%C3%A7ado-recarga-conector-USB-C/dp/B0BJMDHRPS/ref=sr_1_30?dib=eyJ2IjoiMSJ9.H9sLnVuXuYiD-cGJ27u1aTtQhgT1qMMd5sdidlrXhM8eJH5a6L2ruRiaNpjdWPCUHltsh54aC5IDZQ1Hgv9oYgsq8F5oF0EmaSs29Jm8YDQkrexpp4PXVts-9j6qdRQoHwUrfer0QdhZPBHPsKSYto8mNRRf2zDbVwnulB3pCaqa8vDde_NPdNyziQtRQFz8pxOJyPMF4U721NNivjWHNQfKlG2JUS1qNmCq8-_J2TdflS28vSDU7fJ2zTyh93PjUxweBpjD5Qso-g5iC-DvJ6bw2JKgCzN8haFs17r5ltg.49dOwBSWiD8q7v4_RZmWcA4o9WMd_ujR9ibsvRroTGs&amp;amp;dib_tag=se&amp;amp;keywords=Iphone+15&amp;amp;qid=1729613916&amp;amp;sr=8-30&amp;amp;ufe=app_do%3Aamzn1.fos.6a09f7ec-d911-4889-ad70-de8dd83c8a74</t>
+  </si>
+  <si>
+    <t>Smartphone Xiaomi POCO X6 Pro 5G 12GB+512GB NFC Dimensity 8300-Ultra 64MP triple camera 67W 120Hz AMOLED (Yellow)</t>
+  </si>
+  <si>
+    <t>R$ 2.150,00</t>
+  </si>
+  <si>
+    <t>https://www.amazon.com.br/Smartphone-Xiaomi-Dimensity-8300-Ultra-triple/dp/B0CR16KX25/ref=sr_1_45?dib=eyJ2IjoiMSJ9.H9sLnVuXuYiD-cGJ27u1aTtQhgT1qMMd5sdidlrXhM8eJH5a6L2ruRiaNpjdWPCUHltsh54aC5IDZQ1Hgv9oYgsq8F5oF0EmaSs29Jm8YDQkrexpp4PXVts-9j6qdRQoHwUrfer0QdhZPBHPsKSYto8mNRRf2zDbVwnulB3pCaqa8vDde_NPdNyziQtRQFz8pxOJyPMF4U721NNivjWHNQfKlG2JUS1qNmCq8-_J2TdflS28vSDU7fJ2zTyh93PjUxweBpjD5Qso-g5iC-DvJ6bw2JKgCzN8haFs17r5ltg.49dOwBSWiD8q7v4_RZmWcA4o9WMd_ujR9ibsvRroTGs&amp;amp;dib_tag=se&amp;amp;keywords=Iphone+15&amp;amp;qid=1729613916&amp;amp;sr=8-45&amp;amp;ufe=app_do%3Aamzn1.fos.a492fd4a-f54d-4e8d-8c31-35e0a04ce61e</t>
+  </si>
+  <si>
+    <t>Película De Vidro 3D Tela Toda Para iPhone + Película Lente de Câmera (iPhone 15)</t>
+  </si>
+  <si>
+    <t>R$ 29,99</t>
+  </si>
+  <si>
+    <t>Mais de 200 compras no mês passado</t>
+  </si>
+  <si>
+    <t>https://www.amazon.com.br/Pel%C3%ADcula-Vidro-iPhone-Lente-C%C3%A2mera/dp/B0CKWGJ7PM/ref=sr_1_25?dib=eyJ2IjoiMSJ9.H9sLnVuXuYiD-cGJ27u1aTtQhgT1qMMd5sdidlrXhM8eJH5a6L2ruRiaNpjdWPCUHltsh54aC5IDZQ1Hgv9oYgsq8F5oF0EmaSs29Jm8YDQkrexpp4PXVts-9j6qdRQoHwUrfer0QdhZPBHPsKSYto8mNRRf2zDbVwnulB3pCaqa8vDde_NPdNyziQtRQFz8pxOJyPMF4U721NNivjWHNQfKlG2JUS1qNmCq8-_J2TdflS28vSDU7fJ2zTyh93PjUxweBpjD5Qso-g5iC-DvJ6bw2JKgCzN8haFs17r5ltg.49dOwBSWiD8q7v4_RZmWcA4o9WMd_ujR9ibsvRroTGs&amp;amp;dib_tag=se&amp;amp;keywords=Iphone+15&amp;amp;qid=1729613916&amp;amp;sr=8-25</t>
+  </si>
+  <si>
+    <t>Smartphone Motorola Edge 50 Fusion 5G - 256GB 8GB RAM + 8GB RAM Boost 50MP Sony AI Camera IP68 NFC Blue Teal</t>
+  </si>
+  <si>
+    <t>R$ 2.399,90</t>
+  </si>
+  <si>
+    <t>https://www.amazon.com.br/Smartphone-Motorola-Edge-50-Fusion/dp/B0D54KKDGV/ref=sr_1_40?dib=eyJ2IjoiMSJ9.H9sLnVuXuYiD-cGJ27u1aTtQhgT1qMMd5sdidlrXhM8eJH5a6L2ruRiaNpjdWPCUHltsh54aC5IDZQ1Hgv9oYgsq8F5oF0EmaSs29Jm8YDQkrexpp4PXVts-9j6qdRQoHwUrfer0QdhZPBHPsKSYto8mNRRf2zDbVwnulB3pCaqa8vDde_NPdNyziQtRQFz8pxOJyPMF4U721NNivjWHNQfKlG2JUS1qNmCq8-_J2TdflS28vSDU7fJ2zTyh93PjUxweBpjD5Qso-g5iC-DvJ6bw2JKgCzN8haFs17r5ltg.49dOwBSWiD8q7v4_RZmWcA4o9WMd_ujR9ibsvRroTGs&amp;amp;dib_tag=se&amp;amp;keywords=Iphone+15&amp;amp;qid=1729613916&amp;amp;sr=8-40&amp;amp;ufe=app_do%3Aamzn1.fos.a492fd4a-f54d-4e8d-8c31-35e0a04ce61e</t>
+  </si>
+  <si>
+    <t>Apple iPhone 15 Pro Max (256 GB) — Titânio natural</t>
+  </si>
+  <si>
+    <t>R$ 8.189,10</t>
+  </si>
+  <si>
+    <t>Mais de 100 compras no mês passado</t>
+  </si>
+  <si>
+    <t>https://www.amazon.com.br/Apple-iPhone-Pro-Max-256/dp/B0CHX7PHJT/ref=sr_1_5?dib=eyJ2IjoiMSJ9.H9sLnVuXuYiD-cGJ27u1aTtQhgT1qMMd5sdidlrXhM8eJH5a6L2ruRiaNpjdWPCUHltsh54aC5IDZQ1Hgv9oYgsq8F5oF0EmaSs29Jm8YDQkrexpp4PXVts-9j6qdRQoHwUrfer0QdhZPBHPsKSYto8mNRRf2zDbVwnulB3pCaqa8vDde_NPdNyziQtRQFz8pxOJyPMF4U721NNivjWHNQfKlG2JUS1qNmCq8-_J2TdflS28vSDU7fJ2zTyh93PjUxweBpjD5Qso-g5iC-DvJ6bw2JKgCzN8haFs17r5ltg.49dOwBSWiD8q7v4_RZmWcA4o9WMd_ujR9ibsvRroTGs&amp;amp;dib_tag=se&amp;amp;keywords=Iphone+15&amp;amp;qid=1729613916&amp;amp;sr=8-5&amp;amp;ufe=app_do%3Aamzn1.fos.25548f35-0de7-44b3-b28e-0f56f3f96147</t>
+  </si>
+  <si>
+    <t>https://www.amazon.com.br/Carregador-Compat%C3%ADvel-ANDROID-Entrada-Refor%C3%A7ado/dp/B0D2PH2YCY/ref=sr_1_8?dib=eyJ2IjoiMSJ9.9XeDFOnlHt51K009gJV0Pv0H7n0lbls9VJv5o2mrhZ7lYpU6OhFQsNkmvJXjFzDgXkE9zi9c01wycZiEWOunW8QZVHNBetW9-y7Tco8WP0O801_QnSiCcE9oStW7H1ephFPWFRe_ZaWUaGvpm6uhw3zfWFjwKgLs4vsxoRM1dPoIqOdsDzd1E5zp1Cl6hgOJXMiM81uFa3PqxIS5qcCyx_-oAzCk6mFupVtXSs5ZpgYOIgPOlKd0qBPMMAiXvSEhiArqgpBZlsI78VnvQ618t5NYCE5n0BTNqM7c3B9WWF8.IviYR16629poUPz2zvgW3e6aQqCuvgWw-AFOrD8vUi4&amp;amp;dib_tag=se&amp;amp;keywords=S24+Pro&amp;amp;qid=1729613918&amp;amp;sr=8-8</t>
   </si>
   <si>
     <t>Smartphone Xiaomi Redmi Note 13 Pro 5G 256 GB/8 GB Azul Ocean Teal [modelo 2312DRA50G] (2312DRA50G)</t>
   </si>
   <si>
-    <t>R$ 1.925,00</t>
-  </si>
-  <si>
-    <t>https://www.amazon.com.br/Smartphone-Xiaomi-Redmi-modelo-2312DRA50G/dp/B0CR44V59M/ref=sr_1_43?dib=eyJ2IjoiMSJ9.fBCEsbsvbrVzWS1pkladNDSlSZcnWo7YEUHmwS4nkPQAlWwrP7reKjqbnh92TQjSn16Tj9avTRC1LG_F36ZLXh1EZKmShPE9CuzCqb-TU8XxUX_IEgUgjTu_XtgjKX6bB3qpdTpIX3Z0p0wg7j-8MNysowbJdKB--sCwIhoBGDAlKfinAkNQzozHf6V9ckJ-FIiPzVx_A0URg89ZAdjMxMXoT89NNJEywLvxnmgVJrFez2J3gtR_TJ_l02g433jtyffpO7QzDQIkSYjwzvHKMRiWcUumejpBgW31kv_OIBc.wre61DmlPTT9dk8tTUPzlkhwbIpQi7EObTn5d3mzywo&amp;amp;dib_tag=se&amp;amp;keywords=S24+Pro&amp;amp;qid=1729423751&amp;amp;sr=8-43&amp;amp;ufe=app_do%3Aamzn1.fos.25548f35-0de7-44b3-b28e-0f56f3f96147</t>
+    <t>R$ 1.915,00</t>
+  </si>
+  <si>
+    <t>https://www.amazon.com.br/Smartphone-Xiaomi-Redmi-modelo-2312DRA50G/dp/B0CR44V59M/ref=sr_1_25?dib=eyJ2IjoiMSJ9.9XeDFOnlHt51K009gJV0Pv0H7n0lbls9VJv5o2mrhZ7lYpU6OhFQsNkmvJXjFzDgXkE9zi9c01wycZiEWOunW8QZVHNBetW9-y7Tco8WP0O801_QnSiCcE9oStW7H1ephFPWFRe_ZaWUaGvpm6uhw3zfWFjwKgLs4vsxoRM1dPoIqOdsDzd1E5zp1Cl6hgOJXMiM81uFa3PqxIS5qcCyx_-oAzCk6mFupVtXSs5ZpgYOIgPOlKd0qBPMMAiXvSEhiArqgpBZlsI78VnvQ618t5NYCE5n0BTNqM7c3B9WWF8.IviYR16629poUPz2zvgW3e6aQqCuvgWw-AFOrD8vUi4&amp;amp;dib_tag=se&amp;amp;keywords=S24+Pro&amp;amp;qid=1729613918&amp;amp;sr=8-25&amp;amp;ufe=app_do%3Aamzn1.fos.25548f35-0de7-44b3-b28e-0f56f3f96147</t>
   </si>
   <si>
     <t>Xiaomi Redmi Note 13 5G - 8 + 256 GB, tela AMOLED FHD + 120 Hz de 6,67 &amp;quot;, MediaTek Dimensity 6080, câmera tripla de até 108 MP, carregamento rápido de 33 W (Preto)</t>
@@ -164,46 +149,64 @@
     <t>R$ 1.689,95</t>
   </si>
   <si>
-    <t>https://www.amazon.com.br/Xiaomi-Redmi-Note-Dimensity-carregamento/dp/B0CLM7WRYY/ref=sr_1_47?dib=eyJ2IjoiMSJ9.fBCEsbsvbrVzWS1pkladNDSlSZcnWo7YEUHmwS4nkPQAlWwrP7reKjqbnh92TQjSn16Tj9avTRC1LG_F36ZLXh1EZKmShPE9CuzCqb-TU8XxUX_IEgUgjTu_XtgjKX6bB3qpdTpIX3Z0p0wg7j-8MNysowbJdKB--sCwIhoBGDAlKfinAkNQzozHf6V9ckJ-FIiPzVx_A0URg89ZAdjMxMXoT89NNJEywLvxnmgVJrFez2J3gtR_TJ_l02g433jtyffpO7QzDQIkSYjwzvHKMRiWcUumejpBgW31kv_OIBc.wre61DmlPTT9dk8tTUPzlkhwbIpQi7EObTn5d3mzywo&amp;amp;dib_tag=se&amp;amp;keywords=S24+Pro&amp;amp;qid=1729423751&amp;amp;sr=8-47&amp;amp;ufe=app_do%3Aamzn1.fos.a492fd4a-f54d-4e8d-8c31-35e0a04ce61e</t>
-  </si>
-  <si>
-    <t>Smartphone Samsung Galaxy S24, Galaxy AI, Selfie de 12MP, Tela de 6.2&amp;quot; 1-120Hz, 128GB, 8GB RAM - Violeta</t>
-  </si>
-  <si>
-    <t>R$ 4.599,00</t>
-  </si>
-  <si>
-    <t>https://www.amazon.com.br/Smartphone-Samsung-Galaxy-Selfie-1-120Hz/dp/B0CKCX4C7S/ref=sr_1_9?dib=eyJ2IjoiMSJ9.fBCEsbsvbrVzWS1pkladNDSlSZcnWo7YEUHmwS4nkPQAlWwrP7reKjqbnh92TQjSn16Tj9avTRC1LG_F36ZLXh1EZKmShPE9CuzCqb-TU8XxUX_IEgUgjTu_XtgjKX6bB3qpdTpIX3Z0p0wg7j-8MNysowbJdKB--sCwIhoBGDAlKfinAkNQzozHf6V9ckJ-FIiPzVx_A0URg89ZAdjMxMXoT89NNJEywLvxnmgVJrFez2J3gtR_TJ_l02g433jtyffpO7QzDQIkSYjwzvHKMRiWcUumejpBgW31kv_OIBc.wre61DmlPTT9dk8tTUPzlkhwbIpQi7EObTn5d3mzywo&amp;amp;dib_tag=se&amp;amp;keywords=S24+Pro&amp;amp;qid=1729423751&amp;amp;sr=8-9&amp;amp;ufe=app_do%3Aamzn1.fos.95de73c3-5dda-43a7-bd1f-63af03b14751</t>
+    <t>https://www.amazon.com.br/Xiaomi-Redmi-Note-Dimensity-carregamento/dp/B0CLM7WRYY/ref=sr_1_33?dib=eyJ2IjoiMSJ9.9XeDFOnlHt51K009gJV0Pv0H7n0lbls9VJv5o2mrhZ7lYpU6OhFQsNkmvJXjFzDgXkE9zi9c01wycZiEWOunW8QZVHNBetW9-y7Tco8WP0O801_QnSiCcE9oStW7H1ephFPWFRe_ZaWUaGvpm6uhw3zfWFjwKgLs4vsxoRM1dPoIqOdsDzd1E5zp1Cl6hgOJXMiM81uFa3PqxIS5qcCyx_-oAzCk6mFupVtXSs5ZpgYOIgPOlKd0qBPMMAiXvSEhiArqgpBZlsI78VnvQ618t5NYCE5n0BTNqM7c3B9WWF8.IviYR16629poUPz2zvgW3e6aQqCuvgWw-AFOrD8vUi4&amp;amp;dib_tag=se&amp;amp;keywords=S24+Pro&amp;amp;qid=1729613918&amp;amp;sr=8-33&amp;amp;ufe=app_do%3Aamzn1.fos.a492fd4a-f54d-4e8d-8c31-35e0a04ce61e</t>
+  </si>
+  <si>
+    <t>Smartphone Xiaomi Poco X6 5G 256 GB/12 GB de RAM preto [Modelo 23122PCD1G]</t>
+  </si>
+  <si>
+    <t>R$ 1.705,00</t>
+  </si>
+  <si>
+    <t>https://www.amazon.com.br/Smartphone-Xiaomi-Poco-Modelo-23122PCD1G/dp/B0CSDS3XW1/ref=sr_1_42?dib=eyJ2IjoiMSJ9.9XeDFOnlHt51K009gJV0Pv0H7n0lbls9VJv5o2mrhZ7lYpU6OhFQsNkmvJXjFzDgXkE9zi9c01wycZiEWOunW8QZVHNBetW9-y7Tco8WP0O801_QnSiCcE9oStW7H1ephFPWFRe_ZaWUaGvpm6uhw3zfWFjwKgLs4vsxoRM1dPoIqOdsDzd1E5zp1Cl6hgOJXMiM81uFa3PqxIS5qcCyx_-oAzCk6mFupVtXSs5ZpgYOIgPOlKd0qBPMMAiXvSEhiArqgpBZlsI78VnvQ618t5NYCE5n0BTNqM7c3B9WWF8.IviYR16629poUPz2zvgW3e6aQqCuvgWw-AFOrD8vUi4&amp;amp;dib_tag=se&amp;amp;keywords=S24+Pro&amp;amp;qid=1729613918&amp;amp;sr=8-42&amp;amp;ufe=app_do%3Aamzn1.fos.25548f35-0de7-44b3-b28e-0f56f3f96147</t>
+  </si>
+  <si>
+    <t>Smartphone Xiaomi Poco X6 5G 256 GB/12 GB de RAM (Branco)</t>
+  </si>
+  <si>
+    <t>R$ 1.600,00</t>
+  </si>
+  <si>
+    <t>https://www.amazon.com.br/Smartphone-Xiaomi-Poco-256-Branco/dp/B0CSB1MSS5/ref=sr_1_43?dib=eyJ2IjoiMSJ9.9XeDFOnlHt51K009gJV0Pv0H7n0lbls9VJv5o2mrhZ7lYpU6OhFQsNkmvJXjFzDgXkE9zi9c01wycZiEWOunW8QZVHNBetW9-y7Tco8WP0O801_QnSiCcE9oStW7H1ephFPWFRe_ZaWUaGvpm6uhw3zfWFjwKgLs4vsxoRM1dPoIqOdsDzd1E5zp1Cl6hgOJXMiM81uFa3PqxIS5qcCyx_-oAzCk6mFupVtXSs5ZpgYOIgPOlKd0qBPMMAiXvSEhiArqgpBZlsI78VnvQ618t5NYCE5n0BTNqM7c3B9WWF8.IviYR16629poUPz2zvgW3e6aQqCuvgWw-AFOrD8vUi4&amp;amp;dib_tag=se&amp;amp;keywords=S24+Pro&amp;amp;qid=1729613918&amp;amp;sr=8-43&amp;amp;ufe=app_do%3Aamzn1.fos.a492fd4a-f54d-4e8d-8c31-35e0a04ce61e</t>
+  </si>
+  <si>
+    <t>Smartphone Xiaomi Poco X6 5G 256 GB/12 GB de RAM Azul</t>
+  </si>
+  <si>
+    <t>R$ 1.689,08</t>
+  </si>
+  <si>
+    <t>https://www.amazon.com.br/Smartphone-Xiaomi-Poco-256-Azul/dp/B0CMJKP1HM/ref=sr_1_53?dib=eyJ2IjoiMSJ9.9XeDFOnlHt51K009gJV0Pv0H7n0lbls9VJv5o2mrhZ7lYpU6OhFQsNkmvJXjFzDgXkE9zi9c01wycZiEWOunW8QZVHNBetW9-y7Tco8WP0O801_QnSiCcE9oStW7H1ephFPWFRe_ZaWUaGvpm6uhw3zfWFjwKgLs4vsxoRM1dPoIqOdsDzd1E5zp1Cl6hgOJXMiM81uFa3PqxIS5qcCyx_-oAzCk6mFupVtXSs5ZpgYOIgPOlKd0qBPMMAiXvSEhiArqgpBZlsI78VnvQ618t5NYCE5n0BTNqM7c3B9WWF8.IviYR16629poUPz2zvgW3e6aQqCuvgWw-AFOrD8vUi4&amp;amp;dib_tag=se&amp;amp;keywords=S24+Pro&amp;amp;qid=1729613918&amp;amp;sr=8-53&amp;amp;ufe=app_do%3Aamzn1.fos.a492fd4a-f54d-4e8d-8c31-35e0a04ce61e</t>
   </si>
   <si>
     <t>Xiaomi Redmi Note 13 PRO 5G + 4G LTE (256 GB + 8 GB) 200 MP Triplo (Mobile Mint Tello e) Bandas desbloqueadas + (Pacote de carregador duplo de carro rápido) (Ocean Teal (ROM))</t>
   </si>
   <si>
-    <t>R$ 1.938,00</t>
-  </si>
-  <si>
-    <t>https://www.amazon.com.br/Xiaomi-Triplo-Mobile-desbloqueadas-carregador/dp/B0CSDY6LJ8/ref=sr_1_25?dib=eyJ2IjoiMSJ9.fBCEsbsvbrVzWS1pkladNDSlSZcnWo7YEUHmwS4nkPQAlWwrP7reKjqbnh92TQjSn16Tj9avTRC1LG_F36ZLXh1EZKmShPE9CuzCqb-TU8XxUX_IEgUgjTu_XtgjKX6bB3qpdTpIX3Z0p0wg7j-8MNysowbJdKB--sCwIhoBGDAlKfinAkNQzozHf6V9ckJ-FIiPzVx_A0URg89ZAdjMxMXoT89NNJEywLvxnmgVJrFez2J3gtR_TJ_l02g433jtyffpO7QzDQIkSYjwzvHKMRiWcUumejpBgW31kv_OIBc.wre61DmlPTT9dk8tTUPzlkhwbIpQi7EObTn5d3mzywo&amp;amp;dib_tag=se&amp;amp;keywords=S24+Pro&amp;amp;qid=1729423751&amp;amp;sr=8-25&amp;amp;ufe=app_do%3Aamzn1.fos.a492fd4a-f54d-4e8d-8c31-35e0a04ce61e</t>
+    <t>R$ 1.958,00</t>
+  </si>
+  <si>
+    <t>https://www.amazon.com.br/Xiaomi-Triplo-Mobile-desbloqueadas-carregador/dp/B0CSDY6LJ8/ref=sr_1_14?dib=eyJ2IjoiMSJ9.9XeDFOnlHt51K009gJV0Pv0H7n0lbls9VJv5o2mrhZ7lYpU6OhFQsNkmvJXjFzDgXkE9zi9c01wycZiEWOunW8QZVHNBetW9-y7Tco8WP0O801_QnSiCcE9oStW7H1ephFPWFRe_ZaWUaGvpm6uhw3zfWFjwKgLs4vsxoRM1dPoIqOdsDzd1E5zp1Cl6hgOJXMiM81uFa3PqxIS5qcCyx_-oAzCk6mFupVtXSs5ZpgYOIgPOlKd0qBPMMAiXvSEhiArqgpBZlsI78VnvQ618t5NYCE5n0BTNqM7c3B9WWF8.IviYR16629poUPz2zvgW3e6aQqCuvgWw-AFOrD8vUi4&amp;amp;dib_tag=se&amp;amp;keywords=S24+Pro&amp;amp;qid=1729613918&amp;amp;sr=8-14&amp;amp;ufe=app_do%3Aamzn1.fos.a492fd4a-f54d-4e8d-8c31-35e0a04ce61e</t>
   </si>
   <si>
     <t>Smartphone Xiaomi Redmi Note 13 Pro 5G 512 GB/12 GB de RAM (Preto)</t>
   </si>
   <si>
-    <t>R$ 2.369,00</t>
-  </si>
-  <si>
-    <t>https://www.amazon.com.br/Smartphone-Xiaomi-Redmi-Note-13/dp/B0CTJ35LKP/ref=sr_1_53?dib=eyJ2IjoiMSJ9.fBCEsbsvbrVzWS1pkladNDSlSZcnWo7YEUHmwS4nkPQAlWwrP7reKjqbnh92TQjSn16Tj9avTRC1LG_F36ZLXh1EZKmShPE9CuzCqb-TU8XxUX_IEgUgjTu_XtgjKX6bB3qpdTpIX3Z0p0wg7j-8MNysowbJdKB--sCwIhoBGDAlKfinAkNQzozHf6V9ckJ-FIiPzVx_A0URg89ZAdjMxMXoT89NNJEywLvxnmgVJrFez2J3gtR_TJ_l02g433jtyffpO7QzDQIkSYjwzvHKMRiWcUumejpBgW31kv_OIBc.wre61DmlPTT9dk8tTUPzlkhwbIpQi7EObTn5d3mzywo&amp;amp;dib_tag=se&amp;amp;keywords=S24+Pro&amp;amp;qid=1729423751&amp;amp;sr=8-53&amp;amp;ufe=app_do%3Aamzn1.fos.25548f35-0de7-44b3-b28e-0f56f3f96147</t>
-  </si>
-  <si>
-    <t>Samsung Galaxy S23 Ultra 5G 512GB Tela 6.8&amp;#x27;&amp;#x27; 12GB RAM IP68 Processador Qualcomm Snapdragon 8 Gen 2 Câmera Quádrupla de até 200MP + Selfie 12MP - Preto</t>
-  </si>
-  <si>
-    <t>R$ 6.890,00</t>
-  </si>
-  <si>
-    <t>Mais de 200 compras no mês passado</t>
-  </si>
-  <si>
-    <t>https://www.amazon.com.br/Samsung-Processador-Qualcomm-Snapdragon-Qu%C3%A1drupla/dp/B0BRT5SZ7Q/ref=sr_1_4?dib=eyJ2IjoiMSJ9.fBCEsbsvbrVzWS1pkladNDSlSZcnWo7YEUHmwS4nkPQAlWwrP7reKjqbnh92TQjSn16Tj9avTRC1LG_F36ZLXh1EZKmShPE9CuzCqb-TU8XxUX_IEgUgjTu_XtgjKX6bB3qpdTpIX3Z0p0wg7j-8MNysowbJdKB--sCwIhoBGDAlKfinAkNQzozHf6V9ckJ-FIiPzVx_A0URg89ZAdjMxMXoT89NNJEywLvxnmgVJrFez2J3gtR_TJ_l02g433jtyffpO7QzDQIkSYjwzvHKMRiWcUumejpBgW31kv_OIBc.wre61DmlPTT9dk8tTUPzlkhwbIpQi7EObTn5d3mzywo&amp;amp;dib_tag=se&amp;amp;keywords=S24+Pro&amp;amp;qid=1729423751&amp;amp;sr=8-4&amp;amp;ufe=app_do%3Aamzn1.fos.a492fd4a-f54d-4e8d-8c31-35e0a04ce61e</t>
+    <t>R$ 2.323,00</t>
+  </si>
+  <si>
+    <t>https://www.amazon.com.br/Smartphone-Xiaomi-Redmi-Note-13/dp/B0CTJ35LKP/ref=sr_1_20?dib=eyJ2IjoiMSJ9.9XeDFOnlHt51K009gJV0Pv0H7n0lbls9VJv5o2mrhZ7lYpU6OhFQsNkmvJXjFzDgXkE9zi9c01wycZiEWOunW8QZVHNBetW9-y7Tco8WP0O801_QnSiCcE9oStW7H1ephFPWFRe_ZaWUaGvpm6uhw3zfWFjwKgLs4vsxoRM1dPoIqOdsDzd1E5zp1Cl6hgOJXMiM81uFa3PqxIS5qcCyx_-oAzCk6mFupVtXSs5ZpgYOIgPOlKd0qBPMMAiXvSEhiArqgpBZlsI78VnvQ618t5NYCE5n0BTNqM7c3B9WWF8.IviYR16629poUPz2zvgW3e6aQqCuvgWw-AFOrD8vUi4&amp;amp;dib_tag=se&amp;amp;keywords=S24+Pro&amp;amp;qid=1729613918&amp;amp;sr=8-20&amp;amp;ufe=app_do%3Aamzn1.fos.a492fd4a-f54d-4e8d-8c31-35e0a04ce61e</t>
+  </si>
+  <si>
+    <t>https://www.amazon.com.br/Smartphone-Xiaomi-Dimensity-8300-Ultra-triple/dp/B0CR16KX25/ref=sr_1_34?dib=eyJ2IjoiMSJ9.9XeDFOnlHt51K009gJV0Pv0H7n0lbls9VJv5o2mrhZ7lYpU6OhFQsNkmvJXjFzDgXkE9zi9c01wycZiEWOunW8QZVHNBetW9-y7Tco8WP0O801_QnSiCcE9oStW7H1ephFPWFRe_ZaWUaGvpm6uhw3zfWFjwKgLs4vsxoRM1dPoIqOdsDzd1E5zp1Cl6hgOJXMiM81uFa3PqxIS5qcCyx_-oAzCk6mFupVtXSs5ZpgYOIgPOlKd0qBPMMAiXvSEhiArqgpBZlsI78VnvQ618t5NYCE5n0BTNqM7c3B9WWF8.IviYR16629poUPz2zvgW3e6aQqCuvgWw-AFOrD8vUi4&amp;amp;dib_tag=se&amp;amp;keywords=S24+Pro&amp;amp;qid=1729613918&amp;amp;sr=8-34&amp;amp;ufe=app_do%3Aamzn1.fos.a492fd4a-f54d-4e8d-8c31-35e0a04ce61e</t>
+  </si>
+  <si>
+    <t>Smartphone Xiaomi POCO X6 Pro 5G 12GB+512GB NFC Dimensity 8300-Ultra 64MP câmera tripla 67W 120Hz AMOLED (Amarelo)</t>
+  </si>
+  <si>
+    <t>R$ 2.149,00</t>
+  </si>
+  <si>
+    <t>https://www.amazon.com.br/Smartphone-Xiaomi-Dimensity-8300-Ultra-Amarelo/dp/B0CMJKQZQW/ref=sr_1_40?dib=eyJ2IjoiMSJ9.9XeDFOnlHt51K009gJV0Pv0H7n0lbls9VJv5o2mrhZ7lYpU6OhFQsNkmvJXjFzDgXkE9zi9c01wycZiEWOunW8QZVHNBetW9-y7Tco8WP0O801_QnSiCcE9oStW7H1ephFPWFRe_ZaWUaGvpm6uhw3zfWFjwKgLs4vsxoRM1dPoIqOdsDzd1E5zp1Cl6hgOJXMiM81uFa3PqxIS5qcCyx_-oAzCk6mFupVtXSs5ZpgYOIgPOlKd0qBPMMAiXvSEhiArqgpBZlsI78VnvQ618t5NYCE5n0BTNqM7c3B9WWF8.IviYR16629poUPz2zvgW3e6aQqCuvgWw-AFOrD8vUi4&amp;amp;dib_tag=se&amp;amp;keywords=S24+Pro&amp;amp;qid=1729613918&amp;amp;sr=8-40&amp;amp;ufe=app_do%3Aamzn1.fos.25548f35-0de7-44b3-b28e-0f56f3f96147</t>
   </si>
   <si>
     <t>Câmera GoPro HERO10 Black à Prova com LCD Frontal, Vídeos 5.3K 60, Fotos 23MP, Chip GP2, HyperSmooth 4.0, Live Streaming 1080p, Webcam, Conexão Nuvem, Preta</t>
@@ -212,7 +215,16 @@
     <t>R$ 1.919,00</t>
   </si>
   <si>
-    <t>https://www.amazon.com.br/GoPro-Frontal-HyperSmooth-Streaming-Conex%C3%A3o/dp/B09D15SFMQ/ref=sr_1_2?dib=eyJ2IjoiMSJ9.K0fArVovWqXAVb9i6DFIm80HdzctwRC0dsB8AuEB_sMIR_a3Y810j3lzl-v_MSg2nl-mgmljrzKJ9aZoHt2oNsdi6Yupc9OiMEdg8ix7rcCyd4qnqK13b77Jfw7NmPofCTjFTsgaUgh6fo4oLKR3KSFOIouOZJ3VlulMHmYjvx8NPpZKzdoAhptpiwwKd7D3HaLJXaTF6QD1TigJBGVbEWhdoZVt9XwEM5nH4GgcS3RkVWaJTSa_hPb4Fzn-eDEaqfDWvIIKjwo9f9gjNfEwwWuXQ7uP7GsriQTdebpSr1k.BCwWf3Lguag8r1E1EF8InQtTjWb1f0ABf4HlDTGoToM&amp;amp;dib_tag=se&amp;amp;keywords=GoPro&amp;amp;qid=1729423753&amp;amp;sr=8-2&amp;amp;ufe=app_do%3Aamzn1.fos.25548f35-0de7-44b3-b28e-0f56f3f96147</t>
+    <t>https://www.amazon.com.br/GoPro-Frontal-HyperSmooth-Streaming-Conex%C3%A3o/dp/B09D15SFMQ/ref=sr_1_2?dib=eyJ2IjoiMSJ9.K0fArVovWqXAVb9i6DFIm80HdzctwRC0dsB8AuEB_sP6dDzRxE_Z6Tdoa0bz36XXMtH4Ma-FRIZcpY8_mHquXE590Hl1DQVvjsI6qpGjG8vOK_froDzXG3UhyqvYHMg8WaQo_Kf2SIwWBXYGMSL4rb-aQ2os1sNy1CD9RsmwRlw84F5i5I6JQGMQDC82law__nyoGIL3Km9N0aD_k2p7iEOjO3_XEHAP9iMhm6J7jl-1wPjjZnRHvP8JSS66kX1Txj0UzaXdvO8kinpbmYX9Sf0qDdzKJG20ZWjpNjzGnnE.vymey6b5W98OrdvB8tbG4mM2yVI_runaajsz9M-27rY&amp;amp;dib_tag=se&amp;amp;keywords=GoPro&amp;amp;qid=1729613919&amp;amp;sr=8-2&amp;amp;ufe=app_do%3Aamzn1.fos.25548f35-0de7-44b3-b28e-0f56f3f96147</t>
+  </si>
+  <si>
+    <t>Cartão de Memória 128GB Sandisk Micro SD Extreme Pro UHS-I - SDSQXCD-128G-GN6MA</t>
+  </si>
+  <si>
+    <t>R$ 168,86</t>
+  </si>
+  <si>
+    <t>https://www.amazon.com.br/Cart%C3%A3o-Mem%C3%B3ria-128GB-Sandisk-Extreme/dp/B09X7DNF6G/ref=sr_1_50_mod_primary_new?dib=eyJ2IjoiMSJ9.K0fArVovWqXAVb9i6DFIm80HdzctwRC0dsB8AuEB_sP6dDzRxE_Z6Tdoa0bz36XXMtH4Ma-FRIZcpY8_mHquXE590Hl1DQVvjsI6qpGjG8vOK_froDzXG3UhyqvYHMg8WaQo_Kf2SIwWBXYGMSL4rb-aQ2os1sNy1CD9RsmwRlw84F5i5I6JQGMQDC82law__nyoGIL3Km9N0aD_k2p7iEOjO3_XEHAP9iMhm6J7jl-1wPjjZnRHvP8JSS66kX1Txj0UzaXdvO8kinpbmYX9Sf0qDdzKJG20ZWjpNjzGnnE.vymey6b5W98OrdvB8tbG4mM2yVI_runaajsz9M-27rY&amp;amp;dib_tag=se&amp;amp;keywords=GoPro&amp;amp;qid=1729613919&amp;amp;sbo=RZvfv%2F%2FHxDF%2BO5021pAnSA%3D%3D&amp;amp;sr=8-50</t>
   </si>
   <si>
     <t>GoPro HERO12 BLACK - à Prova D&amp;#x27;água com 5.3K60, 27MP, Vídeo + Foto HDR, HyperSmooth 6.0, Trava de horizonte 360°, Live + webcam, Áudio por Bluetooth, Bateria enduro, QUIK</t>
@@ -221,28 +233,16 @@
     <t>R$ 2.560,00</t>
   </si>
   <si>
-    <t>https://www.amazon.com.br/GoPro-HERO12-BLACK-HyperSmooth-horizonte/dp/B0CF3VVTLG/ref=sr_1_3?dib=eyJ2IjoiMSJ9.K0fArVovWqXAVb9i6DFIm80HdzctwRC0dsB8AuEB_sMIR_a3Y810j3lzl-v_MSg2nl-mgmljrzKJ9aZoHt2oNsdi6Yupc9OiMEdg8ix7rcCyd4qnqK13b77Jfw7NmPofCTjFTsgaUgh6fo4oLKR3KSFOIouOZJ3VlulMHmYjvx8NPpZKzdoAhptpiwwKd7D3HaLJXaTF6QD1TigJBGVbEWhdoZVt9XwEM5nH4GgcS3RkVWaJTSa_hPb4Fzn-eDEaqfDWvIIKjwo9f9gjNfEwwWuXQ7uP7GsriQTdebpSr1k.BCwWf3Lguag8r1E1EF8InQtTjWb1f0ABf4HlDTGoToM&amp;amp;dib_tag=se&amp;amp;keywords=GoPro&amp;amp;qid=1729423753&amp;amp;sr=8-3&amp;amp;ufe=app_do%3Aamzn1.fos.25548f35-0de7-44b3-b28e-0f56f3f96147</t>
-  </si>
-  <si>
-    <t>Cartão de Memória 128GB Sandisk Micro SD Extreme Pro UHS-I - SDSQXCD-128G-GN6MA</t>
-  </si>
-  <si>
-    <t>R$ 165,66</t>
-  </si>
-  <si>
-    <t>https://www.amazon.com.br/Cart%C3%A3o-Mem%C3%B3ria-128GB-Sandisk-Extreme/dp/B09X7DNF6G/ref=sr_1_44?dib=eyJ2IjoiMSJ9.K0fArVovWqXAVb9i6DFIm80HdzctwRC0dsB8AuEB_sMIR_a3Y810j3lzl-v_MSg2nl-mgmljrzKJ9aZoHt2oNsdi6Yupc9OiMEdg8ix7rcCyd4qnqK13b77Jfw7NmPofCTjFTsgaUgh6fo4oLKR3KSFOIouOZJ3VlulMHmYjvx8NPpZKzdoAhptpiwwKd7D3HaLJXaTF6QD1TigJBGVbEWhdoZVt9XwEM5nH4GgcS3RkVWaJTSa_hPb4Fzn-eDEaqfDWvIIKjwo9f9gjNfEwwWuXQ7uP7GsriQTdebpSr1k.BCwWf3Lguag8r1E1EF8InQtTjWb1f0ABf4HlDTGoToM&amp;amp;dib_tag=se&amp;amp;keywords=GoPro&amp;amp;qid=1729423753&amp;amp;sr=8-44&amp;amp;ufe=app_do%3Aamzn1.fos.a492fd4a-f54d-4e8d-8c31-35e0a04ce61e</t>
+    <t>https://www.amazon.com.br/GoPro-HERO12-BLACK-HyperSmooth-horizonte/dp/B0CF3VVTLG/ref=sr_1_3?dib=eyJ2IjoiMSJ9.K0fArVovWqXAVb9i6DFIm80HdzctwRC0dsB8AuEB_sP6dDzRxE_Z6Tdoa0bz36XXMtH4Ma-FRIZcpY8_mHquXE590Hl1DQVvjsI6qpGjG8vOK_froDzXG3UhyqvYHMg8WaQo_Kf2SIwWBXYGMSL4rb-aQ2os1sNy1CD9RsmwRlw84F5i5I6JQGMQDC82law__nyoGIL3Km9N0aD_k2p7iEOjO3_XEHAP9iMhm6J7jl-1wPjjZnRHvP8JSS66kX1Txj0UzaXdvO8kinpbmYX9Sf0qDdzKJG20ZWjpNjzGnnE.vymey6b5W98OrdvB8tbG4mM2yVI_runaajsz9M-27rY&amp;amp;dib_tag=se&amp;amp;keywords=GoPro&amp;amp;qid=1729613919&amp;amp;sr=8-3&amp;amp;ufe=app_do%3Aamzn1.fos.25548f35-0de7-44b3-b28e-0f56f3f96147</t>
   </si>
   <si>
     <t>NEEWER Kit de acessórios para câmera de ação 50 em 1 compatível com GoPro Hero 11 10 9 8 7 6 5 4 GoPro Max GoPro Fusion Insta360 DJI Osmo Action 2 AKASO e mais</t>
   </si>
   <si>
-    <t>R$ 121,90</t>
-  </si>
-  <si>
-    <t>Mais de 100 compras no mês passado</t>
-  </si>
-  <si>
-    <t>https://www.amazon.com.br/NEEWER-acess%C3%B3rios-c%C3%A2mera-compat%C3%ADvel-Insta360/dp/B01171X0UW/ref=sr_1_8?dib=eyJ2IjoiMSJ9.K0fArVovWqXAVb9i6DFIm80HdzctwRC0dsB8AuEB_sMIR_a3Y810j3lzl-v_MSg2nl-mgmljrzKJ9aZoHt2oNsdi6Yupc9OiMEdg8ix7rcCyd4qnqK13b77Jfw7NmPofCTjFTsgaUgh6fo4oLKR3KSFOIouOZJ3VlulMHmYjvx8NPpZKzdoAhptpiwwKd7D3HaLJXaTF6QD1TigJBGVbEWhdoZVt9XwEM5nH4GgcS3RkVWaJTSa_hPb4Fzn-eDEaqfDWvIIKjwo9f9gjNfEwwWuXQ7uP7GsriQTdebpSr1k.BCwWf3Lguag8r1E1EF8InQtTjWb1f0ABf4HlDTGoToM&amp;amp;dib_tag=se&amp;amp;keywords=GoPro&amp;amp;qid=1729423753&amp;amp;sr=8-8&amp;amp;ufe=app_do%3Aamzn1.fos.a492fd4a-f54d-4e8d-8c31-35e0a04ce61e</t>
+    <t>R$ 123,90</t>
+  </si>
+  <si>
+    <t>https://www.amazon.com.br/NEEWER-acess%C3%B3rios-c%C3%A2mera-compat%C3%ADvel-Insta360/dp/B01171X0UW/ref=sr_1_7?dib=eyJ2IjoiMSJ9.K0fArVovWqXAVb9i6DFIm80HdzctwRC0dsB8AuEB_sP6dDzRxE_Z6Tdoa0bz36XXMtH4Ma-FRIZcpY8_mHquXE590Hl1DQVvjsI6qpGjG8vOK_froDzXG3UhyqvYHMg8WaQo_Kf2SIwWBXYGMSL4rb-aQ2os1sNy1CD9RsmwRlw84F5i5I6JQGMQDC82law__nyoGIL3Km9N0aD_k2p7iEOjO3_XEHAP9iMhm6J7jl-1wPjjZnRHvP8JSS66kX1Txj0UzaXdvO8kinpbmYX9Sf0qDdzKJG20ZWjpNjzGnnE.vymey6b5W98OrdvB8tbG4mM2yVI_runaajsz9M-27rY&amp;amp;dib_tag=se&amp;amp;keywords=GoPro&amp;amp;qid=1729613919&amp;amp;sr=8-7&amp;amp;ufe=app_do%3Aamzn1.fos.a492fd4a-f54d-4e8d-8c31-35e0a04ce61e</t>
   </si>
   <si>
     <t>GoPro HERO10 Black – Câmera de ação à prova d&amp;#x27;água com tela frontal LCD e traseira sensível ao toque, vídeo 5.3K60 Ultra HD, fotos de 23 MP, transmissão ao vivo 1080p, webcam, estabilização</t>
@@ -251,226 +251,283 @@
     <t>Mais de 50 compras no mês passado</t>
   </si>
   <si>
-    <t>https://www.amazon.com.br/GoPro-HERO10-Preto-streaming-estabiliza%C3%A7%C3%A3o/dp/B09CS9X5F5/ref=sr_1_4?dib=eyJ2IjoiMSJ9.K0fArVovWqXAVb9i6DFIm80HdzctwRC0dsB8AuEB_sMIR_a3Y810j3lzl-v_MSg2nl-mgmljrzKJ9aZoHt2oNsdi6Yupc9OiMEdg8ix7rcCyd4qnqK13b77Jfw7NmPofCTjFTsgaUgh6fo4oLKR3KSFOIouOZJ3VlulMHmYjvx8NPpZKzdoAhptpiwwKd7D3HaLJXaTF6QD1TigJBGVbEWhdoZVt9XwEM5nH4GgcS3RkVWaJTSa_hPb4Fzn-eDEaqfDWvIIKjwo9f9gjNfEwwWuXQ7uP7GsriQTdebpSr1k.BCwWf3Lguag8r1E1EF8InQtTjWb1f0ABf4HlDTGoToM&amp;amp;dib_tag=se&amp;amp;keywords=GoPro&amp;amp;qid=1729423753&amp;amp;sr=8-4&amp;amp;ufe=app_do%3Aamzn1.fos.25548f35-0de7-44b3-b28e-0f56f3f96147</t>
+    <t>https://www.amazon.com.br/GoPro-HERO10-Preto-streaming-estabiliza%C3%A7%C3%A3o/dp/B09CS9X5F5/ref=sr_1_4?dib=eyJ2IjoiMSJ9.K0fArVovWqXAVb9i6DFIm80HdzctwRC0dsB8AuEB_sP6dDzRxE_Z6Tdoa0bz36XXMtH4Ma-FRIZcpY8_mHquXE590Hl1DQVvjsI6qpGjG8vOK_froDzXG3UhyqvYHMg8WaQo_Kf2SIwWBXYGMSL4rb-aQ2os1sNy1CD9RsmwRlw84F5i5I6JQGMQDC82law__nyoGIL3Km9N0aD_k2p7iEOjO3_XEHAP9iMhm6J7jl-1wPjjZnRHvP8JSS66kX1Txj0UzaXdvO8kinpbmYX9Sf0qDdzKJG20ZWjpNjzGnnE.vymey6b5W98OrdvB8tbG4mM2yVI_runaajsz9M-27rY&amp;amp;dib_tag=se&amp;amp;keywords=GoPro&amp;amp;qid=1729613919&amp;amp;sr=8-4&amp;amp;ufe=app_do%3Aamzn1.fos.25548f35-0de7-44b3-b28e-0f56f3f96147</t>
+  </si>
+  <si>
+    <t>GoPro Shorty (Minibastão Extensor + Tripé) - Preto</t>
+  </si>
+  <si>
+    <t>R$ 284,90</t>
+  </si>
+  <si>
+    <t>https://www.amazon.com.br/GoPro-Mini-Bast%C3%A3o-Extensor-Port%C3%A1til-Modelos/dp/B0755G21GJ/ref=sr_1_6?dib=eyJ2IjoiMSJ9.K0fArVovWqXAVb9i6DFIm80HdzctwRC0dsB8AuEB_sP6dDzRxE_Z6Tdoa0bz36XXMtH4Ma-FRIZcpY8_mHquXE590Hl1DQVvjsI6qpGjG8vOK_froDzXG3UhyqvYHMg8WaQo_Kf2SIwWBXYGMSL4rb-aQ2os1sNy1CD9RsmwRlw84F5i5I6JQGMQDC82law__nyoGIL3Km9N0aD_k2p7iEOjO3_XEHAP9iMhm6J7jl-1wPjjZnRHvP8JSS66kX1Txj0UzaXdvO8kinpbmYX9Sf0qDdzKJG20ZWjpNjzGnnE.vymey6b5W98OrdvB8tbG4mM2yVI_runaajsz9M-27rY&amp;amp;dib_tag=se&amp;amp;keywords=GoPro&amp;amp;qid=1729613919&amp;amp;sr=8-6&amp;amp;ufe=app_do%3Aamzn1.fos.db68964d-7c0e-4bb2-a95c-e5cb9e32eb12</t>
   </si>
   <si>
     <t>GoPro The Handler 3.0</t>
   </si>
   <si>
-    <t>R$ 284,37</t>
-  </si>
-  <si>
-    <t>https://www.amazon.com.br/GoPro-AFHGM-003-The-Handler-3-0/dp/B08F2YNTQR/ref=sr_1_6?dib=eyJ2IjoiMSJ9.K0fArVovWqXAVb9i6DFIm80HdzctwRC0dsB8AuEB_sMIR_a3Y810j3lzl-v_MSg2nl-mgmljrzKJ9aZoHt2oNsdi6Yupc9OiMEdg8ix7rcCyd4qnqK13b77Jfw7NmPofCTjFTsgaUgh6fo4oLKR3KSFOIouOZJ3VlulMHmYjvx8NPpZKzdoAhptpiwwKd7D3HaLJXaTF6QD1TigJBGVbEWhdoZVt9XwEM5nH4GgcS3RkVWaJTSa_hPb4Fzn-eDEaqfDWvIIKjwo9f9gjNfEwwWuXQ7uP7GsriQTdebpSr1k.BCwWf3Lguag8r1E1EF8InQtTjWb1f0ABf4HlDTGoToM&amp;amp;dib_tag=se&amp;amp;keywords=GoPro&amp;amp;qid=1729423753&amp;amp;sr=8-6&amp;amp;ufe=app_do%3Aamzn1.fos.db68964d-7c0e-4bb2-a95c-e5cb9e32eb12</t>
-  </si>
-  <si>
-    <t>GoPro Shorty (Minibastão Extensor + Tripé) - Preto</t>
-  </si>
-  <si>
-    <t>R$ 281,21</t>
-  </si>
-  <si>
-    <t>https://www.amazon.com.br/GoPro-Mini-Bast%C3%A3o-Extensor-Port%C3%A1til-Modelos/dp/B0755G21GJ/ref=sr_1_7?dib=eyJ2IjoiMSJ9.K0fArVovWqXAVb9i6DFIm80HdzctwRC0dsB8AuEB_sMIR_a3Y810j3lzl-v_MSg2nl-mgmljrzKJ9aZoHt2oNsdi6Yupc9OiMEdg8ix7rcCyd4qnqK13b77Jfw7NmPofCTjFTsgaUgh6fo4oLKR3KSFOIouOZJ3VlulMHmYjvx8NPpZKzdoAhptpiwwKd7D3HaLJXaTF6QD1TigJBGVbEWhdoZVt9XwEM5nH4GgcS3RkVWaJTSa_hPb4Fzn-eDEaqfDWvIIKjwo9f9gjNfEwwWuXQ7uP7GsriQTdebpSr1k.BCwWf3Lguag8r1E1EF8InQtTjWb1f0ABf4HlDTGoToM&amp;amp;dib_tag=se&amp;amp;keywords=GoPro&amp;amp;qid=1729423753&amp;amp;sr=8-7&amp;amp;ufe=app_do%3Aamzn1.fos.fcd6d665-32ba-4479-9f21-b774e276a678</t>
+    <t>R$ 263,12</t>
+  </si>
+  <si>
+    <t>https://www.amazon.com.br/GoPro-AFHGM-003-The-Handler-3-0/dp/B08F2YNTQR/ref=sr_1_8?dib=eyJ2IjoiMSJ9.K0fArVovWqXAVb9i6DFIm80HdzctwRC0dsB8AuEB_sP6dDzRxE_Z6Tdoa0bz36XXMtH4Ma-FRIZcpY8_mHquXE590Hl1DQVvjsI6qpGjG8vOK_froDzXG3UhyqvYHMg8WaQo_Kf2SIwWBXYGMSL4rb-aQ2os1sNy1CD9RsmwRlw84F5i5I6JQGMQDC82law__nyoGIL3Km9N0aD_k2p7iEOjO3_XEHAP9iMhm6J7jl-1wPjjZnRHvP8JSS66kX1Txj0UzaXdvO8kinpbmYX9Sf0qDdzKJG20ZWjpNjzGnnE.vymey6b5W98OrdvB8tbG4mM2yVI_runaajsz9M-27rY&amp;amp;dib_tag=se&amp;amp;keywords=GoPro&amp;amp;qid=1729613919&amp;amp;sr=8-8&amp;amp;ufe=app_do%3Aamzn1.fos.db68964d-7c0e-4bb2-a95c-e5cb9e32eb12</t>
+  </si>
+  <si>
+    <t>GoPro Bateria Recarregável Enduro para as Câmeras HERO12, HERO11, HERO10 e HERO9 Black</t>
+  </si>
+  <si>
+    <t>R$ 281,86</t>
+  </si>
+  <si>
+    <t>https://www.amazon.com.br/GoPro-Bateria-Recarreg%C3%A1vel-Enduro-C%C3%A2meras/dp/B09RKDRP22/ref=sr_1_14?dib=eyJ2IjoiMSJ9.K0fArVovWqXAVb9i6DFIm80HdzctwRC0dsB8AuEB_sP6dDzRxE_Z6Tdoa0bz36XXMtH4Ma-FRIZcpY8_mHquXE590Hl1DQVvjsI6qpGjG8vOK_froDzXG3UhyqvYHMg8WaQo_Kf2SIwWBXYGMSL4rb-aQ2os1sNy1CD9RsmwRlw84F5i5I6JQGMQDC82law__nyoGIL3Km9N0aD_k2p7iEOjO3_XEHAP9iMhm6J7jl-1wPjjZnRHvP8JSS66kX1Txj0UzaXdvO8kinpbmYX9Sf0qDdzKJG20ZWjpNjzGnnE.vymey6b5W98OrdvB8tbG4mM2yVI_runaajsz9M-27rY&amp;amp;dib_tag=se&amp;amp;keywords=GoPro&amp;amp;qid=1729613919&amp;amp;sr=8-14&amp;amp;ufe=app_do%3Aamzn1.fos.db68964d-7c0e-4bb2-a95c-e5cb9e32eb12</t>
   </si>
   <si>
     <t>Suporte De Peito Para Celular Câmera Gopro Ajustável Universal Expansível Câmera Esportiva Moto Bike Peitoral Chest Band</t>
   </si>
   <si>
+    <t>R$ 56,90</t>
+  </si>
+  <si>
+    <t>https://www.amazon.com.br/Suporte-Ajust%C3%A1vel-Universal-Expans%C3%ADvel-Esportiva/dp/B0DDR3RK6Q/ref=sr_1_17?dib=eyJ2IjoiMSJ9.K0fArVovWqXAVb9i6DFIm80HdzctwRC0dsB8AuEB_sP6dDzRxE_Z6Tdoa0bz36XXMtH4Ma-FRIZcpY8_mHquXE590Hl1DQVvjsI6qpGjG8vOK_froDzXG3UhyqvYHMg8WaQo_Kf2SIwWBXYGMSL4rb-aQ2os1sNy1CD9RsmwRlw84F5i5I6JQGMQDC82law__nyoGIL3Km9N0aD_k2p7iEOjO3_XEHAP9iMhm6J7jl-1wPjjZnRHvP8JSS66kX1Txj0UzaXdvO8kinpbmYX9Sf0qDdzKJG20ZWjpNjzGnnE.vymey6b5W98OrdvB8tbG4mM2yVI_runaajsz9M-27rY&amp;amp;dib_tag=se&amp;amp;keywords=GoPro&amp;amp;qid=1729613919&amp;amp;sr=8-17</t>
+  </si>
+  <si>
+    <t>https://www.amazon.com.br/sspa/click?ie=UTF8&amp;amp;spc=MToyNjE3MTcwNDA3NjQ2MTQ4OjE3Mjk2MTM5MTk6c3BfbXRmOjMwMDM2Mzk4NTE3NDIwMjo6MDo6&amp;amp;url=%2FGoPro-Mini-Bast%25C3%25A3o-Extensor-Port%25C3%25A1til-Modelos%2Fdp%2FB0755G21GJ%2Fref%3Dsr_1_21_sspa%3Fdib%3DeyJ2IjoiMSJ9.K0fArVovWqXAVb9i6DFIm80HdzctwRC0dsB8AuEB_sP6dDzRxE_Z6Tdoa0bz36XXMtH4Ma-FRIZcpY8_mHquXE590Hl1DQVvjsI6qpGjG8vOK_froDzXG3UhyqvYHMg8WaQo_Kf2SIwWBXYGMSL4rb-aQ2os1sNy1CD9RsmwRlw84F5i5I6JQGMQDC82law__nyoGIL3Km9N0aD_k2p7iEOjO3_XEHAP9iMhm6J7jl-1wPjjZnRHvP8JSS66kX1Txj0UzaXdvO8kinpbmYX9Sf0qDdzKJG20ZWjpNjzGnnE.vymey6b5W98OrdvB8tbG4mM2yVI_runaajsz9M-27rY%26dib_tag%3Dse%26keywords%3DGoPro%26qid%3D1729613919%26sr%3D8-21-spons%26ufe%3Dapp_do%253Aamzn1.fos.db68964d-7c0e-4bb2-a95c-e5cb9e32eb12%26sp_csd%3Dd2lkZ2V0TmFtZT1zcF9tdGY%26psc%3D1</t>
+  </si>
+  <si>
+    <t>Smartwatch Relógio Inteligente My Watch I Slim Haiz Resistente à Água IP67 Receba Notificações com Funções Esportivas</t>
+  </si>
+  <si>
+    <t>R$ 169,99</t>
+  </si>
+  <si>
+    <t>https://www.amazon.com.br/Smartwatch-Rel%C3%B3gio-Inteligente-Watch-HZ-Z15/dp/B0BWSB7SBF/ref=sr_1_7?dib=eyJ2IjoiMSJ9.ouGHdQT8jkPgBqAvhtDFW3BZ-WSfohz-WNGWix2mAZRRG6zzQVdEFYW4LEHvCqHIzoC_jH-qdrEZPnlElvCZ7kCSAjbaALisj5KLvgJluzY9YrBTxnukbiHjuBqJwbKED2BlHQ6KEG0h4nD6y2T_1BWG0frSOk9V7HPC0EWLEgG-_RK80eVXTYP8f76p0wEaBoQr5DBmtRGmQ6gGVruYa_rEvC-LRg8xocMMqwl2t-uy9vqbEzp2X28_u-1J-YIuxPI5gNragx6SlQRAUHtecafjaO-nUsV1CFp2OpB9fPA.UZrpLmn7BoEW0sSpxkfTcH5i6U9XTx-xT64-vrGa6nE&amp;amp;dib_tag=se&amp;amp;keywords=SmartWatch&amp;amp;qid=1729613921&amp;amp;sr=8-7&amp;amp;ufe=app_do%3Aamzn1.fos.6121c6c4-c969-43ae-92f7-cc248fc6181d</t>
+  </si>
+  <si>
+    <t>Smartwatch Xiaomi Redmi Watch 3 Active, Grey(VERSÃO GLOBAL)</t>
+  </si>
+  <si>
+    <t>R$ 269,90</t>
+  </si>
+  <si>
+    <t>https://www.amazon.com.br/Smartwatch-Xiaomi-Active-VERS%C3%83O-GLOBAL/dp/B0C8JYNTKZ/ref=sr_1_10?dib=eyJ2IjoiMSJ9.ouGHdQT8jkPgBqAvhtDFW3BZ-WSfohz-WNGWix2mAZRRG6zzQVdEFYW4LEHvCqHIzoC_jH-qdrEZPnlElvCZ7kCSAjbaALisj5KLvgJluzY9YrBTxnukbiHjuBqJwbKED2BlHQ6KEG0h4nD6y2T_1BWG0frSOk9V7HPC0EWLEgG-_RK80eVXTYP8f76p0wEaBoQr5DBmtRGmQ6gGVruYa_rEvC-LRg8xocMMqwl2t-uy9vqbEzp2X28_u-1J-YIuxPI5gNragx6SlQRAUHtecafjaO-nUsV1CFp2OpB9fPA.UZrpLmn7BoEW0sSpxkfTcH5i6U9XTx-xT64-vrGa6nE&amp;amp;dib_tag=se&amp;amp;keywords=SmartWatch&amp;amp;qid=1729613921&amp;amp;sr=8-10&amp;amp;ufe=app_do%3Aamzn1.fos.db68964d-7c0e-4bb2-a95c-e5cb9e32eb12</t>
+  </si>
+  <si>
+    <t>Smartwatch Redmi watch 3 active relógio Redmi Xiaomi preto</t>
+  </si>
+  <si>
+    <t>R$ 309,90</t>
+  </si>
+  <si>
+    <t>https://www.amazon.com.br/Smartwatch-Redmi-active-rel%C3%B3gio-Xiaomi/dp/B0CNBGP4MH/ref=sr_1_12?dib=eyJ2IjoiMSJ9.ouGHdQT8jkPgBqAvhtDFW3BZ-WSfohz-WNGWix2mAZRRG6zzQVdEFYW4LEHvCqHIzoC_jH-qdrEZPnlElvCZ7kCSAjbaALisj5KLvgJluzY9YrBTxnukbiHjuBqJwbKED2BlHQ6KEG0h4nD6y2T_1BWG0frSOk9V7HPC0EWLEgG-_RK80eVXTYP8f76p0wEaBoQr5DBmtRGmQ6gGVruYa_rEvC-LRg8xocMMqwl2t-uy9vqbEzp2X28_u-1J-YIuxPI5gNragx6SlQRAUHtecafjaO-nUsV1CFp2OpB9fPA.UZrpLmn7BoEW0sSpxkfTcH5i6U9XTx-xT64-vrGa6nE&amp;amp;dib_tag=se&amp;amp;keywords=SmartWatch&amp;amp;qid=1729613921&amp;amp;sr=8-12&amp;amp;ufe=app_do%3Aamzn1.fos.fcd6d665-32ba-4479-9f21-b774e276a678</t>
+  </si>
+  <si>
+    <t>WB SmartWatch tela 1,85&amp;quot; 45mm Fitness tracker 24 modos esportivos ultra leve até 10 dias de bateria À prova d&amp;#x27;água e Watchfaces Rosa (Rosa)</t>
+  </si>
+  <si>
+    <t>R$ 299,90</t>
+  </si>
+  <si>
+    <t>https://www.amazon.com.br/WB-SmartWatch-esportivos-monitoramento-oxigena%C3%A7%C3%A3o/dp/B0BJ2ZSRPJ/ref=sr_1_14?dib=eyJ2IjoiMSJ9.ouGHdQT8jkPgBqAvhtDFW3BZ-WSfohz-WNGWix2mAZRRG6zzQVdEFYW4LEHvCqHIzoC_jH-qdrEZPnlElvCZ7kCSAjbaALisj5KLvgJluzY9YrBTxnukbiHjuBqJwbKED2BlHQ6KEG0h4nD6y2T_1BWG0frSOk9V7HPC0EWLEgG-_RK80eVXTYP8f76p0wEaBoQr5DBmtRGmQ6gGVruYa_rEvC-LRg8xocMMqwl2t-uy9vqbEzp2X28_u-1J-YIuxPI5gNragx6SlQRAUHtecafjaO-nUsV1CFp2OpB9fPA.UZrpLmn7BoEW0sSpxkfTcH5i6U9XTx-xT64-vrGa6nE&amp;amp;dib_tag=se&amp;amp;keywords=SmartWatch&amp;amp;qid=1729613921&amp;amp;sr=8-14&amp;amp;ufe=app_do%3Aamzn1.fos.db68964d-7c0e-4bb2-a95c-e5cb9e32eb12</t>
+  </si>
+  <si>
+    <t>Amazfit GTS 4 mini smartwatch para homens e mulheres, Alexa GPS, rastreador de fitness com 120+ modos de exercício, duração da bateria de 15 dias, compatível com telefones Android e iPhone preto</t>
+  </si>
+  <si>
+    <t>R$ 639,99</t>
+  </si>
+  <si>
+    <t>https://www.amazon.com.br/Amazfit-smartwatch-rastreador-exerc%C3%ADcio-compat%C3%ADvel/dp/B0D25P367Q/ref=sr_1_17?dib=eyJ2IjoiMSJ9.ouGHdQT8jkPgBqAvhtDFW3BZ-WSfohz-WNGWix2mAZRRG6zzQVdEFYW4LEHvCqHIzoC_jH-qdrEZPnlElvCZ7kCSAjbaALisj5KLvgJluzY9YrBTxnukbiHjuBqJwbKED2BlHQ6KEG0h4nD6y2T_1BWG0frSOk9V7HPC0EWLEgG-_RK80eVXTYP8f76p0wEaBoQr5DBmtRGmQ6gGVruYa_rEvC-LRg8xocMMqwl2t-uy9vqbEzp2X28_u-1J-YIuxPI5gNragx6SlQRAUHtecafjaO-nUsV1CFp2OpB9fPA.UZrpLmn7BoEW0sSpxkfTcH5i6U9XTx-xT64-vrGa6nE&amp;amp;dib_tag=se&amp;amp;keywords=SmartWatch&amp;amp;qid=1729613921&amp;amp;sr=8-17&amp;amp;ufe=app_do%3Aamzn1.fos.25548f35-0de7-44b3-b28e-0f56f3f96147</t>
+  </si>
+  <si>
+    <t>https://www.amazon.com.br/sspa/click?ie=UTF8&amp;amp;spc=MToxNjkzMTUxNjE0ODAwMDQ1OjE3Mjk2MTM5MjE6c3BfbXRmOjMwMDQ1NzE1OTc5MjEwMjo6MDo6&amp;amp;url=%2FSmartwatch-Xiaomi-Active-VERS%25C3%2583O-GLOBAL%2Fdp%2FB0C8JYNTKZ%2Fref%3Dsr_1_22_sspa%3Fdib%3DeyJ2IjoiMSJ9.ouGHdQT8jkPgBqAvhtDFW3BZ-WSfohz-WNGWix2mAZRRG6zzQVdEFYW4LEHvCqHIzoC_jH-qdrEZPnlElvCZ7kCSAjbaALisj5KLvgJluzY9YrBTxnukbiHjuBqJwbKED2BlHQ6KEG0h4nD6y2T_1BWG0frSOk9V7HPC0EWLEgG-_RK80eVXTYP8f76p0wEaBoQr5DBmtRGmQ6gGVruYa_rEvC-LRg8xocMMqwl2t-uy9vqbEzp2X28_u-1J-YIuxPI5gNragx6SlQRAUHtecafjaO-nUsV1CFp2OpB9fPA.UZrpLmn7BoEW0sSpxkfTcH5i6U9XTx-xT64-vrGa6nE%26dib_tag%3Dse%26keywords%3DSmartWatch%26qid%3D1729613921%26sr%3D8-22-spons%26ufe%3Dapp_do%253Aamzn1.fos.db68964d-7c0e-4bb2-a95c-e5cb9e32eb12%26sp_csd%3Dd2lkZ2V0TmFtZT1zcF9tdGY%26psc%3D1</t>
+  </si>
+  <si>
+    <t>Relógio Inteligente TranyaGo Tela Full Touch 1.69&amp;quot; Resistente à Água IP68 com Modos Esportivos e Recebimento de Notificações Smartwatch</t>
+  </si>
+  <si>
+    <t>https://www.amazon.com.br/Inteligente-Resistente-Esportivos-Recebimento-Notifica%C3%A7%C3%B5es/dp/B0D41GR25J/ref=sr_1_8?dib=eyJ2IjoiMSJ9.ouGHdQT8jkPgBqAvhtDFW3BZ-WSfohz-WNGWix2mAZRRG6zzQVdEFYW4LEHvCqHIzoC_jH-qdrEZPnlElvCZ7kCSAjbaALisj5KLvgJluzY9YrBTxnukbiHjuBqJwbKED2BlHQ6KEG0h4nD6y2T_1BWG0frSOk9V7HPC0EWLEgG-_RK80eVXTYP8f76p0wEaBoQr5DBmtRGmQ6gGVruYa_rEvC-LRg8xocMMqwl2t-uy9vqbEzp2X28_u-1J-YIuxPI5gNragx6SlQRAUHtecafjaO-nUsV1CFp2OpB9fPA.UZrpLmn7BoEW0sSpxkfTcH5i6U9XTx-xT64-vrGa6nE&amp;amp;dib_tag=se&amp;amp;keywords=SmartWatch&amp;amp;qid=1729613921&amp;amp;sr=8-8&amp;amp;ufe=app_do%3Aamzn1.fos.6121c6c4-c969-43ae-92f7-cc248fc6181d</t>
+  </si>
+  <si>
+    <t>Smartband, HUAWEI Band 9, Confortável durante o dia inteiro, Monitore a saúde do seu sono, Até duas semanas de bateria, Compatível com iOS e Android (preto)</t>
+  </si>
+  <si>
+    <t>R$ 309,00</t>
+  </si>
+  <si>
+    <t>https://www.amazon.com.br/Smartband-HUAWEI-Confort%C3%A1vel-Monitore-Compat%C3%ADvel/dp/B0CX4ZHR8S/ref=sr_1_27_mod_primary_new?dib=eyJ2IjoiMSJ9.ouGHdQT8jkPgBqAvhtDFW3BZ-WSfohz-WNGWix2mAZRRG6zzQVdEFYW4LEHvCqHIzoC_jH-qdrEZPnlElvCZ7kCSAjbaALisj5KLvgJluzY9YrBTxnukbiHjuBqJwbKED2BlHQ6KEG0h4nD6y2T_1BWG0frSOk9V7HPC0EWLEgG-_RK80eVXTYP8f76p0wEaBoQr5DBmtRGmQ6gGVruYa_rEvC-LRg8xocMMqwl2t-uy9vqbEzp2X28_u-1J-YIuxPI5gNragx6SlQRAUHtecafjaO-nUsV1CFp2OpB9fPA.UZrpLmn7BoEW0sSpxkfTcH5i6U9XTx-xT64-vrGa6nE&amp;amp;dib_tag=se&amp;amp;keywords=SmartWatch&amp;amp;qid=1729613921&amp;amp;sbo=RZvfv%2F%2FHxDF%2BO5021pAnSA%3D%3D&amp;amp;sr=8-27</t>
+  </si>
+  <si>
+    <t>Smartband HUAWEI Band 8, Design Ultra-fino, 14 dias de duração da bateria, Bateria completa em apenas 45 mins, TruSleepTM 3.0, respostas rápidas de mensagens, compatível com iOS e Android, Preto</t>
+  </si>
+  <si>
+    <t>R$ 279,00</t>
+  </si>
+  <si>
+    <t>https://www.amazon.com.br/Smartband-HUAWEI-Ultra-fino-TruSleepTM-compat%C3%ADvel/dp/B0BZY4QVNK/ref=sr_1_16?dib=eyJ2IjoiMSJ9.ouGHdQT8jkPgBqAvhtDFW3BZ-WSfohz-WNGWix2mAZRRG6zzQVdEFYW4LEHvCqHIzoC_jH-qdrEZPnlElvCZ7kCSAjbaALisj5KLvgJluzY9YrBTxnukbiHjuBqJwbKED2BlHQ6KEG0h4nD6y2T_1BWG0frSOk9V7HPC0EWLEgG-_RK80eVXTYP8f76p0wEaBoQr5DBmtRGmQ6gGVruYa_rEvC-LRg8xocMMqwl2t-uy9vqbEzp2X28_u-1J-YIuxPI5gNragx6SlQRAUHtecafjaO-nUsV1CFp2OpB9fPA.UZrpLmn7BoEW0sSpxkfTcH5i6U9XTx-xT64-vrGa6nE&amp;amp;dib_tag=se&amp;amp;keywords=SmartWatch&amp;amp;qid=1729613921&amp;amp;sr=8-16&amp;amp;ufe=app_do%3Aamzn1.fos.db68964d-7c0e-4bb2-a95c-e5cb9e32eb12</t>
+  </si>
+  <si>
+    <t>Smartwatch Relógio Inteligente para Android IOS Tela Full Touch 1.28&amp;quot; Resistente à Água IP67 com Modos Esportivos e Recebimento de Notificações‎(2 tiras: 1 Aço Inoxidável + 1 Pulseira de Silicone)</t>
+  </si>
+  <si>
+    <t>R$ 149,79</t>
+  </si>
+  <si>
+    <t>https://www.amazon.com.br/Smartwatch-Inteligente-Resistente-Recebimento-Notifica%C3%A7%C3%B5es%E2%80%8E/dp/B0D7S21ZF7/ref=sr_1_25?dib=eyJ2IjoiMSJ9.ouGHdQT8jkPgBqAvhtDFW3BZ-WSfohz-WNGWix2mAZRRG6zzQVdEFYW4LEHvCqHIzoC_jH-qdrEZPnlElvCZ7kCSAjbaALisj5KLvgJluzY9YrBTxnukbiHjuBqJwbKED2BlHQ6KEG0h4nD6y2T_1BWG0frSOk9V7HPC0EWLEgG-_RK80eVXTYP8f76p0wEaBoQr5DBmtRGmQ6gGVruYa_rEvC-LRg8xocMMqwl2t-uy9vqbEzp2X28_u-1J-YIuxPI5gNragx6SlQRAUHtecafjaO-nUsV1CFp2OpB9fPA.UZrpLmn7BoEW0sSpxkfTcH5i6U9XTx-xT64-vrGa6nE&amp;amp;dib_tag=se&amp;amp;keywords=SmartWatch&amp;amp;qid=1729613921&amp;amp;sr=8-25&amp;amp;ufe=app_do%3Aamzn1.fos.6d798eae-cadf-45de-946a-f477d47705b9</t>
+  </si>
+  <si>
+    <t>TCL LED SMART TV 32” S5400AF FHD ANDROID TV, PRETO</t>
+  </si>
+  <si>
+    <t>R$ 1.091,55</t>
+  </si>
+  <si>
+    <t>https://www.amazon.com.br/TCL-SMART-S5400AF-ANDROID-PRETO/dp/B0CC6QLWPV/ref=sr_1_6?dib=eyJ2IjoiMSJ9.13kTrmx9WRetJDnvg9Iocs82_1FD8uTnXwy-mEM8IOd-pddNiitikAKdEDfBoI3FNSvPpoRvLes7hqHDiCMCUp6_SaQXj3-KSvPTLkHLx78mq0HGzRHa0XkL6G_Ej9U-sPPHhGEM-imlyEp0AgEdsdVlbTdjO0pZWTxm5XJ140MS42ItuoJc8UAXeEmaLQW7K1PM0Ltare8TTsJxnX_O6C6AycQL4w238-XucslOXngB-gZ3JqxTKJwYh7V_n7G0JIXew4soQYPHYCJ3F9m3vGWpzNdJP6KLuPRV8XMIthU.VlDnTsFpEdlM0-lb7sX4QexVEDkg_qkrvTqYh4teDFw&amp;amp;dib_tag=se&amp;amp;keywords=tv+%27s&amp;amp;qid=1729613922&amp;amp;sr=8-6&amp;amp;ufe=app_do%3Aamzn1.fos.25548f35-0de7-44b3-b28e-0f56f3f96147</t>
+  </si>
+  <si>
+    <t>Smart TV Philips 50&amp;quot; 4K 50PUG7408/78, Google TV, Comando de Voz, Dolby Vision/Atmos, VRR/ALLM, Bluetooth</t>
+  </si>
+  <si>
+    <t>R$ 1.899,05</t>
+  </si>
+  <si>
+    <t>https://www.amazon.com.br/Philips-50PUG7408-78-Comando-Bluetooth/dp/B0CCJW1FVP/ref=sr_1_8?dib=eyJ2IjoiMSJ9.13kTrmx9WRetJDnvg9Iocs82_1FD8uTnXwy-mEM8IOd-pddNiitikAKdEDfBoI3FNSvPpoRvLes7hqHDiCMCUp6_SaQXj3-KSvPTLkHLx78mq0HGzRHa0XkL6G_Ej9U-sPPHhGEM-imlyEp0AgEdsdVlbTdjO0pZWTxm5XJ140MS42ItuoJc8UAXeEmaLQW7K1PM0Ltare8TTsJxnX_O6C6AycQL4w238-XucslOXngB-gZ3JqxTKJwYh7V_n7G0JIXew4soQYPHYCJ3F9m3vGWpzNdJP6KLuPRV8XMIthU.VlDnTsFpEdlM0-lb7sX4QexVEDkg_qkrvTqYh4teDFw&amp;amp;dib_tag=se&amp;amp;keywords=tv+%27s&amp;amp;qid=1729613922&amp;amp;sr=8-8&amp;amp;ufe=app_do%3Aamzn1.fos.25548f35-0de7-44b3-b28e-0f56f3f96147</t>
+  </si>
+  <si>
+    <t>Smart TV 24” Philco PTV24G5YR2CP Roku TV Dolby Audio</t>
+  </si>
+  <si>
+    <t>R$ 819,00</t>
+  </si>
+  <si>
+    <t>https://www.amazon.com.br/Smart-Philco-PTV24G5YR2CP-Dolby-Audio/dp/B0D2RXBBL3/ref=sr_1_9?dib=eyJ2IjoiMSJ9.13kTrmx9WRetJDnvg9Iocs82_1FD8uTnXwy-mEM8IOd-pddNiitikAKdEDfBoI3FNSvPpoRvLes7hqHDiCMCUp6_SaQXj3-KSvPTLkHLx78mq0HGzRHa0XkL6G_Ej9U-sPPHhGEM-imlyEp0AgEdsdVlbTdjO0pZWTxm5XJ140MS42ItuoJc8UAXeEmaLQW7K1PM0Ltare8TTsJxnX_O6C6AycQL4w238-XucslOXngB-gZ3JqxTKJwYh7V_n7G0JIXew4soQYPHYCJ3F9m3vGWpzNdJP6KLuPRV8XMIthU.VlDnTsFpEdlM0-lb7sX4QexVEDkg_qkrvTqYh4teDFw&amp;amp;dib_tag=se&amp;amp;keywords=tv+%27s&amp;amp;qid=1729613922&amp;amp;sr=8-9&amp;amp;ufe=app_do%3Aamzn1.fos.25548f35-0de7-44b3-b28e-0f56f3f96147</t>
+  </si>
+  <si>
+    <t>Smart TV Philips 43&amp;quot; Full HD 43PFG6918/78, Google TV, Comando de Voz, HDR, 3 HDMI, Wifi 5G, Bluetooth</t>
+  </si>
+  <si>
+    <t>R$ 1.730,22</t>
+  </si>
+  <si>
+    <t>https://www.amazon.com.br/Philips-43PFG6918-78-Comando-Bluetooth/dp/B0CCJWFWWN/ref=sr_1_11?dib=eyJ2IjoiMSJ9.13kTrmx9WRetJDnvg9Iocs82_1FD8uTnXwy-mEM8IOd-pddNiitikAKdEDfBoI3FNSvPpoRvLes7hqHDiCMCUp6_SaQXj3-KSvPTLkHLx78mq0HGzRHa0XkL6G_Ej9U-sPPHhGEM-imlyEp0AgEdsdVlbTdjO0pZWTxm5XJ140MS42ItuoJc8UAXeEmaLQW7K1PM0Ltare8TTsJxnX_O6C6AycQL4w238-XucslOXngB-gZ3JqxTKJwYh7V_n7G0JIXew4soQYPHYCJ3F9m3vGWpzNdJP6KLuPRV8XMIthU.VlDnTsFpEdlM0-lb7sX4QexVEDkg_qkrvTqYh4teDFw&amp;amp;dib_tag=se&amp;amp;keywords=tv+%27s&amp;amp;qid=1729613922&amp;amp;sr=8-11&amp;amp;ufe=app_do%3Aamzn1.fos.25548f35-0de7-44b3-b28e-0f56f3f96147</t>
+  </si>
+  <si>
+    <t>Samsung Smart TV LED 32&amp;quot; HD LS32BETBL - Wifi, HDMI, USB</t>
+  </si>
+  <si>
+    <t>R$ 1.099,00</t>
+  </si>
+  <si>
+    <t>https://www.amazon.com.br/Samsung-Smart-TV-LED-LS32BETBL/dp/B0CV21GFP4/ref=sr_1_13?dib=eyJ2IjoiMSJ9.13kTrmx9WRetJDnvg9Iocs82_1FD8uTnXwy-mEM8IOd-pddNiitikAKdEDfBoI3FNSvPpoRvLes7hqHDiCMCUp6_SaQXj3-KSvPTLkHLx78mq0HGzRHa0XkL6G_Ej9U-sPPHhGEM-imlyEp0AgEdsdVlbTdjO0pZWTxm5XJ140MS42ItuoJc8UAXeEmaLQW7K1PM0Ltare8TTsJxnX_O6C6AycQL4w238-XucslOXngB-gZ3JqxTKJwYh7V_n7G0JIXew4soQYPHYCJ3F9m3vGWpzNdJP6KLuPRV8XMIthU.VlDnTsFpEdlM0-lb7sX4QexVEDkg_qkrvTqYh4teDFw&amp;amp;dib_tag=se&amp;amp;keywords=tv+%27s&amp;amp;qid=1729613922&amp;amp;sr=8-13&amp;amp;ufe=app_do%3Aamzn1.fos.25548f35-0de7-44b3-b28e-0f56f3f96147</t>
+  </si>
+  <si>
+    <t>Smart TV 4K 43&amp;quot; LG UHD 43UT8000 Processador α5 Ger7 AI Alexa/Chromecast integrado Otimizador de Jogos webOS 24 compatível com Controle Smart Magic</t>
+  </si>
+  <si>
+    <t>R$ 2.040,60</t>
+  </si>
+  <si>
+    <t>https://www.amazon.com.br/sspa/click?ie=UTF8&amp;amp;spc=MTo3MDQ2MTg2NTg4MjE4NzA0OjE3Mjk2MTM5MjI6c3BfYXRmOjMwMDQyOTg2NDE1NjEwMjo6MDo6&amp;amp;url=%2FLG-Processador-Chromecast-Otimizador-compat%25C3%25ADvel%2Fdp%2FB0DCXK27N1%2Fref%3Dsr_1_2_sspa%3Fdib%3DeyJ2IjoiMSJ9.13kTrmx9WRetJDnvg9Iocs82_1FD8uTnXwy-mEM8IOd-pddNiitikAKdEDfBoI3FNSvPpoRvLes7hqHDiCMCUp6_SaQXj3-KSvPTLkHLx78mq0HGzRHa0XkL6G_Ej9U-sPPHhGEM-imlyEp0AgEdsdVlbTdjO0pZWTxm5XJ140MS42ItuoJc8UAXeEmaLQW7K1PM0Ltare8TTsJxnX_O6C6AycQL4w238-XucslOXngB-gZ3JqxTKJwYh7V_n7G0JIXew4soQYPHYCJ3F9m3vGWpzNdJP6KLuPRV8XMIthU.VlDnTsFpEdlM0-lb7sX4QexVEDkg_qkrvTqYh4teDFw%26dib_tag%3Dse%26keywords%3Dtv%2B%2527s%26qid%3D1729613922%26sr%3D8-2-spons%26ufe%3Dapp_do%253Aamzn1.fos.95de73c3-5dda-43a7-bd1f-63af03b14751%26sp_csd%3Dd2lkZ2V0TmFtZT1zcF9hdGY%26psc%3D1</t>
+  </si>
+  <si>
+    <t>AOC 43S5135/78G - Smart TV LED 43&amp;quot; Full HD, Design sem bordas, Wifi, Conversor Digital, USB, HDMI</t>
+  </si>
+  <si>
+    <t>R$ 1.569,90</t>
+  </si>
+  <si>
+    <t>https://www.amazon.com.br/AOC-43S5135-78G-Conversor-Digital/dp/B0BSLMPB65/ref=sr_1_18?dib=eyJ2IjoiMSJ9.13kTrmx9WRetJDnvg9Iocs82_1FD8uTnXwy-mEM8IOd-pddNiitikAKdEDfBoI3FNSvPpoRvLes7hqHDiCMCUp6_SaQXj3-KSvPTLkHLx78mq0HGzRHa0XkL6G_Ej9U-sPPHhGEM-imlyEp0AgEdsdVlbTdjO0pZWTxm5XJ140MS42ItuoJc8UAXeEmaLQW7K1PM0Ltare8TTsJxnX_O6C6AycQL4w238-XucslOXngB-gZ3JqxTKJwYh7V_n7G0JIXew4soQYPHYCJ3F9m3vGWpzNdJP6KLuPRV8XMIthU.VlDnTsFpEdlM0-lb7sX4QexVEDkg_qkrvTqYh4teDFw&amp;amp;dib_tag=se&amp;amp;keywords=tv+%27s&amp;amp;qid=1729613922&amp;amp;sr=8-18&amp;amp;ufe=app_do%3Aamzn1.fos.25548f35-0de7-44b3-b28e-0f56f3f96147</t>
+  </si>
+  <si>
+    <t>Smart TV 4K 50&amp;quot; LG UHD 50UT8050 Processador α5 Ger7 AI Alexa/Chromecast integrado Otimizador de Jogos webOS 24 Controle Smart Magic</t>
+  </si>
+  <si>
+    <t>R$ 2.361,40</t>
+  </si>
+  <si>
+    <t>https://www.amazon.com.br/sspa/click?ie=UTF8&amp;amp;spc=MTo3MDQ2MTg2NTg4MjE4NzA0OjE3Mjk2MTM5MjI6c3BfYXRmOjMwMDQyOTg2NDE1NTkwMjo6MDo6&amp;amp;url=%2FLG-Processador-Chromecast-integrado-Otimizador%2Fdp%2FB0D9KWYGHL%2Fref%3Dsr_1_3_sspa%3Fdib%3DeyJ2IjoiMSJ9.13kTrmx9WRetJDnvg9Iocs82_1FD8uTnXwy-mEM8IOd-pddNiitikAKdEDfBoI3FNSvPpoRvLes7hqHDiCMCUp6_SaQXj3-KSvPTLkHLx78mq0HGzRHa0XkL6G_Ej9U-sPPHhGEM-imlyEp0AgEdsdVlbTdjO0pZWTxm5XJ140MS42ItuoJc8UAXeEmaLQW7K1PM0Ltare8TTsJxnX_O6C6AycQL4w238-XucslOXngB-gZ3JqxTKJwYh7V_n7G0JIXew4soQYPHYCJ3F9m3vGWpzNdJP6KLuPRV8XMIthU.VlDnTsFpEdlM0-lb7sX4QexVEDkg_qkrvTqYh4teDFw%26dib_tag%3Dse%26keywords%3Dtv%2B%2527s%26qid%3D1729613922%26sr%3D8-3-spons%26ufe%3Dapp_do%253Aamzn1.fos.95de73c3-5dda-43a7-bd1f-63af03b14751%26sp_csd%3Dd2lkZ2V0TmFtZT1zcF9hdGY%26psc%3D1</t>
+  </si>
+  <si>
+    <t>Smart TV LED 32&amp;quot; HD LG 32LQ621CBSB.AWZ - IA LG ThinQ, Alexa built-in</t>
+  </si>
+  <si>
+    <t>R$ 1.129,90</t>
+  </si>
+  <si>
+    <t>https://www.amazon.com.br/Smart-LED-LG-32LQ621CBSB-AWZ-built/dp/B09ZWMV9K2/ref=sr_1_25?dib=eyJ2IjoiMSJ9.13kTrmx9WRetJDnvg9Iocs82_1FD8uTnXwy-mEM8IOd-pddNiitikAKdEDfBoI3FNSvPpoRvLes7hqHDiCMCUp6_SaQXj3-KSvPTLkHLx78mq0HGzRHa0XkL6G_Ej9U-sPPHhGEM-imlyEp0AgEdsdVlbTdjO0pZWTxm5XJ140MS42ItuoJc8UAXeEmaLQW7K1PM0Ltare8TTsJxnX_O6C6AycQL4w238-XucslOXngB-gZ3JqxTKJwYh7V_n7G0JIXew4soQYPHYCJ3F9m3vGWpzNdJP6KLuPRV8XMIthU.VlDnTsFpEdlM0-lb7sX4QexVEDkg_qkrvTqYh4teDFw&amp;amp;dib_tag=se&amp;amp;keywords=tv+%27s&amp;amp;qid=1729613922&amp;amp;sr=8-25&amp;amp;ufe=app_do%3Aamzn1.fos.25548f35-0de7-44b3-b28e-0f56f3f96147</t>
+  </si>
+  <si>
+    <t>Smart TV 43&amp;quot; 4K LG UHD ThinQ AI 43UR7800PSA HDR Bluetooth Alexa Google Assistente Airplay2 3 HDMI</t>
+  </si>
+  <si>
+    <t>R$ 1.889,00</t>
+  </si>
+  <si>
+    <t>https://www.amazon.com.br/LG-43UR7800PSA-Bluetooth-Assistente-Airplay2/dp/B0C6NL4QK3/ref=sr_1_26?dib=eyJ2IjoiMSJ9.13kTrmx9WRetJDnvg9Iocs82_1FD8uTnXwy-mEM8IOd-pddNiitikAKdEDfBoI3FNSvPpoRvLes7hqHDiCMCUp6_SaQXj3-KSvPTLkHLx78mq0HGzRHa0XkL6G_Ej9U-sPPHhGEM-imlyEp0AgEdsdVlbTdjO0pZWTxm5XJ140MS42ItuoJc8UAXeEmaLQW7K1PM0Ltare8TTsJxnX_O6C6AycQL4w238-XucslOXngB-gZ3JqxTKJwYh7V_n7G0JIXew4soQYPHYCJ3F9m3vGWpzNdJP6KLuPRV8XMIthU.VlDnTsFpEdlM0-lb7sX4QexVEDkg_qkrvTqYh4teDFw&amp;amp;dib_tag=se&amp;amp;keywords=tv+%27s&amp;amp;qid=1729613922&amp;amp;sr=8-26&amp;amp;ufe=app_do%3Aamzn1.fos.95de73c3-5dda-43a7-bd1f-63af03b14751</t>
+  </si>
+  <si>
+    <t>Novo Kindle Paperwhite (16 GB) - O Kindle mais rápido já lançado, com nova tela antirreflexo de 7” e bateria que dura semanas - Cor Preta</t>
+  </si>
+  <si>
+    <t>R$ 764,10</t>
+  </si>
+  <si>
+    <t>https://www.amazon.com.br/kindle-paperwhite/dp/B0CFPL6CFY/ref=sr_1_4?dib=eyJ2IjoiMSJ9.ZIBPkI9k9ipMmW0UJ_yhuiFnefxKhlCtUN86Id7cintLWaSs1ZFKrhrMmJBzajK3UOSMn4_g-10-3SCJrzkpZ3fXjLSU_Krp-wXvU1dwSi1igCKQD3HSv8eskoP2vkyc4RzH5NVd2sqtzA-tjfpOpn6X5jvBmsfADplmuG62ErlXX3YIyr4Dm-Iag3a2oqDrkcmrFtDxnyTyBh7oOQbBU9TVsz-sNfH7JCc00GZ5Gscx4twe9V_sZvqstAATFF4ook_fEgrCkAdZur1X52YD8ROqCKqx9Rr6gDKjwF3FpLk.3iU7dSA7H980xqTfkvNARgss4DpwzUULuvbfqKLu2W0&amp;amp;dib_tag=se&amp;amp;keywords=Kindle&amp;amp;qid=1729613923&amp;amp;sr=8-4&amp;amp;ufe=app_do%3Aamzn1.fos.95de73c3-5dda-43a7-bd1f-63af03b14751</t>
+  </si>
+  <si>
+    <t>Novo Kindle Paperwhite Signature Edition (32 GB) - O Kindle mais rápido já lançado, com luz frontal autoadaptável, carregamento sem fio e bateria que dura semanas - Cor Preta Metálica</t>
+  </si>
+  <si>
+    <t>R$ 899,10</t>
+  </si>
+  <si>
+    <t>https://www.amazon.com.br/kindle-paperwhite-signature-edition/dp/B0CFPHTMDX/ref=sr_1_5?dib=eyJ2IjoiMSJ9.ZIBPkI9k9ipMmW0UJ_yhuiFnefxKhlCtUN86Id7cintLWaSs1ZFKrhrMmJBzajK3UOSMn4_g-10-3SCJrzkpZ3fXjLSU_Krp-wXvU1dwSi1igCKQD3HSv8eskoP2vkyc4RzH5NVd2sqtzA-tjfpOpn6X5jvBmsfADplmuG62ErlXX3YIyr4Dm-Iag3a2oqDrkcmrFtDxnyTyBh7oOQbBU9TVsz-sNfH7JCc00GZ5Gscx4twe9V_sZvqstAATFF4ook_fEgrCkAdZur1X52YD8ROqCKqx9Rr6gDKjwF3FpLk.3iU7dSA7H980xqTfkvNARgss4DpwzUULuvbfqKLu2W0&amp;amp;dib_tag=se&amp;amp;keywords=Kindle&amp;amp;qid=1729613923&amp;amp;sr=8-5&amp;amp;ufe=app_do%3Aamzn1.fos.95de73c3-5dda-43a7-bd1f-63af03b14751</t>
+  </si>
+  <si>
+    <t>Kindle Oasis 8GB - Com tela de 7&amp;quot; e botões para troca de páginas - Cor Grafite</t>
+  </si>
+  <si>
+    <t>R$ 1.214,10</t>
+  </si>
+  <si>
+    <t>https://www.amazon.com.br/Kindle-Oasis-8GB/dp/B07L57H5X4/ref=sr_1_9?dib=eyJ2IjoiMSJ9.ZIBPkI9k9ipMmW0UJ_yhuiFnefxKhlCtUN86Id7cintLWaSs1ZFKrhrMmJBzajK3UOSMn4_g-10-3SCJrzkpZ3fXjLSU_Krp-wXvU1dwSi1igCKQD3HSv8eskoP2vkyc4RzH5NVd2sqtzA-tjfpOpn6X5jvBmsfADplmuG62ErlXX3YIyr4Dm-Iag3a2oqDrkcmrFtDxnyTyBh7oOQbBU9TVsz-sNfH7JCc00GZ5Gscx4twe9V_sZvqstAATFF4ook_fEgrCkAdZur1X52YD8ROqCKqx9Rr6gDKjwF3FpLk.3iU7dSA7H980xqTfkvNARgss4DpwzUULuvbfqKLu2W0&amp;amp;dib_tag=se&amp;amp;keywords=Kindle&amp;amp;qid=1729613923&amp;amp;sr=8-9&amp;amp;ufe=app_do%3Aamzn1.fos.95de73c3-5dda-43a7-bd1f-63af03b14751</t>
+  </si>
+  <si>
+    <t>Capa Kindle Paperwhite 6,8 Polegadas (M2L3EK e M2L4EK) – Função Liga/Desliga - Fechamento magnético - Sistema de Hibernação (Preto)</t>
+  </si>
+  <si>
+    <t>R$ 99,89</t>
+  </si>
+  <si>
+    <t>https://www.amazon.com.br/sspa/click?ie=UTF8&amp;amp;spc=MTo4NzkzMDY5NzQwNTg1MzU1OjE3Mjk2MTM5MjM6c3BfYnRmOjMwMDQzOTI0NzczNjYwMjo6MDo6&amp;amp;url=%2FKindle-Paperwhite-Polegadas-M2L3EK-M2L4EK%2Fdp%2FB0DBKMZYPF%2Fref%3Dsr_1_54_sspa%3Fdib%3DeyJ2IjoiMSJ9.ZIBPkI9k9ipMmW0UJ_yhuiFnefxKhlCtUN86Id7cintLWaSs1ZFKrhrMmJBzajK3UOSMn4_g-10-3SCJrzkpZ3fXjLSU_Krp-wXvU1dwSi1igCKQD3HSv8eskoP2vkyc4RzH5NVd2sqtzA-tjfpOpn6X5jvBmsfADplmuG62ErlXX3YIyr4Dm-Iag3a2oqDrkcmrFtDxnyTyBh7oOQbBU9TVsz-sNfH7JCc00GZ5Gscx4twe9V_sZvqstAATFF4ook_fEgrCkAdZur1X52YD8ROqCKqx9Rr6gDKjwF3FpLk.3iU7dSA7H980xqTfkvNARgss4DpwzUULuvbfqKLu2W0%26dib_tag%3Dse%26keywords%3DKindle%26qid%3D1729613923%26sr%3D8-54-spons%26sp_csd%3Dd2lkZ2V0TmFtZT1zcF9idGY%26psc%3D1</t>
+  </si>
+  <si>
+    <t>Capa Kindle 11 Geração Básico C2V2L3 (Não é compatível com o Kindle 11 PAPERWHITE) (Pequeno Principe 2 - Sem Alça)</t>
+  </si>
+  <si>
     <t>R$ 54,90</t>
   </si>
   <si>
-    <t>https://www.amazon.com.br/Suporte-Ajust%C3%A1vel-Universal-Expans%C3%ADvel-Esportiva/dp/B0DDR3RK6Q/ref=sr_1_13?dib=eyJ2IjoiMSJ9.K0fArVovWqXAVb9i6DFIm80HdzctwRC0dsB8AuEB_sMIR_a3Y810j3lzl-v_MSg2nl-mgmljrzKJ9aZoHt2oNsdi6Yupc9OiMEdg8ix7rcCyd4qnqK13b77Jfw7NmPofCTjFTsgaUgh6fo4oLKR3KSFOIouOZJ3VlulMHmYjvx8NPpZKzdoAhptpiwwKd7D3HaLJXaTF6QD1TigJBGVbEWhdoZVt9XwEM5nH4GgcS3RkVWaJTSa_hPb4Fzn-eDEaqfDWvIIKjwo9f9gjNfEwwWuXQ7uP7GsriQTdebpSr1k.BCwWf3Lguag8r1E1EF8InQtTjWb1f0ABf4HlDTGoToM&amp;amp;dib_tag=se&amp;amp;keywords=GoPro&amp;amp;qid=1729423753&amp;amp;sr=8-13</t>
-  </si>
-  <si>
-    <t>GoPro Bateria Recarregável Enduro para as Câmeras HERO12, HERO11, HERO10 e HERO9 Black</t>
-  </si>
-  <si>
-    <t>R$ 281,86</t>
-  </si>
-  <si>
-    <t>https://www.amazon.com.br/GoPro-Bateria-Recarreg%C3%A1vel-Enduro-C%C3%A2meras/dp/B09RKDRP22/ref=sr_1_15?dib=eyJ2IjoiMSJ9.K0fArVovWqXAVb9i6DFIm80HdzctwRC0dsB8AuEB_sMIR_a3Y810j3lzl-v_MSg2nl-mgmljrzKJ9aZoHt2oNsdi6Yupc9OiMEdg8ix7rcCyd4qnqK13b77Jfw7NmPofCTjFTsgaUgh6fo4oLKR3KSFOIouOZJ3VlulMHmYjvx8NPpZKzdoAhptpiwwKd7D3HaLJXaTF6QD1TigJBGVbEWhdoZVt9XwEM5nH4GgcS3RkVWaJTSa_hPb4Fzn-eDEaqfDWvIIKjwo9f9gjNfEwwWuXQ7uP7GsriQTdebpSr1k.BCwWf3Lguag8r1E1EF8InQtTjWb1f0ABf4HlDTGoToM&amp;amp;dib_tag=se&amp;amp;keywords=GoPro&amp;amp;qid=1729423753&amp;amp;sr=8-15&amp;amp;ufe=app_do%3Aamzn1.fos.db68964d-7c0e-4bb2-a95c-e5cb9e32eb12</t>
-  </si>
-  <si>
-    <t>https://www.amazon.com.br/sspa/click?ie=UTF8&amp;amp;spc=MTo3OTcyODk1NjU2OTM5NzEzOjE3Mjk0MjM3NTM6c3BfbXRmOjMwMDM2Mzk4NTE3NDIwMjo6MDo6&amp;amp;url=%2FGoPro-Mini-Bast%25C3%25A3o-Extensor-Port%25C3%25A1til-Modelos%2Fdp%2FB0755G21GJ%2Fref%3Dsr_1_23_sspa%3Fdib%3DeyJ2IjoiMSJ9.K0fArVovWqXAVb9i6DFIm80HdzctwRC0dsB8AuEB_sMIR_a3Y810j3lzl-v_MSg2nl-mgmljrzKJ9aZoHt2oNsdi6Yupc9OiMEdg8ix7rcCyd4qnqK13b77Jfw7NmPofCTjFTsgaUgh6fo4oLKR3KSFOIouOZJ3VlulMHmYjvx8NPpZKzdoAhptpiwwKd7D3HaLJXaTF6QD1TigJBGVbEWhdoZVt9XwEM5nH4GgcS3RkVWaJTSa_hPb4Fzn-eDEaqfDWvIIKjwo9f9gjNfEwwWuXQ7uP7GsriQTdebpSr1k.BCwWf3Lguag8r1E1EF8InQtTjWb1f0ABf4HlDTGoToM%26dib_tag%3Dse%26keywords%3DGoPro%26qid%3D1729423753%26sr%3D8-23-spons%26ufe%3Dapp_do%253Aamzn1.fos.fcd6d665-32ba-4479-9f21-b774e276a678%26sp_csd%3Dd2lkZ2V0TmFtZT1zcF9tdGY%26psc%3D1</t>
-  </si>
-  <si>
-    <t>Smartwatch Relógio Inteligente My Watch I Slim Haiz Resistente à Água IP67 Receba Notificações com Funções Esportivas</t>
-  </si>
-  <si>
-    <t>R$ 169,99</t>
-  </si>
-  <si>
-    <t>https://www.amazon.com.br/Smartwatch-Rel%C3%B3gio-Inteligente-Watch-HZ-Z15/dp/B0BWSB7SBF/ref=sr_1_6?dib=eyJ2IjoiMSJ9.ouGHdQT8jkPgBqAvhtDFW3HIsiefRTzXfEGZYMenzgNRG6zzQVdEFYW4LEHvCqHIzoC_jH-qdrEZPnlElvCZ7kCSAjbaALisj5KLvgJluzYfyPkOuSe2hUQKTOg7rz6vLtjpabWF__8_KZmLIPRX8f5D3D0sI2tU66JCbiQGDCurA5h5JqUulZ2NIPhC9pSRGpRpgYLkf8Y1eKBnaSQZuGWq02h_QoYnepuO5owo36vVUWGkVWntFjc_2iMhCcIpJJSQFJQMwGtudGf-sx8Tk02qX9Qh0bamG1c8-vJ_Kb0.PCL_EiW1yR8WYkl4MqSNZ9f8KpCi8r_7_CzsIVFEAQw&amp;amp;dib_tag=se&amp;amp;keywords=SmartWatch&amp;amp;qid=1729423754&amp;amp;sr=8-6&amp;amp;ufe=app_do%3Aamzn1.fos.6121c6c4-c969-43ae-92f7-cc248fc6181d</t>
-  </si>
-  <si>
-    <t>Smartwatch Xiaomi Redmi Watch 3 Active, Grey(VERSÃO GLOBAL)</t>
-  </si>
-  <si>
-    <t>R$ 359,99</t>
-  </si>
-  <si>
-    <t>https://www.amazon.com.br/Smartwatch-Xiaomi-Active-VERS%C3%83O-GLOBAL/dp/B0C8JYNTKZ/ref=sr_1_10?dib=eyJ2IjoiMSJ9.ouGHdQT8jkPgBqAvhtDFW3HIsiefRTzXfEGZYMenzgNRG6zzQVdEFYW4LEHvCqHIzoC_jH-qdrEZPnlElvCZ7kCSAjbaALisj5KLvgJluzYfyPkOuSe2hUQKTOg7rz6vLtjpabWF__8_KZmLIPRX8f5D3D0sI2tU66JCbiQGDCurA5h5JqUulZ2NIPhC9pSRGpRpgYLkf8Y1eKBnaSQZuGWq02h_QoYnepuO5owo36vVUWGkVWntFjc_2iMhCcIpJJSQFJQMwGtudGf-sx8Tk02qX9Qh0bamG1c8-vJ_Kb0.PCL_EiW1yR8WYkl4MqSNZ9f8KpCi8r_7_CzsIVFEAQw&amp;amp;dib_tag=se&amp;amp;keywords=SmartWatch&amp;amp;qid=1729423754&amp;amp;sr=8-10&amp;amp;ufe=app_do%3Aamzn1.fos.4bb5663b-6f7d-4772-84fa-7c7f565ec65b</t>
-  </si>
-  <si>
-    <t>Smartwatch Redmi watch 3 active relógio Redmi Xiaomi preto</t>
-  </si>
-  <si>
-    <t>R$ 309,90</t>
-  </si>
-  <si>
-    <t>https://www.amazon.com.br/Smartwatch-Redmi-active-rel%C3%B3gio-Xiaomi/dp/B0CNBGP4MH/ref=sr_1_12?dib=eyJ2IjoiMSJ9.ouGHdQT8jkPgBqAvhtDFW3HIsiefRTzXfEGZYMenzgNRG6zzQVdEFYW4LEHvCqHIzoC_jH-qdrEZPnlElvCZ7kCSAjbaALisj5KLvgJluzYfyPkOuSe2hUQKTOg7rz6vLtjpabWF__8_KZmLIPRX8f5D3D0sI2tU66JCbiQGDCurA5h5JqUulZ2NIPhC9pSRGpRpgYLkf8Y1eKBnaSQZuGWq02h_QoYnepuO5owo36vVUWGkVWntFjc_2iMhCcIpJJSQFJQMwGtudGf-sx8Tk02qX9Qh0bamG1c8-vJ_Kb0.PCL_EiW1yR8WYkl4MqSNZ9f8KpCi8r_7_CzsIVFEAQw&amp;amp;dib_tag=se&amp;amp;keywords=SmartWatch&amp;amp;qid=1729423754&amp;amp;sr=8-12&amp;amp;ufe=app_do%3Aamzn1.fos.fcd6d665-32ba-4479-9f21-b774e276a678</t>
-  </si>
-  <si>
-    <t>WB SmartWatch tela 1,85&amp;quot; 45mm Fitness tracker 24 modos esportivos ultra leve até 10 dias de bateria À prova d&amp;#x27;água e Watchfaces Rosa (Rosa)</t>
-  </si>
-  <si>
-    <t>R$ 299,90</t>
-  </si>
-  <si>
-    <t>https://www.amazon.com.br/WB-SmartWatch-esportivos-monitoramento-oxigena%C3%A7%C3%A3o/dp/B0BJ2ZSRPJ/ref=sr_1_15?dib=eyJ2IjoiMSJ9.ouGHdQT8jkPgBqAvhtDFW3HIsiefRTzXfEGZYMenzgNRG6zzQVdEFYW4LEHvCqHIzoC_jH-qdrEZPnlElvCZ7kCSAjbaALisj5KLvgJluzYfyPkOuSe2hUQKTOg7rz6vLtjpabWF__8_KZmLIPRX8f5D3D0sI2tU66JCbiQGDCurA5h5JqUulZ2NIPhC9pSRGpRpgYLkf8Y1eKBnaSQZuGWq02h_QoYnepuO5owo36vVUWGkVWntFjc_2iMhCcIpJJSQFJQMwGtudGf-sx8Tk02qX9Qh0bamG1c8-vJ_Kb0.PCL_EiW1yR8WYkl4MqSNZ9f8KpCi8r_7_CzsIVFEAQw&amp;amp;dib_tag=se&amp;amp;keywords=SmartWatch&amp;amp;qid=1729423754&amp;amp;sr=8-15&amp;amp;ufe=app_do%3Aamzn1.fos.db68964d-7c0e-4bb2-a95c-e5cb9e32eb12</t>
-  </si>
-  <si>
-    <t>Amazfit GTS 4 mini smartwatch para homens e mulheres, Alexa GPS, rastreador de fitness com 120+ modos de exercício, duração da bateria de 15 dias, compatível com telefones Android e iPhone preto</t>
-  </si>
-  <si>
-    <t>R$ 614,90</t>
-  </si>
-  <si>
-    <t>https://www.amazon.com.br/Amazfit-smartwatch-rastreador-exerc%C3%ADcio-compat%C3%ADvel/dp/B0D25P367Q/ref=sr_1_27?dib=eyJ2IjoiMSJ9.ouGHdQT8jkPgBqAvhtDFW3HIsiefRTzXfEGZYMenzgNRG6zzQVdEFYW4LEHvCqHIzoC_jH-qdrEZPnlElvCZ7kCSAjbaALisj5KLvgJluzYfyPkOuSe2hUQKTOg7rz6vLtjpabWF__8_KZmLIPRX8f5D3D0sI2tU66JCbiQGDCurA5h5JqUulZ2NIPhC9pSRGpRpgYLkf8Y1eKBnaSQZuGWq02h_QoYnepuO5owo36vVUWGkVWntFjc_2iMhCcIpJJSQFJQMwGtudGf-sx8Tk02qX9Qh0bamG1c8-vJ_Kb0.PCL_EiW1yR8WYkl4MqSNZ9f8KpCi8r_7_CzsIVFEAQw&amp;amp;dib_tag=se&amp;amp;keywords=SmartWatch&amp;amp;qid=1729423754&amp;amp;sr=8-27&amp;amp;ufe=app_do%3Aamzn1.fos.a492fd4a-f54d-4e8d-8c31-35e0a04ce61e</t>
-  </si>
-  <si>
-    <t>Relógio Inteligente TranyaGo Tela Full Touch 1.69&amp;quot; Resistente à Água IP68 com Modos Esportivos e Recebimento de Notificações Smartwatch</t>
-  </si>
-  <si>
-    <t>R$ 159,99</t>
-  </si>
-  <si>
-    <t>https://www.amazon.com.br/Inteligente-Resistente-Esportivos-Recebimento-Notifica%C3%A7%C3%B5es/dp/B0D41GR25J/ref=sr_1_8?dib=eyJ2IjoiMSJ9.ouGHdQT8jkPgBqAvhtDFW3HIsiefRTzXfEGZYMenzgNRG6zzQVdEFYW4LEHvCqHIzoC_jH-qdrEZPnlElvCZ7kCSAjbaALisj5KLvgJluzYfyPkOuSe2hUQKTOg7rz6vLtjpabWF__8_KZmLIPRX8f5D3D0sI2tU66JCbiQGDCurA5h5JqUulZ2NIPhC9pSRGpRpgYLkf8Y1eKBnaSQZuGWq02h_QoYnepuO5owo36vVUWGkVWntFjc_2iMhCcIpJJSQFJQMwGtudGf-sx8Tk02qX9Qh0bamG1c8-vJ_Kb0.PCL_EiW1yR8WYkl4MqSNZ9f8KpCi8r_7_CzsIVFEAQw&amp;amp;dib_tag=se&amp;amp;keywords=SmartWatch&amp;amp;qid=1729423754&amp;amp;sr=8-8&amp;amp;ufe=app_do%3Aamzn1.fos.6121c6c4-c969-43ae-92f7-cc248fc6181d</t>
-  </si>
-  <si>
-    <t>Smartband, HUAWEI Band 9, Confortável durante o dia inteiro, Monitore a saúde do seu sono, Até duas semanas de bateria, Compatível com iOS e Android (preto)</t>
-  </si>
-  <si>
-    <t>R$ 309,00</t>
-  </si>
-  <si>
-    <t>https://www.amazon.com.br/Smartband-HUAWEI-Confort%C3%A1vel-Monitore-Compat%C3%ADvel/dp/B0CX4ZHR8S/ref=sr_1_26_mod_primary_new?dib=eyJ2IjoiMSJ9.ouGHdQT8jkPgBqAvhtDFW3HIsiefRTzXfEGZYMenzgNRG6zzQVdEFYW4LEHvCqHIzoC_jH-qdrEZPnlElvCZ7kCSAjbaALisj5KLvgJluzYfyPkOuSe2hUQKTOg7rz6vLtjpabWF__8_KZmLIPRX8f5D3D0sI2tU66JCbiQGDCurA5h5JqUulZ2NIPhC9pSRGpRpgYLkf8Y1eKBnaSQZuGWq02h_QoYnepuO5owo36vVUWGkVWntFjc_2iMhCcIpJJSQFJQMwGtudGf-sx8Tk02qX9Qh0bamG1c8-vJ_Kb0.PCL_EiW1yR8WYkl4MqSNZ9f8KpCi8r_7_CzsIVFEAQw&amp;amp;dib_tag=se&amp;amp;keywords=SmartWatch&amp;amp;qid=1729423754&amp;amp;sbo=RZvfv%2F%2FHxDF%2BO5021pAnSA%3D%3D&amp;amp;sr=8-26</t>
-  </si>
-  <si>
-    <t>Smartband HUAWEI Band 8, Design Ultra-fino, 14 dias de duração da bateria, Bateria completa em apenas 45 mins, TruSleepTM 3.0, respostas rápidas de mensagens, compatível com iOS e Android, Preto</t>
-  </si>
-  <si>
-    <t>R$ 279,00</t>
-  </si>
-  <si>
-    <t>https://www.amazon.com.br/Smartband-HUAWEI-Ultra-fino-TruSleepTM-compat%C3%ADvel/dp/B0BZY4QVNK/ref=sr_1_17?dib=eyJ2IjoiMSJ9.ouGHdQT8jkPgBqAvhtDFW3HIsiefRTzXfEGZYMenzgNRG6zzQVdEFYW4LEHvCqHIzoC_jH-qdrEZPnlElvCZ7kCSAjbaALisj5KLvgJluzYfyPkOuSe2hUQKTOg7rz6vLtjpabWF__8_KZmLIPRX8f5D3D0sI2tU66JCbiQGDCurA5h5JqUulZ2NIPhC9pSRGpRpgYLkf8Y1eKBnaSQZuGWq02h_QoYnepuO5owo36vVUWGkVWntFjc_2iMhCcIpJJSQFJQMwGtudGf-sx8Tk02qX9Qh0bamG1c8-vJ_Kb0.PCL_EiW1yR8WYkl4MqSNZ9f8KpCi8r_7_CzsIVFEAQw&amp;amp;dib_tag=se&amp;amp;keywords=SmartWatch&amp;amp;qid=1729423754&amp;amp;sr=8-17&amp;amp;ufe=app_do%3Aamzn1.fos.db68964d-7c0e-4bb2-a95c-e5cb9e32eb12</t>
-  </si>
-  <si>
-    <t>Smartwatch Relógio Inteligente para Android IOS Tela Full Touch 1.28&amp;quot; Resistente à Água IP67 com Modos Esportivos e Recebimento de Notificações‎(2 tiras: 1 Aço Inoxidável + 1 Pulseira de Silicone)</t>
-  </si>
-  <si>
-    <t>R$ 149,49</t>
-  </si>
-  <si>
-    <t>https://www.amazon.com.br/Smartwatch-Inteligente-Resistente-Recebimento-Notifica%C3%A7%C3%B5es%E2%80%8E/dp/B0D7S21ZF7/ref=sr_1_20?dib=eyJ2IjoiMSJ9.ouGHdQT8jkPgBqAvhtDFW3HIsiefRTzXfEGZYMenzgNRG6zzQVdEFYW4LEHvCqHIzoC_jH-qdrEZPnlElvCZ7kCSAjbaALisj5KLvgJluzYfyPkOuSe2hUQKTOg7rz6vLtjpabWF__8_KZmLIPRX8f5D3D0sI2tU66JCbiQGDCurA5h5JqUulZ2NIPhC9pSRGpRpgYLkf8Y1eKBnaSQZuGWq02h_QoYnepuO5owo36vVUWGkVWntFjc_2iMhCcIpJJSQFJQMwGtudGf-sx8Tk02qX9Qh0bamG1c8-vJ_Kb0.PCL_EiW1yR8WYkl4MqSNZ9f8KpCi8r_7_CzsIVFEAQw&amp;amp;dib_tag=se&amp;amp;keywords=SmartWatch&amp;amp;qid=1729423754&amp;amp;sr=8-20&amp;amp;ufe=app_do%3Aamzn1.fos.6d798eae-cadf-45de-946a-f477d47705b9</t>
-  </si>
-  <si>
-    <t>HAYLOU Solar Plus RT3 Smartwatch, 1.43 &amp;quot;AMOLED Display Bluetooth Telefone Chamada Relógio Inteligente para Homens e Mulheres, Exibição Sempre Ativa, Bluetooth 5.3</t>
-  </si>
-  <si>
-    <t>R$ 249,90</t>
-  </si>
-  <si>
-    <t>https://www.amazon.com.br/HAYLOU-RT3-Smartwatch-Bluetooth-Inteligente/dp/B0D291W3C6/ref=sr_1_28?dib=eyJ2IjoiMSJ9.ouGHdQT8jkPgBqAvhtDFW3HIsiefRTzXfEGZYMenzgNRG6zzQVdEFYW4LEHvCqHIzoC_jH-qdrEZPnlElvCZ7kCSAjbaALisj5KLvgJluzYfyPkOuSe2hUQKTOg7rz6vLtjpabWF__8_KZmLIPRX8f5D3D0sI2tU66JCbiQGDCurA5h5JqUulZ2NIPhC9pSRGpRpgYLkf8Y1eKBnaSQZuGWq02h_QoYnepuO5owo36vVUWGkVWntFjc_2iMhCcIpJJSQFJQMwGtudGf-sx8Tk02qX9Qh0bamG1c8-vJ_Kb0.PCL_EiW1yR8WYkl4MqSNZ9f8KpCi8r_7_CzsIVFEAQw&amp;amp;dib_tag=se&amp;amp;keywords=SmartWatch&amp;amp;qid=1729423754&amp;amp;sr=8-28&amp;amp;ufe=app_do%3Aamzn1.fos.a492fd4a-f54d-4e8d-8c31-35e0a04ce61e</t>
-  </si>
-  <si>
-    <t>TCL LED SMART TV 32” S5400AF FHD ANDROID TV, PRETO</t>
-  </si>
-  <si>
-    <t>R$ 1.149,00</t>
-  </si>
-  <si>
-    <t>https://www.amazon.com.br/TCL-SMART-S5400AF-ANDROID-PRETO/dp/B0CC6QLWPV/ref=sr_1_6?dib=eyJ2IjoiMSJ9.13kTrmx9WRetJDnvg9Iocs82_1FD8uTnXwy-mEM8IOdCl60CPzE1iP4kboPJt76hsfakZIzpgRa6lYFbsalF-Y7BtMZapXvTqjT-SDFe3ZyIAQDu_1S5XtrA-UWBwF3XSRntJL5Oqh1CSUJ2VhOEroWu3yaxrZkTfKbNgLnr5pTcfavqJqG6Lx2K2j3T3LjEVDnca2knPlszh0kNWSRNuiUOHfXXed9o6A35rJLH-N7oErmlk2VuA0L4jf0pv4WqozXCTZkrJB5OVJJ0054wWyysQieAWAl9AilJG8bzWvE.jpJh2KpXxCwrA0_6o9Xca0HDh_ByYaliiNUaFSKGoZ4&amp;amp;dib_tag=se&amp;amp;keywords=tv+%27s&amp;amp;qid=1729423756&amp;amp;sr=8-6&amp;amp;ufe=app_do%3Aamzn1.fos.25548f35-0de7-44b3-b28e-0f56f3f96147</t>
-  </si>
-  <si>
-    <t>Smart TV 24” Philco PTV24G5YR2CP Roku TV Dolby Audio</t>
-  </si>
-  <si>
-    <t>R$ 819,00</t>
-  </si>
-  <si>
-    <t>https://www.amazon.com.br/Smart-Philco-PTV24G5YR2CP-Dolby-Audio/dp/B0D2RXBBL3/ref=sr_1_8?dib=eyJ2IjoiMSJ9.13kTrmx9WRetJDnvg9Iocs82_1FD8uTnXwy-mEM8IOdCl60CPzE1iP4kboPJt76hsfakZIzpgRa6lYFbsalF-Y7BtMZapXvTqjT-SDFe3ZyIAQDu_1S5XtrA-UWBwF3XSRntJL5Oqh1CSUJ2VhOEroWu3yaxrZkTfKbNgLnr5pTcfavqJqG6Lx2K2j3T3LjEVDnca2knPlszh0kNWSRNuiUOHfXXed9o6A35rJLH-N7oErmlk2VuA0L4jf0pv4WqozXCTZkrJB5OVJJ0054wWyysQieAWAl9AilJG8bzWvE.jpJh2KpXxCwrA0_6o9Xca0HDh_ByYaliiNUaFSKGoZ4&amp;amp;dib_tag=se&amp;amp;keywords=tv+%27s&amp;amp;qid=1729423756&amp;amp;sr=8-8&amp;amp;ufe=app_do%3Aamzn1.fos.25548f35-0de7-44b3-b28e-0f56f3f96147</t>
-  </si>
-  <si>
-    <t>Smart TV Philips 50&amp;quot; 4K 50PUG7408/78, Google TV, Comando de Voz, Dolby Vision/Atmos, VRR/ALLM, Bluetooth</t>
-  </si>
-  <si>
-    <t>R$ 1.899,05</t>
-  </si>
-  <si>
-    <t>https://www.amazon.com.br/Philips-50PUG7408-78-Comando-Bluetooth/dp/B0CCJW1FVP/ref=sr_1_9?dib=eyJ2IjoiMSJ9.13kTrmx9WRetJDnvg9Iocs82_1FD8uTnXwy-mEM8IOdCl60CPzE1iP4kboPJt76hsfakZIzpgRa6lYFbsalF-Y7BtMZapXvTqjT-SDFe3ZyIAQDu_1S5XtrA-UWBwF3XSRntJL5Oqh1CSUJ2VhOEroWu3yaxrZkTfKbNgLnr5pTcfavqJqG6Lx2K2j3T3LjEVDnca2knPlszh0kNWSRNuiUOHfXXed9o6A35rJLH-N7oErmlk2VuA0L4jf0pv4WqozXCTZkrJB5OVJJ0054wWyysQieAWAl9AilJG8bzWvE.jpJh2KpXxCwrA0_6o9Xca0HDh_ByYaliiNUaFSKGoZ4&amp;amp;dib_tag=se&amp;amp;keywords=tv+%27s&amp;amp;qid=1729423756&amp;amp;sr=8-9&amp;amp;ufe=app_do%3Aamzn1.fos.25548f35-0de7-44b3-b28e-0f56f3f96147</t>
-  </si>
-  <si>
-    <t>Smart TV Philips 43&amp;quot; Full HD 43PFG6918/78, Google TV, Comando de Voz, HDR, 3 HDMI, Wifi 5G, Bluetooth</t>
-  </si>
-  <si>
-    <t>R$ 1.730,21</t>
-  </si>
-  <si>
-    <t>https://www.amazon.com.br/Philips-43PFG6918-78-Comando-Bluetooth/dp/B0CCJWFWWN/ref=sr_1_13?dib=eyJ2IjoiMSJ9.13kTrmx9WRetJDnvg9Iocs82_1FD8uTnXwy-mEM8IOdCl60CPzE1iP4kboPJt76hsfakZIzpgRa6lYFbsalF-Y7BtMZapXvTqjT-SDFe3ZyIAQDu_1S5XtrA-UWBwF3XSRntJL5Oqh1CSUJ2VhOEroWu3yaxrZkTfKbNgLnr5pTcfavqJqG6Lx2K2j3T3LjEVDnca2knPlszh0kNWSRNuiUOHfXXed9o6A35rJLH-N7oErmlk2VuA0L4jf0pv4WqozXCTZkrJB5OVJJ0054wWyysQieAWAl9AilJG8bzWvE.jpJh2KpXxCwrA0_6o9Xca0HDh_ByYaliiNUaFSKGoZ4&amp;amp;dib_tag=se&amp;amp;keywords=tv+%27s&amp;amp;qid=1729423756&amp;amp;sr=8-13&amp;amp;ufe=app_do%3Aamzn1.fos.25548f35-0de7-44b3-b28e-0f56f3f96147</t>
-  </si>
-  <si>
-    <t>Samsung Smart TV LED 32&amp;quot; HD LS32BETBL - Wifi, HDMI, USB</t>
-  </si>
-  <si>
-    <t>R$ 1.099,90</t>
-  </si>
-  <si>
-    <t>https://www.amazon.com.br/Samsung-Smart-TV-LED-LS32BETBL/dp/B0CV21GFP4/ref=sr_1_14?dib=eyJ2IjoiMSJ9.13kTrmx9WRetJDnvg9Iocs82_1FD8uTnXwy-mEM8IOdCl60CPzE1iP4kboPJt76hsfakZIzpgRa6lYFbsalF-Y7BtMZapXvTqjT-SDFe3ZyIAQDu_1S5XtrA-UWBwF3XSRntJL5Oqh1CSUJ2VhOEroWu3yaxrZkTfKbNgLnr5pTcfavqJqG6Lx2K2j3T3LjEVDnca2knPlszh0kNWSRNuiUOHfXXed9o6A35rJLH-N7oErmlk2VuA0L4jf0pv4WqozXCTZkrJB5OVJJ0054wWyysQieAWAl9AilJG8bzWvE.jpJh2KpXxCwrA0_6o9Xca0HDh_ByYaliiNUaFSKGoZ4&amp;amp;dib_tag=se&amp;amp;keywords=tv+%27s&amp;amp;qid=1729423756&amp;amp;sr=8-14&amp;amp;ufe=app_do%3Aamzn1.fos.25548f35-0de7-44b3-b28e-0f56f3f96147</t>
-  </si>
-  <si>
-    <t>Smart TV LED 32&amp;quot; HD AOC 32S5135/78G - Design sem bordas, Wifi, Conversor Digital, USB, HDMI</t>
-  </si>
-  <si>
-    <t>R$ 1.035,00</t>
-  </si>
-  <si>
-    <t>https://www.amazon.com.br/Smart-LED-AOC-32S5135-78G/dp/B0BSLQMXZJ/ref=sr_1_17?dib=eyJ2IjoiMSJ9.13kTrmx9WRetJDnvg9Iocs82_1FD8uTnXwy-mEM8IOdCl60CPzE1iP4kboPJt76hsfakZIzpgRa6lYFbsalF-Y7BtMZapXvTqjT-SDFe3ZyIAQDu_1S5XtrA-UWBwF3XSRntJL5Oqh1CSUJ2VhOEroWu3yaxrZkTfKbNgLnr5pTcfavqJqG6Lx2K2j3T3LjEVDnca2knPlszh0kNWSRNuiUOHfXXed9o6A35rJLH-N7oErmlk2VuA0L4jf0pv4WqozXCTZkrJB5OVJJ0054wWyysQieAWAl9AilJG8bzWvE.jpJh2KpXxCwrA0_6o9Xca0HDh_ByYaliiNUaFSKGoZ4&amp;amp;dib_tag=se&amp;amp;keywords=tv+%27s&amp;amp;qid=1729423756&amp;amp;sr=8-17&amp;amp;ufe=app_do%3Aamzn1.fos.25548f35-0de7-44b3-b28e-0f56f3f96147</t>
-  </si>
-  <si>
-    <t>Smart TV 43&amp;quot; 4K LG UHD ThinQ AI 43UR7800PSA HDR Bluetooth Alexa Google Assistente Airplay2 3 HDMI</t>
-  </si>
-  <si>
-    <t>R$ 2.059,00</t>
-  </si>
-  <si>
-    <t>https://www.amazon.com.br/LG-43UR7800PSA-Bluetooth-Assistente-Airplay2/dp/B0C6NL4QK3/ref=sr_1_28?dib=eyJ2IjoiMSJ9.13kTrmx9WRetJDnvg9Iocs82_1FD8uTnXwy-mEM8IOdCl60CPzE1iP4kboPJt76hsfakZIzpgRa6lYFbsalF-Y7BtMZapXvTqjT-SDFe3ZyIAQDu_1S5XtrA-UWBwF3XSRntJL5Oqh1CSUJ2VhOEroWu3yaxrZkTfKbNgLnr5pTcfavqJqG6Lx2K2j3T3LjEVDnca2knPlszh0kNWSRNuiUOHfXXed9o6A35rJLH-N7oErmlk2VuA0L4jf0pv4WqozXCTZkrJB5OVJJ0054wWyysQieAWAl9AilJG8bzWvE.jpJh2KpXxCwrA0_6o9Xca0HDh_ByYaliiNUaFSKGoZ4&amp;amp;dib_tag=se&amp;amp;keywords=tv+%27s&amp;amp;qid=1729423756&amp;amp;sr=8-28&amp;amp;ufe=app_do%3Aamzn1.fos.25548f35-0de7-44b3-b28e-0f56f3f96147</t>
-  </si>
-  <si>
-    <t>AOC 43S5135/78G - Smart TV LED 43&amp;quot; Full HD, Design sem bordas, Wifi, Conversor Digital, USB, HDMI</t>
-  </si>
-  <si>
-    <t>R$ 1.859,90</t>
-  </si>
-  <si>
-    <t>https://www.amazon.com.br/AOC-43S5135-78G-Conversor-Digital/dp/B0BSLMPB65/ref=sr_1_31?dib=eyJ2IjoiMSJ9.13kTrmx9WRetJDnvg9Iocs82_1FD8uTnXwy-mEM8IOdCl60CPzE1iP4kboPJt76hsfakZIzpgRa6lYFbsalF-Y7BtMZapXvTqjT-SDFe3ZyIAQDu_1S5XtrA-UWBwF3XSRntJL5Oqh1CSUJ2VhOEroWu3yaxrZkTfKbNgLnr5pTcfavqJqG6Lx2K2j3T3LjEVDnca2knPlszh0kNWSRNuiUOHfXXed9o6A35rJLH-N7oErmlk2VuA0L4jf0pv4WqozXCTZkrJB5OVJJ0054wWyysQieAWAl9AilJG8bzWvE.jpJh2KpXxCwrA0_6o9Xca0HDh_ByYaliiNUaFSKGoZ4&amp;amp;dib_tag=se&amp;amp;keywords=tv+%27s&amp;amp;qid=1729423756&amp;amp;sr=8-31&amp;amp;ufe=app_do%3Aamzn1.fos.25548f35-0de7-44b3-b28e-0f56f3f96147</t>
-  </si>
-  <si>
-    <t>Smart TV 4K 50&amp;quot; LG UHD 50UT8050 Processador α5 Ger7 AI Alexa/Chromecast integrado Otimizador de Jogos webOS 24 Controle Smart Magic</t>
-  </si>
-  <si>
-    <t>R$ 2.346,85</t>
-  </si>
-  <si>
-    <t>https://www.amazon.com.br/sspa/click?ie=UTF8&amp;amp;spc=MTo4NTA5MTEzNTc4MzM5MTE6MTcyOTQyMzc1NjpzcF9hdGY6MzAwNDI5ODY0MTU1OTAyOjowOjo&amp;amp;url=%2FLG-Processador-Chromecast-integrado-Otimizador%2Fdp%2FB0D9KWYGHL%2Fref%3Dsr_1_2_sspa%3Fdib%3DeyJ2IjoiMSJ9.13kTrmx9WRetJDnvg9Iocs82_1FD8uTnXwy-mEM8IOdCl60CPzE1iP4kboPJt76hsfakZIzpgRa6lYFbsalF-Y7BtMZapXvTqjT-SDFe3ZyIAQDu_1S5XtrA-UWBwF3XSRntJL5Oqh1CSUJ2VhOEroWu3yaxrZkTfKbNgLnr5pTcfavqJqG6Lx2K2j3T3LjEVDnca2knPlszh0kNWSRNuiUOHfXXed9o6A35rJLH-N7oErmlk2VuA0L4jf0pv4WqozXCTZkrJB5OVJJ0054wWyysQieAWAl9AilJG8bzWvE.jpJh2KpXxCwrA0_6o9Xca0HDh_ByYaliiNUaFSKGoZ4%26dib_tag%3Dse%26keywords%3Dtv%2B%2527s%26qid%3D1729423756%26sr%3D8-2-spons%26ufe%3Dapp_do%253Aamzn1.fos.95de73c3-5dda-43a7-bd1f-63af03b14751%26sp_csd%3Dd2lkZ2V0TmFtZT1zcF9hdGY%26psc%3D1</t>
-  </si>
-  <si>
-    <t>Smart TV LED 32&amp;quot; HD LG 32LQ621CBSB.AWZ - IA LG ThinQ, Alexa built-in</t>
-  </si>
-  <si>
-    <t>R$ 1.129,90</t>
-  </si>
-  <si>
-    <t>https://www.amazon.com.br/Smart-LED-LG-32LQ621CBSB-AWZ-built/dp/B09ZWMV9K2/ref=sr_1_27?dib=eyJ2IjoiMSJ9.13kTrmx9WRetJDnvg9Iocs82_1FD8uTnXwy-mEM8IOdCl60CPzE1iP4kboPJt76hsfakZIzpgRa6lYFbsalF-Y7BtMZapXvTqjT-SDFe3ZyIAQDu_1S5XtrA-UWBwF3XSRntJL5Oqh1CSUJ2VhOEroWu3yaxrZkTfKbNgLnr5pTcfavqJqG6Lx2K2j3T3LjEVDnca2knPlszh0kNWSRNuiUOHfXXed9o6A35rJLH-N7oErmlk2VuA0L4jf0pv4WqozXCTZkrJB5OVJJ0054wWyysQieAWAl9AilJG8bzWvE.jpJh2KpXxCwrA0_6o9Xca0HDh_ByYaliiNUaFSKGoZ4&amp;amp;dib_tag=se&amp;amp;keywords=tv+%27s&amp;amp;qid=1729423756&amp;amp;sr=8-27&amp;amp;ufe=app_do%3Aamzn1.fos.25548f35-0de7-44b3-b28e-0f56f3f96147</t>
+    <t>https://www.amazon.com.br/sspa/click?ie=UTF8&amp;amp;spc=MTo4NzkzMDY5NzQwNTg1MzU1OjE3Mjk2MTM5MjM6c3BfbXRmOjMwMDIzMjY0MTEyNTYwMjo6MDo6&amp;amp;url=%2FGera%25C3%25A7%25C3%25A3o-compat%25C3%25ADvel-PAPERWHITE-Pequeno-Principe%2Fdp%2FB0D4MLY4NX%2Fref%3Dsr_1_23_sspa%3Fdib%3DeyJ2IjoiMSJ9.ZIBPkI9k9ipMmW0UJ_yhuiFnefxKhlCtUN86Id7cintLWaSs1ZFKrhrMmJBzajK3UOSMn4_g-10-3SCJrzkpZ3fXjLSU_Krp-wXvU1dwSi1igCKQD3HSv8eskoP2vkyc4RzH5NVd2sqtzA-tjfpOpn6X5jvBmsfADplmuG62ErlXX3YIyr4Dm-Iag3a2oqDrkcmrFtDxnyTyBh7oOQbBU9TVsz-sNfH7JCc00GZ5Gscx4twe9V_sZvqstAATFF4ook_fEgrCkAdZur1X52YD8ROqCKqx9Rr6gDKjwF3FpLk.3iU7dSA7H980xqTfkvNARgss4DpwzUULuvbfqKLu2W0%26dib_tag%3Dse%26keywords%3DKindle%26qid%3D1729613923%26sr%3D8-23-spons%26sp_csd%3Dd2lkZ2V0TmFtZT1zcF9tdGY%26psc%3D1</t>
+  </si>
+  <si>
+    <t>Capa Kindle Paperwhite 11a geração 2021 - WB Ultra leve Silicone Flexível e Sensor Magnético - Tecido Rosa (Não Compatível com Kindle 11ª Geração ou Kindle Paperwhite 10ª Geração)</t>
+  </si>
+  <si>
+    <t>R$ 99,90</t>
+  </si>
+  <si>
+    <t>https://www.amazon.com.br/sspa/click?ie=UTF8&amp;amp;spc=MTo4NzkzMDY5NzQwNTg1MzU1OjE3Mjk2MTM5MjM6c3BfbXRmOjIwMDE1NDM5MDgwMjM5ODo6MDo6&amp;amp;url=%2FCapa-Novo-Kindle-Paperwhite-gera%25C3%25A7%25C3%25A3o%2Fdp%2FB09HDNFBDQ%2Fref%3Dsr_1_24_sspa%3Fdib%3DeyJ2IjoiMSJ9.ZIBPkI9k9ipMmW0UJ_yhuiFnefxKhlCtUN86Id7cintLWaSs1ZFKrhrMmJBzajK3UOSMn4_g-10-3SCJrzkpZ3fXjLSU_Krp-wXvU1dwSi1igCKQD3HSv8eskoP2vkyc4RzH5NVd2sqtzA-tjfpOpn6X5jvBmsfADplmuG62ErlXX3YIyr4Dm-Iag3a2oqDrkcmrFtDxnyTyBh7oOQbBU9TVsz-sNfH7JCc00GZ5Gscx4twe9V_sZvqstAATFF4ook_fEgrCkAdZur1X52YD8ROqCKqx9Rr6gDKjwF3FpLk.3iU7dSA7H980xqTfkvNARgss4DpwzUULuvbfqKLu2W0%26dib_tag%3Dse%26keywords%3DKindle%26qid%3D1729613923%26sr%3D8-24-spons%26sp_csd%3Dd2lkZ2V0TmFtZT1zcF9tdGY%26psc%3D1</t>
+  </si>
+  <si>
+    <t>Kindle 11ª Geração (modelo 2022) – Mais leve, com resolução de 300 ppi e o dobro de armazenamento - Cor Preta</t>
+  </si>
+  <si>
+    <t>R$ 449,10</t>
+  </si>
+  <si>
+    <t>Mais de 5 mil compras no mês passado</t>
+  </si>
+  <si>
+    <t>https://www.amazon.com.br/kindle-11geracao-preto/dp/B09SWTG9GF/ref=sr_1_1?dib=eyJ2IjoiMSJ9.ZIBPkI9k9ipMmW0UJ_yhuiFnefxKhlCtUN86Id7cintLWaSs1ZFKrhrMmJBzajK3UOSMn4_g-10-3SCJrzkpZ3fXjLSU_Krp-wXvU1dwSi1igCKQD3HSv8eskoP2vkyc4RzH5NVd2sqtzA-tjfpOpn6X5jvBmsfADplmuG62ErlXX3YIyr4Dm-Iag3a2oqDrkcmrFtDxnyTyBh7oOQbBU9TVsz-sNfH7JCc00GZ5Gscx4twe9V_sZvqstAATFF4ook_fEgrCkAdZur1X52YD8ROqCKqx9Rr6gDKjwF3FpLk.3iU7dSA7H980xqTfkvNARgss4DpwzUULuvbfqKLu2W0&amp;amp;dib_tag=se&amp;amp;keywords=Kindle&amp;amp;qid=1729613923&amp;amp;sr=8-1&amp;amp;ufe=app_do%3Aamzn1.fos.95de73c3-5dda-43a7-bd1f-63af03b14751</t>
   </si>
   <si>
     <t>Novo Kindle (16 GB - modelo 2024) - Leve e compacto, com tela antirreflexo, trocas de página mais rápidas, luz frontal ajustável e bateria de longa duração - Cor Verde</t>
@@ -479,82 +536,31 @@
     <t>R$ 539,10</t>
   </si>
   <si>
-    <t>https://www.amazon.com.br/kindle-16gb-verde/dp/B0CP31QS6R/ref=sr_1_3?dib=eyJ2IjoiMSJ9.YanHfJ7LSzbHFGfFLCYZLRdzhXkgvQ-4Izvu9SpmiBlLWaSs1ZFKrhrMmJBzajK3UOSMn4_g-10-3SCJrzkpZ_dVglDphAhBZO1OjiKLKHV6CCNqRspwTGZlSUUVL-DLOodavXLRqAlqZvzaEAjaVJa1P5oOO8t8QBZjZ6HOhZ9U1lWOWE17l3o-iRzw1Cxe-0-OeCAbhaT6GtaIWZoEnEWuoCRM25siQSqmLRqlez3JDjM50UnQaPIcTtvMeVqnR4uiq-Qq4Hnmt9J-FoxrkXsK4yoYn7fOBV95wzikoqg.XWay45fcX-gjC8riWLPhMlgR1sLc3mJlF-lBLzlcuoE&amp;amp;dib_tag=se&amp;amp;keywords=Kindle&amp;amp;qid=1729423757&amp;amp;sr=8-3&amp;amp;ufe=app_do%3Aamzn1.fos.95de73c3-5dda-43a7-bd1f-63af03b14751</t>
-  </si>
-  <si>
-    <t>WB Capa Kindle 10a geração - Ultra Leve Auto Hibernação Sensor Magnético Silicone Flexível - Preta (Não Compatível com Paperwhite 10ª Geração)</t>
-  </si>
-  <si>
-    <t>https://www.amazon.com.br/Capa-Novo-Kindle-10a-Gera%C3%A7%C3%A3o/dp/B07RKYJ2DQ/ref=sr_1_47?dib=eyJ2IjoiMSJ9.YanHfJ7LSzbHFGfFLCYZLRdzhXkgvQ-4Izvu9SpmiBlLWaSs1ZFKrhrMmJBzajK3UOSMn4_g-10-3SCJrzkpZ_dVglDphAhBZO1OjiKLKHV6CCNqRspwTGZlSUUVL-DLOodavXLRqAlqZvzaEAjaVJa1P5oOO8t8QBZjZ6HOhZ9U1lWOWE17l3o-iRzw1Cxe-0-OeCAbhaT6GtaIWZoEnEWuoCRM25siQSqmLRqlez3JDjM50UnQaPIcTtvMeVqnR4uiq-Qq4Hnmt9J-FoxrkXsK4yoYn7fOBV95wzikoqg.XWay45fcX-gjC8riWLPhMlgR1sLc3mJlF-lBLzlcuoE&amp;amp;dib_tag=se&amp;amp;keywords=Kindle&amp;amp;qid=1729423757&amp;amp;sr=8-47</t>
-  </si>
-  <si>
-    <t>Novo Kindle Paperwhite (16 GB) - O Kindle mais rápido já lançado, com nova tela antirreflexo de 7” e bateria que dura semanas - Cor Preta</t>
-  </si>
-  <si>
-    <t>R$ 764,10</t>
-  </si>
-  <si>
-    <t>https://www.amazon.com.br/kindle-paperwhite/dp/B0CFPL6CFY/ref=sr_1_4?dib=eyJ2IjoiMSJ9.YanHfJ7LSzbHFGfFLCYZLRdzhXkgvQ-4Izvu9SpmiBlLWaSs1ZFKrhrMmJBzajK3UOSMn4_g-10-3SCJrzkpZ_dVglDphAhBZO1OjiKLKHV6CCNqRspwTGZlSUUVL-DLOodavXLRqAlqZvzaEAjaVJa1P5oOO8t8QBZjZ6HOhZ9U1lWOWE17l3o-iRzw1Cxe-0-OeCAbhaT6GtaIWZoEnEWuoCRM25siQSqmLRqlez3JDjM50UnQaPIcTtvMeVqnR4uiq-Qq4Hnmt9J-FoxrkXsK4yoYn7fOBV95wzikoqg.XWay45fcX-gjC8riWLPhMlgR1sLc3mJlF-lBLzlcuoE&amp;amp;dib_tag=se&amp;amp;keywords=Kindle&amp;amp;qid=1729423757&amp;amp;sr=8-4&amp;amp;ufe=app_do%3Aamzn1.fos.95de73c3-5dda-43a7-bd1f-63af03b14751</t>
-  </si>
-  <si>
-    <t>Novo Kindle Paperwhite Signature Edition (32 GB) - O Kindle mais rápido já lançado, com luz frontal autoadaptável, carregamento sem fio e bateria que dura semanas - Cor Preta Metálica</t>
-  </si>
-  <si>
-    <t>R$ 899,10</t>
-  </si>
-  <si>
-    <t>https://www.amazon.com.br/kindle-paperwhite-signature-edition/dp/B0CFPHTMDX/ref=sr_1_5?dib=eyJ2IjoiMSJ9.YanHfJ7LSzbHFGfFLCYZLRdzhXkgvQ-4Izvu9SpmiBlLWaSs1ZFKrhrMmJBzajK3UOSMn4_g-10-3SCJrzkpZ_dVglDphAhBZO1OjiKLKHV6CCNqRspwTGZlSUUVL-DLOodavXLRqAlqZvzaEAjaVJa1P5oOO8t8QBZjZ6HOhZ9U1lWOWE17l3o-iRzw1Cxe-0-OeCAbhaT6GtaIWZoEnEWuoCRM25siQSqmLRqlez3JDjM50UnQaPIcTtvMeVqnR4uiq-Qq4Hnmt9J-FoxrkXsK4yoYn7fOBV95wzikoqg.XWay45fcX-gjC8riWLPhMlgR1sLc3mJlF-lBLzlcuoE&amp;amp;dib_tag=se&amp;amp;keywords=Kindle&amp;amp;qid=1729423757&amp;amp;sr=8-5&amp;amp;ufe=app_do%3Aamzn1.fos.95de73c3-5dda-43a7-bd1f-63af03b14751</t>
-  </si>
-  <si>
-    <t>Kindle Oasis 8GB - Com tela de 7&amp;quot; e botões para troca de páginas - Cor Grafite</t>
-  </si>
-  <si>
-    <t>Preço não encontrado</t>
-  </si>
-  <si>
-    <t>https://www.amazon.com.br/Kindle-Oasis-8GB/dp/B07L57H5X4/ref=sr_1_10?dib=eyJ2IjoiMSJ9.YanHfJ7LSzbHFGfFLCYZLRdzhXkgvQ-4Izvu9SpmiBlLWaSs1ZFKrhrMmJBzajK3UOSMn4_g-10-3SCJrzkpZ_dVglDphAhBZO1OjiKLKHV6CCNqRspwTGZlSUUVL-DLOodavXLRqAlqZvzaEAjaVJa1P5oOO8t8QBZjZ6HOhZ9U1lWOWE17l3o-iRzw1Cxe-0-OeCAbhaT6GtaIWZoEnEWuoCRM25siQSqmLRqlez3JDjM50UnQaPIcTtvMeVqnR4uiq-Qq4Hnmt9J-FoxrkXsK4yoYn7fOBV95wzikoqg.XWay45fcX-gjC8riWLPhMlgR1sLc3mJlF-lBLzlcuoE&amp;amp;dib_tag=se&amp;amp;keywords=Kindle&amp;amp;qid=1729423757&amp;amp;sr=8-10</t>
-  </si>
-  <si>
-    <t>Capa Kindle Paperwhite 11ª Geração 2021 - WB Silicone Flexível e Sensor Magnético- Vertical Preta (Não Compatível com Kindle 11ª Geração ou Kindle Paperwhite 10ª Geração)</t>
-  </si>
-  <si>
-    <t>R$ 99,99</t>
-  </si>
-  <si>
-    <t>https://www.amazon.com.br/sspa/click?ie=UTF8&amp;amp;spc=MTo4Njg4ODQ0NjAxNzczOTMzOjE3Mjk0MjM3NTc6c3BfYnRmOjIwMDEwNjAwMTExMDQ5ODo6MDo6&amp;amp;url=%2FCapa-Novo-Kindle-Paperwhite-gera%25C3%25A7%25C3%25A3o%2Fdp%2FB09H8TL43D%2Fref%3Dsr_1_60_sspa%3Fdib%3DeyJ2IjoiMSJ9.YanHfJ7LSzbHFGfFLCYZLRdzhXkgvQ-4Izvu9SpmiBlLWaSs1ZFKrhrMmJBzajK3UOSMn4_g-10-3SCJrzkpZ_dVglDphAhBZO1OjiKLKHV6CCNqRspwTGZlSUUVL-DLOodavXLRqAlqZvzaEAjaVJa1P5oOO8t8QBZjZ6HOhZ9U1lWOWE17l3o-iRzw1Cxe-0-OeCAbhaT6GtaIWZoEnEWuoCRM25siQSqmLRqlez3JDjM50UnQaPIcTtvMeVqnR4uiq-Qq4Hnmt9J-FoxrkXsK4yoYn7fOBV95wzikoqg.XWay45fcX-gjC8riWLPhMlgR1sLc3mJlF-lBLzlcuoE%26dib_tag%3Dse%26keywords%3DKindle%26qid%3D1729423757%26sr%3D8-60-spons%26sp_csd%3Dd2lkZ2V0TmFtZT1zcF9idGY%26psc%3D1</t>
-  </si>
-  <si>
-    <t>Capa de tecido para Novo Kindle Paperwhite, leve, dobrável e resistente a água – Cor Preta</t>
-  </si>
-  <si>
-    <t>R$ 149,00</t>
-  </si>
-  <si>
-    <t>https://www.amazon.com.br/capa-kindle-paperwhite-tecido-preta/dp/B0CM7X424T/ref=sr_1_38?dib=eyJ2IjoiMSJ9.YanHfJ7LSzbHFGfFLCYZLRdzhXkgvQ-4Izvu9SpmiBlLWaSs1ZFKrhrMmJBzajK3UOSMn4_g-10-3SCJrzkpZ_dVglDphAhBZO1OjiKLKHV6CCNqRspwTGZlSUUVL-DLOodavXLRqAlqZvzaEAjaVJa1P5oOO8t8QBZjZ6HOhZ9U1lWOWE17l3o-iRzw1Cxe-0-OeCAbhaT6GtaIWZoEnEWuoCRM25siQSqmLRqlez3JDjM50UnQaPIcTtvMeVqnR4uiq-Qq4Hnmt9J-FoxrkXsK4yoYn7fOBV95wzikoqg.XWay45fcX-gjC8riWLPhMlgR1sLc3mJlF-lBLzlcuoE&amp;amp;dib_tag=se&amp;amp;keywords=Kindle&amp;amp;qid=1729423757&amp;amp;sr=8-38</t>
-  </si>
-  <si>
-    <t>Capa Kindle Paperwhite 11ª Geração 2021 - WB Ultra leve Silicone Flexível e Sensor Magnético - Van Gogh (Não Compatível com Kindle 11ª Geração ou Kindle Papaerwhite 10ª Geração)</t>
-  </si>
-  <si>
-    <t>R$ 95,00</t>
-  </si>
-  <si>
-    <t>https://www.amazon.com.br/sspa/click?ie=UTF8&amp;amp;spc=MTo4Njg4ODQ0NjAxNzczOTMzOjE3Mjk0MjM3NTc6c3BfYnRmOjIwMDA3NTkwMTYwMjA5ODo6MDo6&amp;amp;url=%2FCapa-Novo-Kindle-Paperwhite-gera%25C3%25A7%25C3%25A3o%2Fdp%2FB09HDL4JK4%2Fref%3Dsr_1_58_sspa%3Fdib%3DeyJ2IjoiMSJ9.YanHfJ7LSzbHFGfFLCYZLRdzhXkgvQ-4Izvu9SpmiBlLWaSs1ZFKrhrMmJBzajK3UOSMn4_g-10-3SCJrzkpZ_dVglDphAhBZO1OjiKLKHV6CCNqRspwTGZlSUUVL-DLOodavXLRqAlqZvzaEAjaVJa1P5oOO8t8QBZjZ6HOhZ9U1lWOWE17l3o-iRzw1Cxe-0-OeCAbhaT6GtaIWZoEnEWuoCRM25siQSqmLRqlez3JDjM50UnQaPIcTtvMeVqnR4uiq-Qq4Hnmt9J-FoxrkXsK4yoYn7fOBV95wzikoqg.XWay45fcX-gjC8riWLPhMlgR1sLc3mJlF-lBLzlcuoE%26dib_tag%3Dse%26keywords%3DKindle%26qid%3D1729423757%26sr%3D8-58-spons%26sp_csd%3Dd2lkZ2V0TmFtZT1zcF9idGY%26psc%3D1</t>
-  </si>
-  <si>
-    <t>Capa Case Transparente para Kindle Modelo C2V2L3 de 11 Geração 2022 + Película Protetora</t>
-  </si>
-  <si>
-    <t>https://www.amazon.com.br/Transparente-Kindle-Gera%C3%A7%C3%A3o-Pel%C3%ADcula-Protetora/dp/B0CHKGB9LF/ref=sr_1_41?dib=eyJ2IjoiMSJ9.YanHfJ7LSzbHFGfFLCYZLRdzhXkgvQ-4Izvu9SpmiBlLWaSs1ZFKrhrMmJBzajK3UOSMn4_g-10-3SCJrzkpZ_dVglDphAhBZO1OjiKLKHV6CCNqRspwTGZlSUUVL-DLOodavXLRqAlqZvzaEAjaVJa1P5oOO8t8QBZjZ6HOhZ9U1lWOWE17l3o-iRzw1Cxe-0-OeCAbhaT6GtaIWZoEnEWuoCRM25siQSqmLRqlez3JDjM50UnQaPIcTtvMeVqnR4uiq-Qq4Hnmt9J-FoxrkXsK4yoYn7fOBV95wzikoqg.XWay45fcX-gjC8riWLPhMlgR1sLc3mJlF-lBLzlcuoE&amp;amp;dib_tag=se&amp;amp;keywords=Kindle&amp;amp;qid=1729423757&amp;amp;sr=8-41</t>
-  </si>
-  <si>
-    <t>Capa Premium com toque acetinado para Novo Kindle Paperwhite, leve e dobrável – Cor Preta</t>
-  </si>
-  <si>
-    <t>R$ 209,00</t>
-  </si>
-  <si>
-    <t>https://www.amazon.com.br/capa-kindle-paperwhite-premium-preta/dp/B0CM7ZXQWC/ref=sr_1_51?dib=eyJ2IjoiMSJ9.YanHfJ7LSzbHFGfFLCYZLRdzhXkgvQ-4Izvu9SpmiBlLWaSs1ZFKrhrMmJBzajK3UOSMn4_g-10-3SCJrzkpZ_dVglDphAhBZO1OjiKLKHV6CCNqRspwTGZlSUUVL-DLOodavXLRqAlqZvzaEAjaVJa1P5oOO8t8QBZjZ6HOhZ9U1lWOWE17l3o-iRzw1Cxe-0-OeCAbhaT6GtaIWZoEnEWuoCRM25siQSqmLRqlez3JDjM50UnQaPIcTtvMeVqnR4uiq-Qq4Hnmt9J-FoxrkXsK4yoYn7fOBV95wzikoqg.XWay45fcX-gjC8riWLPhMlgR1sLc3mJlF-lBLzlcuoE&amp;amp;dib_tag=se&amp;amp;keywords=Kindle&amp;amp;qid=1729423757&amp;amp;sr=8-51</t>
+    <t>Mais de 1 mil compras no mês passado</t>
+  </si>
+  <si>
+    <t>https://www.amazon.com.br/kindle-16gb-verde/dp/B0CP31QS6R/ref=sr_1_2?dib=eyJ2IjoiMSJ9.ZIBPkI9k9ipMmW0UJ_yhuiFnefxKhlCtUN86Id7cintLWaSs1ZFKrhrMmJBzajK3UOSMn4_g-10-3SCJrzkpZ3fXjLSU_Krp-wXvU1dwSi1igCKQD3HSv8eskoP2vkyc4RzH5NVd2sqtzA-tjfpOpn6X5jvBmsfADplmuG62ErlXX3YIyr4Dm-Iag3a2oqDrkcmrFtDxnyTyBh7oOQbBU9TVsz-sNfH7JCc00GZ5Gscx4twe9V_sZvqstAATFF4ook_fEgrCkAdZur1X52YD8ROqCKqx9Rr6gDKjwF3FpLk.3iU7dSA7H980xqTfkvNARgss4DpwzUULuvbfqKLu2W0&amp;amp;dib_tag=se&amp;amp;keywords=Kindle&amp;amp;qid=1729613923&amp;amp;sr=8-2&amp;amp;ufe=app_do%3Aamzn1.fos.95de73c3-5dda-43a7-bd1f-63af03b14751</t>
+  </si>
+  <si>
+    <t>Kindle Paperwhite 16 GB: tela de 6,8”, temperatura de luz ajustável e bateria de longa duração</t>
+  </si>
+  <si>
+    <t>R$ 719,10</t>
+  </si>
+  <si>
+    <t>https://www.amazon.com.br/Kindle-Paperwhite-16-temperatura-ajust%C3%A1vel/dp/B09TMK7QFX/ref=sr_1_3?dib=eyJ2IjoiMSJ9.ZIBPkI9k9ipMmW0UJ_yhuiFnefxKhlCtUN86Id7cintLWaSs1ZFKrhrMmJBzajK3UOSMn4_g-10-3SCJrzkpZ3fXjLSU_Krp-wXvU1dwSi1igCKQD3HSv8eskoP2vkyc4RzH5NVd2sqtzA-tjfpOpn6X5jvBmsfADplmuG62ErlXX3YIyr4Dm-Iag3a2oqDrkcmrFtDxnyTyBh7oOQbBU9TVsz-sNfH7JCc00GZ5Gscx4twe9V_sZvqstAATFF4ook_fEgrCkAdZur1X52YD8ROqCKqx9Rr6gDKjwF3FpLk.3iU7dSA7H980xqTfkvNARgss4DpwzUULuvbfqKLu2W0&amp;amp;dib_tag=se&amp;amp;keywords=Kindle&amp;amp;qid=1729613923&amp;amp;sr=8-3&amp;amp;ufe=app_do%3Aamzn1.fos.95de73c3-5dda-43a7-bd1f-63af03b14751</t>
+  </si>
+  <si>
+    <t>&amp;quot;Sou Puta, Doutor&amp;quot;: Um Livro de Yuri Marques Peçanha</t>
+  </si>
+  <si>
+    <t>R$ 0,00</t>
+  </si>
+  <si>
+    <t>Informação não encontrada</t>
+  </si>
+  <si>
+    <t>https://www.amazon.com.br/Sou-Puta-Doutor-Marques-Pe%C3%A7anha-ebook/dp/B087V3DJXR/ref=sr_1_6?dib=eyJ2IjoiMSJ9.ZIBPkI9k9ipMmW0UJ_yhuiFnefxKhlCtUN86Id7cintLWaSs1ZFKrhrMmJBzajK3UOSMn4_g-10-3SCJrzkpZ3fXjLSU_Krp-wXvU1dwSi1igCKQD3HSv8eskoP2vkyc4RzH5NVd2sqtzA-tjfpOpn6X5jvBmsfADplmuG62ErlXX3YIyr4Dm-Iag3a2oqDrkcmrFtDxnyTyBh7oOQbBU9TVsz-sNfH7JCc00GZ5Gscx4twe9V_sZvqstAATFF4ook_fEgrCkAdZur1X52YD8ROqCKqx9Rr6gDKjwF3FpLk.3iU7dSA7H980xqTfkvNARgss4DpwzUULuvbfqKLu2W0&amp;amp;dib_tag=se&amp;amp;keywords=Kindle&amp;amp;qid=1729613923&amp;amp;sr=8-6</t>
   </si>
   <si>
     <t>Echo com Alexa (4ª Geração): Com som premium e hub Zigbee de casa inteligente - Cor Preta</t>
@@ -563,7 +569,7 @@
     <t>R$ 749,00</t>
   </si>
   <si>
-    <t>https://www.amazon.com.br/Echo-4%C2%AA-gera%C3%A7%C3%A3o-Cor-Preta/dp/B085FXDTTX/ref=sr_1_6?dib=eyJ2IjoiMSJ9.14cZBgy_n6hLGjrn9NIG4tUht4bHa9gKiy3EBMeibp__qHpFDoOoe6qTneEE_cF7iVEXgiyZ3RZQU8FlMTxjTe6LFB4xPaUFACumuBZO7kxAR1Rr-P6iRX47Kr7m8lnFAAaspyYqJs-a_IAoeHQWges6sxmLu-6JJmZvArasysesuh2i1p4-yVcUoV_tIk7ypA8QACoScydEHNkAxsbwyA7nnQjs9MPw2ZIorgNdXLMwrzQ70norH0gdh6352cGVN6AexWK9WJ2XEg4G97KwKpN8RkJRhczNWMlqkv8OwxQ.6LCKkCjZqYU-RjJsbgRkS0V8piRmc5e88d3mUycz9d4&amp;amp;dib_tag=se&amp;amp;keywords=Alexa&amp;amp;qid=1729423759&amp;amp;sr=8-6&amp;amp;ufe=app_do%3Aamzn1.fos.95de73c3-5dda-43a7-bd1f-63af03b14751</t>
+    <t>https://www.amazon.com.br/Echo-4%C2%AA-gera%C3%A7%C3%A3o-Cor-Preta/dp/B085FXDTTX/ref=sr_1_6?dib=eyJ2IjoiMSJ9.14cZBgy_n6hLGjrn9NIG4qVdiBu_XPObJ3QfIlBnSg5HY94pxwpa1Qh-FgRy7UDv1is077YFnApxLEQajEXlfe6LFB4xPaUFACumuBZO7kwkEfin1AfydbZnYpXpAmYK3g1VsAp1vzKLnprA-sTSRPdGIzw6AVVTIfbJLq_hCssWIsZZVyP7Y0wWb_8-5HpYubn9pqxIyP64yaZc3tzmJ-eL-zA2PtneLoTNV8MPblJP_2_mHoSEYEigAbxtmijjXnqDeW2Dcd1DICB6rqCLq0lWOzTREbb15bJEYhzWmjU.K1T9IxGx7o_B9mbAWauTwoJBVwm4FEDPVU8-83hoN_M&amp;amp;dib_tag=se&amp;amp;keywords=Alexa&amp;amp;qid=1729613925&amp;amp;sr=8-6&amp;amp;ufe=app_do%3Aamzn1.fos.95de73c3-5dda-43a7-bd1f-63af03b14751</t>
   </si>
   <si>
     <t>Echo Show 10: Smart Display HD de 10,1&amp;quot; com movimento e Alexa - cor Preta</t>
@@ -572,7 +578,7 @@
     <t>R$ 2.099,00</t>
   </si>
   <si>
-    <t>https://www.amazon.com.br/Echo-Show-10/dp/B084P4Q85Q/ref=sr_1_7?dib=eyJ2IjoiMSJ9.14cZBgy_n6hLGjrn9NIG4tUht4bHa9gKiy3EBMeibp__qHpFDoOoe6qTneEE_cF7iVEXgiyZ3RZQU8FlMTxjTe6LFB4xPaUFACumuBZO7kxAR1Rr-P6iRX47Kr7m8lnFAAaspyYqJs-a_IAoeHQWges6sxmLu-6JJmZvArasysesuh2i1p4-yVcUoV_tIk7ypA8QACoScydEHNkAxsbwyA7nnQjs9MPw2ZIorgNdXLMwrzQ70norH0gdh6352cGVN6AexWK9WJ2XEg4G97KwKpN8RkJRhczNWMlqkv8OwxQ.6LCKkCjZqYU-RjJsbgRkS0V8piRmc5e88d3mUycz9d4&amp;amp;dib_tag=se&amp;amp;keywords=Alexa&amp;amp;qid=1729423759&amp;amp;sr=8-7&amp;amp;ufe=app_do%3Aamzn1.fos.95de73c3-5dda-43a7-bd1f-63af03b14751</t>
+    <t>https://www.amazon.com.br/Echo-Show-10/dp/B084P4Q85Q/ref=sr_1_7?dib=eyJ2IjoiMSJ9.14cZBgy_n6hLGjrn9NIG4qVdiBu_XPObJ3QfIlBnSg5HY94pxwpa1Qh-FgRy7UDv1is077YFnApxLEQajEXlfe6LFB4xPaUFACumuBZO7kwkEfin1AfydbZnYpXpAmYK3g1VsAp1vzKLnprA-sTSRPdGIzw6AVVTIfbJLq_hCssWIsZZVyP7Y0wWb_8-5HpYubn9pqxIyP64yaZc3tzmJ-eL-zA2PtneLoTNV8MPblJP_2_mHoSEYEigAbxtmijjXnqDeW2Dcd1DICB6rqCLq0lWOzTREbb15bJEYhzWmjU.K1T9IxGx7o_B9mbAWauTwoJBVwm4FEDPVU8-83hoN_M&amp;amp;dib_tag=se&amp;amp;keywords=Alexa&amp;amp;qid=1729613925&amp;amp;sr=8-7&amp;amp;ufe=app_do%3Aamzn1.fos.95de73c3-5dda-43a7-bd1f-63af03b14751</t>
   </si>
   <si>
     <t>EKAZA, Tomada Inteligente 16A, WI-FI, Com medidor de consumo, Compatível com Alexa e Google Assistente – T005</t>
@@ -581,7 +587,52 @@
     <t>R$ 45,99</t>
   </si>
   <si>
-    <t>https://www.amazon.com.br/Inteligente-medidor-consumo-Compat%C3%ADvel-Assistente/dp/B085W72XZK/ref=sr_1_19?dib=eyJ2IjoiMSJ9.14cZBgy_n6hLGjrn9NIG4tUht4bHa9gKiy3EBMeibp__qHpFDoOoe6qTneEE_cF7iVEXgiyZ3RZQU8FlMTxjTe6LFB4xPaUFACumuBZO7kxAR1Rr-P6iRX47Kr7m8lnFAAaspyYqJs-a_IAoeHQWges6sxmLu-6JJmZvArasysesuh2i1p4-yVcUoV_tIk7ypA8QACoScydEHNkAxsbwyA7nnQjs9MPw2ZIorgNdXLMwrzQ70norH0gdh6352cGVN6AexWK9WJ2XEg4G97KwKpN8RkJRhczNWMlqkv8OwxQ.6LCKkCjZqYU-RjJsbgRkS0V8piRmc5e88d3mUycz9d4&amp;amp;dib_tag=se&amp;amp;keywords=Alexa&amp;amp;qid=1729423759&amp;amp;sr=8-19</t>
+    <t>https://www.amazon.com.br/Inteligente-medidor-consumo-Compat%C3%ADvel-Assistente/dp/B085W72XZK/ref=sr_1_30?dib=eyJ2IjoiMSJ9.14cZBgy_n6hLGjrn9NIG4qVdiBu_XPObJ3QfIlBnSg5HY94pxwpa1Qh-FgRy7UDv1is077YFnApxLEQajEXlfe6LFB4xPaUFACumuBZO7kwkEfin1AfydbZnYpXpAmYK3g1VsAp1vzKLnprA-sTSRPdGIzw6AVVTIfbJLq_hCssWIsZZVyP7Y0wWb_8-5HpYubn9pqxIyP64yaZc3tzmJ-eL-zA2PtneLoTNV8MPblJP_2_mHoSEYEigAbxtmijjXnqDeW2Dcd1DICB6rqCLq0lWOzTREbb15bJEYhzWmjU.K1T9IxGx7o_B9mbAWauTwoJBVwm4FEDPVU8-83hoN_M&amp;amp;dib_tag=se&amp;amp;keywords=Alexa&amp;amp;qid=1729613925&amp;amp;sr=8-30</t>
+  </si>
+  <si>
+    <t>Kit Smart Lâmpada Wi-Fi Positivo Casa Inteligente, Iluminação Branca (Quente e Fria) e RGB (Até 16 Milhões de Cores), 9W, 806 Lúmens, LED, Bivolt, Compatível com Alexa e Google Assistente</t>
+  </si>
+  <si>
+    <t>R$ 88,00</t>
+  </si>
+  <si>
+    <t>https://www.amazon.com.br/Positivo-Casa-Inteligente-inteligente-L%C3%A2mpadas/dp/B09GBHTCTN/ref=sr_1_35?dib=eyJ2IjoiMSJ9.14cZBgy_n6hLGjrn9NIG4qVdiBu_XPObJ3QfIlBnSg5HY94pxwpa1Qh-FgRy7UDv1is077YFnApxLEQajEXlfe6LFB4xPaUFACumuBZO7kwkEfin1AfydbZnYpXpAmYK3g1VsAp1vzKLnprA-sTSRPdGIzw6AVVTIfbJLq_hCssWIsZZVyP7Y0wWb_8-5HpYubn9pqxIyP64yaZc3tzmJ-eL-zA2PtneLoTNV8MPblJP_2_mHoSEYEigAbxtmijjXnqDeW2Dcd1DICB6rqCLq0lWOzTREbb15bJEYhzWmjU.K1T9IxGx7o_B9mbAWauTwoJBVwm4FEDPVU8-83hoN_M&amp;amp;dib_tag=se&amp;amp;keywords=Alexa&amp;amp;qid=1729613925&amp;amp;sr=8-35</t>
+  </si>
+  <si>
+    <t>Controle Remoto por Voz com Alexa para Fire TV (inclui comandos de TV)</t>
+  </si>
+  <si>
+    <t>R$ 179,00</t>
+  </si>
+  <si>
+    <t>https://www.amazon.com.br/Controle-Remoto-Alexa-inclui-comandos-TV/dp/B08D2L81JW/ref=sr_1_38?dib=eyJ2IjoiMSJ9.14cZBgy_n6hLGjrn9NIG4qVdiBu_XPObJ3QfIlBnSg5HY94pxwpa1Qh-FgRy7UDv1is077YFnApxLEQajEXlfe6LFB4xPaUFACumuBZO7kwkEfin1AfydbZnYpXpAmYK3g1VsAp1vzKLnprA-sTSRPdGIzw6AVVTIfbJLq_hCssWIsZZVyP7Y0wWb_8-5HpYubn9pqxIyP64yaZc3tzmJ-eL-zA2PtneLoTNV8MPblJP_2_mHoSEYEigAbxtmijjXnqDeW2Dcd1DICB6rqCLq0lWOzTREbb15bJEYhzWmjU.K1T9IxGx7o_B9mbAWauTwoJBVwm4FEDPVU8-83hoN_M&amp;amp;dib_tag=se&amp;amp;keywords=Alexa&amp;amp;qid=1729613925&amp;amp;sr=8-38&amp;amp;ufe=app_do%3Aamzn1.fos.e05b01e0-91a7-477e-a514-15a32325a6d6</t>
+  </si>
+  <si>
+    <t>Suporte ajustável para Echo Show 5 (3ª geração) com porta de carregamento USB-C | Cor Preta</t>
+  </si>
+  <si>
+    <t>R$ 89,00</t>
+  </si>
+  <si>
+    <t>https://www.amazon.com.br/Suporte-Echo-Show-5-Cor-Preta/dp/B09Z48TGPH/ref=sr_1_41?dib=eyJ2IjoiMSJ9.14cZBgy_n6hLGjrn9NIG4qVdiBu_XPObJ3QfIlBnSg5HY94pxwpa1Qh-FgRy7UDv1is077YFnApxLEQajEXlfe6LFB4xPaUFACumuBZO7kwkEfin1AfydbZnYpXpAmYK3g1VsAp1vzKLnprA-sTSRPdGIzw6AVVTIfbJLq_hCssWIsZZVyP7Y0wWb_8-5HpYubn9pqxIyP64yaZc3tzmJ-eL-zA2PtneLoTNV8MPblJP_2_mHoSEYEigAbxtmijjXnqDeW2Dcd1DICB6rqCLq0lWOzTREbb15bJEYhzWmjU.K1T9IxGx7o_B9mbAWauTwoJBVwm4FEDPVU8-83hoN_M&amp;amp;dib_tag=se&amp;amp;keywords=Alexa&amp;amp;qid=1729613925&amp;amp;sr=8-41&amp;amp;ufe=app_do%3Aamzn1.fos.6a09f7ec-d911-4889-ad70-de8dd83c8a74</t>
+  </si>
+  <si>
+    <t>Câmera Inteligente Compatível com Alexa Wi-Fi Full HD iM5 SC Branco Intelbras</t>
+  </si>
+  <si>
+    <t>R$ 316,91</t>
+  </si>
+  <si>
+    <t>https://www.amazon.com.br/C%C3%A2mera-V%C3%ADdeo-SC-Branco-Intelbras/dp/B09SPGZHMP/ref=sr_1_42?dib=eyJ2IjoiMSJ9.14cZBgy_n6hLGjrn9NIG4qVdiBu_XPObJ3QfIlBnSg5HY94pxwpa1Qh-FgRy7UDv1is077YFnApxLEQajEXlfe6LFB4xPaUFACumuBZO7kwkEfin1AfydbZnYpXpAmYK3g1VsAp1vzKLnprA-sTSRPdGIzw6AVVTIfbJLq_hCssWIsZZVyP7Y0wWb_8-5HpYubn9pqxIyP64yaZc3tzmJ-eL-zA2PtneLoTNV8MPblJP_2_mHoSEYEigAbxtmijjXnqDeW2Dcd1DICB6rqCLq0lWOzTREbb15bJEYhzWmjU.K1T9IxGx7o_B9mbAWauTwoJBVwm4FEDPVU8-83hoN_M&amp;amp;dib_tag=se&amp;amp;keywords=Alexa&amp;amp;qid=1729613925&amp;amp;sr=8-42&amp;amp;ufe=app_do%3Aamzn1.fos.fcd6d665-32ba-4479-9f21-b774e276a678</t>
+  </si>
+  <si>
+    <t>Smart Plug Wi-Fi 10A/1000W, Positivo Casa Inteligente, Ligue ou Desligue seus Eletrodomésticos Através do Celular, Compatível com Alexa</t>
+  </si>
+  <si>
+    <t>R$ 71,90</t>
+  </si>
+  <si>
+    <t>https://www.amazon.com.br/Positivo-Casa-Inteligente-eletrodom%C3%A9sticos-Compat%C3%ADvel/dp/B07S14JHF2/ref=sr_1_47?dib=eyJ2IjoiMSJ9.14cZBgy_n6hLGjrn9NIG4qVdiBu_XPObJ3QfIlBnSg5HY94pxwpa1Qh-FgRy7UDv1is077YFnApxLEQajEXlfe6LFB4xPaUFACumuBZO7kwkEfin1AfydbZnYpXpAmYK3g1VsAp1vzKLnprA-sTSRPdGIzw6AVVTIfbJLq_hCssWIsZZVyP7Y0wWb_8-5HpYubn9pqxIyP64yaZc3tzmJ-eL-zA2PtneLoTNV8MPblJP_2_mHoSEYEigAbxtmijjXnqDeW2Dcd1DICB6rqCLq0lWOzTREbb15bJEYhzWmjU.K1T9IxGx7o_B9mbAWauTwoJBVwm4FEDPVU8-83hoN_M&amp;amp;dib_tag=se&amp;amp;keywords=Alexa&amp;amp;qid=1729613925&amp;amp;sr=8-47</t>
   </si>
   <si>
     <t>Tramontina Plafon Smart​ LED Quadrado de Sobrepor 18W Inteligente Wi-Fi + Bluetooth​ e função de geolocalização - Compatível com Alexa e Google Assistente</t>
@@ -590,43 +641,7 @@
     <t>R$ 79,90</t>
   </si>
   <si>
-    <t>https://www.amazon.com.br/Plafon-Quadrado-Sobrepor-Tramontina-Compat%C3%ADvel/dp/B0B7V43K65/ref=sr_1_20?dib=eyJ2IjoiMSJ9.14cZBgy_n6hLGjrn9NIG4tUht4bHa9gKiy3EBMeibp__qHpFDoOoe6qTneEE_cF7iVEXgiyZ3RZQU8FlMTxjTe6LFB4xPaUFACumuBZO7kxAR1Rr-P6iRX47Kr7m8lnFAAaspyYqJs-a_IAoeHQWges6sxmLu-6JJmZvArasysesuh2i1p4-yVcUoV_tIk7ypA8QACoScydEHNkAxsbwyA7nnQjs9MPw2ZIorgNdXLMwrzQ70norH0gdh6352cGVN6AexWK9WJ2XEg4G97KwKpN8RkJRhczNWMlqkv8OwxQ.6LCKkCjZqYU-RjJsbgRkS0V8piRmc5e88d3mUycz9d4&amp;amp;dib_tag=se&amp;amp;keywords=Alexa&amp;amp;qid=1729423759&amp;amp;sr=8-20</t>
-  </si>
-  <si>
-    <t>Suporte ajustável para Echo Show 5 (3ª geração) com porta de carregamento USB-C | Cor Preta</t>
-  </si>
-  <si>
-    <t>R$ 89,00</t>
-  </si>
-  <si>
-    <t>https://www.amazon.com.br/Suporte-Echo-Show-5-Cor-Preta/dp/B09Z48TGPH/ref=sr_1_29?dib=eyJ2IjoiMSJ9.14cZBgy_n6hLGjrn9NIG4tUht4bHa9gKiy3EBMeibp__qHpFDoOoe6qTneEE_cF7iVEXgiyZ3RZQU8FlMTxjTe6LFB4xPaUFACumuBZO7kxAR1Rr-P6iRX47Kr7m8lnFAAaspyYqJs-a_IAoeHQWges6sxmLu-6JJmZvArasysesuh2i1p4-yVcUoV_tIk7ypA8QACoScydEHNkAxsbwyA7nnQjs9MPw2ZIorgNdXLMwrzQ70norH0gdh6352cGVN6AexWK9WJ2XEg4G97KwKpN8RkJRhczNWMlqkv8OwxQ.6LCKkCjZqYU-RjJsbgRkS0V8piRmc5e88d3mUycz9d4&amp;amp;dib_tag=se&amp;amp;keywords=Alexa&amp;amp;qid=1729423759&amp;amp;sr=8-29&amp;amp;ufe=app_do%3Aamzn1.fos.6a09f7ec-d911-4889-ad70-de8dd83c8a74</t>
-  </si>
-  <si>
-    <t>Kit Smart Lâmpada Wi-Fi Positivo Casa Inteligente, Iluminação Branca (Quente e Fria) e RGB (Até 16 Milhões de Cores), 9W, 806 Lúmens, LED, Bivolt, Compatível com Alexa e Google Assistente</t>
-  </si>
-  <si>
-    <t>R$ 88,00</t>
-  </si>
-  <si>
-    <t>https://www.amazon.com.br/Positivo-Casa-Inteligente-inteligente-L%C3%A2mpadas/dp/B09GBHTCTN/ref=sr_1_33?dib=eyJ2IjoiMSJ9.14cZBgy_n6hLGjrn9NIG4tUht4bHa9gKiy3EBMeibp__qHpFDoOoe6qTneEE_cF7iVEXgiyZ3RZQU8FlMTxjTe6LFB4xPaUFACumuBZO7kxAR1Rr-P6iRX47Kr7m8lnFAAaspyYqJs-a_IAoeHQWges6sxmLu-6JJmZvArasysesuh2i1p4-yVcUoV_tIk7ypA8QACoScydEHNkAxsbwyA7nnQjs9MPw2ZIorgNdXLMwrzQ70norH0gdh6352cGVN6AexWK9WJ2XEg4G97KwKpN8RkJRhczNWMlqkv8OwxQ.6LCKkCjZqYU-RjJsbgRkS0V8piRmc5e88d3mUycz9d4&amp;amp;dib_tag=se&amp;amp;keywords=Alexa&amp;amp;qid=1729423759&amp;amp;sr=8-33</t>
-  </si>
-  <si>
-    <t>Câmera Inteligente Compatível com Alexa Wi-Fi Full HD iM5 SC Branco Intelbras</t>
-  </si>
-  <si>
-    <t>R$ 319,19</t>
-  </si>
-  <si>
-    <t>https://www.amazon.com.br/C%C3%A2mera-V%C3%ADdeo-SC-Branco-Intelbras/dp/B09SPGZHMP/ref=sr_1_41?dib=eyJ2IjoiMSJ9.14cZBgy_n6hLGjrn9NIG4tUht4bHa9gKiy3EBMeibp__qHpFDoOoe6qTneEE_cF7iVEXgiyZ3RZQU8FlMTxjTe6LFB4xPaUFACumuBZO7kxAR1Rr-P6iRX47Kr7m8lnFAAaspyYqJs-a_IAoeHQWges6sxmLu-6JJmZvArasysesuh2i1p4-yVcUoV_tIk7ypA8QACoScydEHNkAxsbwyA7nnQjs9MPw2ZIorgNdXLMwrzQ70norH0gdh6352cGVN6AexWK9WJ2XEg4G97KwKpN8RkJRhczNWMlqkv8OwxQ.6LCKkCjZqYU-RjJsbgRkS0V8piRmc5e88d3mUycz9d4&amp;amp;dib_tag=se&amp;amp;keywords=Alexa&amp;amp;qid=1729423759&amp;amp;sr=8-41&amp;amp;ufe=app_do%3Aamzn1.fos.fcd6d665-32ba-4479-9f21-b774e276a678</t>
-  </si>
-  <si>
-    <t>Smart Plug Wi-Fi 10A/1000W, Positivo Casa Inteligente, Ligue ou Desligue seus Eletrodomésticos Através do Celular, Compatível com Alexa</t>
-  </si>
-  <si>
-    <t>R$ 71,90</t>
-  </si>
-  <si>
-    <t>https://www.amazon.com.br/Positivo-Casa-Inteligente-eletrodom%C3%A9sticos-Compat%C3%ADvel/dp/B07S14JHF2/ref=sr_1_48?dib=eyJ2IjoiMSJ9.14cZBgy_n6hLGjrn9NIG4tUht4bHa9gKiy3EBMeibp__qHpFDoOoe6qTneEE_cF7iVEXgiyZ3RZQU8FlMTxjTe6LFB4xPaUFACumuBZO7kxAR1Rr-P6iRX47Kr7m8lnFAAaspyYqJs-a_IAoeHQWges6sxmLu-6JJmZvArasysesuh2i1p4-yVcUoV_tIk7ypA8QACoScydEHNkAxsbwyA7nnQjs9MPw2ZIorgNdXLMwrzQ70norH0gdh6352cGVN6AexWK9WJ2XEg4G97KwKpN8RkJRhczNWMlqkv8OwxQ.6LCKkCjZqYU-RjJsbgRkS0V8piRmc5e88d3mUycz9d4&amp;amp;dib_tag=se&amp;amp;keywords=Alexa&amp;amp;qid=1729423759&amp;amp;sr=8-48</t>
+    <t>https://www.amazon.com.br/Plafon-Quadrado-Sobrepor-Tramontina-Compat%C3%ADvel/dp/B0B7V43K65/ref=sr_1_28?dib=eyJ2IjoiMSJ9.14cZBgy_n6hLGjrn9NIG4qVdiBu_XPObJ3QfIlBnSg5HY94pxwpa1Qh-FgRy7UDv1is077YFnApxLEQajEXlfe6LFB4xPaUFACumuBZO7kwkEfin1AfydbZnYpXpAmYK3g1VsAp1vzKLnprA-sTSRPdGIzw6AVVTIfbJLq_hCssWIsZZVyP7Y0wWb_8-5HpYubn9pqxIyP64yaZc3tzmJ-eL-zA2PtneLoTNV8MPblJP_2_mHoSEYEigAbxtmijjXnqDeW2Dcd1DICB6rqCLq0lWOzTREbb15bJEYhzWmjU.K1T9IxGx7o_B9mbAWauTwoJBVwm4FEDPVU8-83hoN_M&amp;amp;dib_tag=se&amp;amp;keywords=Alexa&amp;amp;qid=1729613925&amp;amp;sr=8-28</t>
   </si>
   <si>
     <t>Echo Buds (2ª Geração): Fones de ouvido sem fio com cancelamento de ruído ativo e Alexa</t>
@@ -635,190 +650,199 @@
     <t>R$ 629,10</t>
   </si>
   <si>
-    <t>https://www.amazon.com.br/Novos-Echo-Buds-Gera%C3%A7%C3%A3o-cancelamento/dp/B085WTR4CP/ref=sr_1_18?dib=eyJ2IjoiMSJ9.14cZBgy_n6hLGjrn9NIG4tUht4bHa9gKiy3EBMeibp__qHpFDoOoe6qTneEE_cF7iVEXgiyZ3RZQU8FlMTxjTe6LFB4xPaUFACumuBZO7kxAR1Rr-P6iRX47Kr7m8lnFAAaspyYqJs-a_IAoeHQWges6sxmLu-6JJmZvArasysesuh2i1p4-yVcUoV_tIk7ypA8QACoScydEHNkAxsbwyA7nnQjs9MPw2ZIorgNdXLMwrzQ70norH0gdh6352cGVN6AexWK9WJ2XEg4G97KwKpN8RkJRhczNWMlqkv8OwxQ.6LCKkCjZqYU-RjJsbgRkS0V8piRmc5e88d3mUycz9d4&amp;amp;dib_tag=se&amp;amp;keywords=Alexa&amp;amp;qid=1729423759&amp;amp;sr=8-18&amp;amp;ufe=app_do%3Aamzn1.fos.95de73c3-5dda-43a7-bd1f-63af03b14751</t>
-  </si>
-  <si>
-    <t>Controle Remoto por Voz com Alexa para Fire TV (inclui comandos de TV)</t>
-  </si>
-  <si>
-    <t>R$ 179,00</t>
-  </si>
-  <si>
-    <t>https://www.amazon.com.br/Controle-Remoto-Alexa-inclui-comandos-TV/dp/B08D2L81JW/ref=sr_1_32?dib=eyJ2IjoiMSJ9.14cZBgy_n6hLGjrn9NIG4tUht4bHa9gKiy3EBMeibp__qHpFDoOoe6qTneEE_cF7iVEXgiyZ3RZQU8FlMTxjTe6LFB4xPaUFACumuBZO7kxAR1Rr-P6iRX47Kr7m8lnFAAaspyYqJs-a_IAoeHQWges6sxmLu-6JJmZvArasysesuh2i1p4-yVcUoV_tIk7ypA8QACoScydEHNkAxsbwyA7nnQjs9MPw2ZIorgNdXLMwrzQ70norH0gdh6352cGVN6AexWK9WJ2XEg4G97KwKpN8RkJRhczNWMlqkv8OwxQ.6LCKkCjZqYU-RjJsbgRkS0V8piRmc5e88d3mUycz9d4&amp;amp;dib_tag=se&amp;amp;keywords=Alexa&amp;amp;qid=1729423759&amp;amp;sr=8-32&amp;amp;ufe=app_do%3Aamzn1.fos.e05b01e0-91a7-477e-a514-15a32325a6d6</t>
-  </si>
-  <si>
-    <t>O grúfalo</t>
-  </si>
-  <si>
-    <t>R$ 43,68</t>
-  </si>
-  <si>
-    <t>Informação não encontrada</t>
-  </si>
-  <si>
-    <t>https://www.amazon.com.br/sspa/click?ie=UTF8&amp;amp;spc=MTozNTQyMzA1MjY2NTA2Mjc3OjE3Mjk0MjM3NjA6c3BfYXRmOjIwMDA5MDk5MTY3NjQ2MTo6MDo6&amp;amp;url=%2FGr%25C3%25BAfalo-Julia-Donaldson%2Fdp%2F8574120286%2Fref%3Dsr_1_1_sspa%3Fdib%3DeyJ2IjoiMSJ9.WIZ1zfU7dd1w2XXOOyDFmiRh8V23wumZWsFmZLtXYUiRMotyzmXAUpeX4kZgVPdQu9NbC5GdgP7D0IADri88HIeI7SGO2f9anxYQCsd8IUuFnkyesz23f8QkZYaswjxAjA1muyNq4lRKpKO2IaYyisw_cqR77S8mhxGm688RSIypKuDIG58RE1O4BK2z8dHzdWukHCkb8SrYi_BrKxkU9QDNe18N-OnnU83GWk0cjH_VW32txRFQKagATjU8OZgWwHZ8CwLuf9uhmINraPtCQdHYaRfosFFlQCJg_KCz_CA.2c0EnNzpbsGLDE7RLSKnamT0rnm3WSO9N0-PdhTL85k%26dib_tag%3Dse%26keywords%3DBooks%26qid%3D1729423760%26sr%3D8-1-spons%26sp_csd%3Dd2lkZ2V0TmFtZT1zcF9hdGY%26psc%3D1</t>
-  </si>
-  <si>
-    <t>A Arte de Enganar a si Mesmo: uma Visão Científica da Polarização e Outros Males (nem Tão) Modernos</t>
-  </si>
-  <si>
-    <t>R$ 74,18</t>
-  </si>
-  <si>
-    <t>https://www.amazon.com.br/sspa/click?ie=UTF8&amp;amp;spc=MTozNTQyMzA1MjY2NTA2Mjc3OjE3Mjk0MjM3NjA6c3BfYXRmOjMwMDE5OTcxNjY3ODMwMjo6MDo6&amp;amp;url=%2FArte-Enganar-Mesmo-Cient%25C3%25ADfica-Polariza%25C3%25A7%25C3%25A3o%2Fdp%2F8550822361%2Fref%3Dsr_1_2_sspa%3Fdib%3DeyJ2IjoiMSJ9.WIZ1zfU7dd1w2XXOOyDFmiRh8V23wumZWsFmZLtXYUiRMotyzmXAUpeX4kZgVPdQu9NbC5GdgP7D0IADri88HIeI7SGO2f9anxYQCsd8IUuFnkyesz23f8QkZYaswjxAjA1muyNq4lRKpKO2IaYyisw_cqR77S8mhxGm688RSIypKuDIG58RE1O4BK2z8dHzdWukHCkb8SrYi_BrKxkU9QDNe18N-OnnU83GWk0cjH_VW32txRFQKagATjU8OZgWwHZ8CwLuf9uhmINraPtCQdHYaRfosFFlQCJg_KCz_CA.2c0EnNzpbsGLDE7RLSKnamT0rnm3WSO9N0-PdhTL85k%26dib_tag%3Dse%26keywords%3DBooks%26qid%3D1729423760%26sr%3D8-2-spons%26sp_csd%3Dd2lkZ2V0TmFtZT1zcF9hdGY%26psc%3D1</t>
-  </si>
-  <si>
-    <t>Seja um Analista de Dados: Como Usar a Análise Para Transformar Dados em Valor</t>
-  </si>
-  <si>
-    <t>R$ 49,05</t>
-  </si>
-  <si>
-    <t>https://www.amazon.com.br/sspa/click?ie=UTF8&amp;amp;spc=MTozNTQyMzA1MjY2NTA2Mjc3OjE3Mjk0MjM3NjA6c3BfYXRmOjMwMDM5MTc1MjU4NzIwMjo6MDo6&amp;amp;url=%2FSeja-Analista-Dados-An%25C3%25A1lise-Transformar%2Fdp%2F8550822604%2Fref%3Dsr_1_3_sspa%3Fdib%3DeyJ2IjoiMSJ9.WIZ1zfU7dd1w2XXOOyDFmiRh8V23wumZWsFmZLtXYUiRMotyzmXAUpeX4kZgVPdQu9NbC5GdgP7D0IADri88HIeI7SGO2f9anxYQCsd8IUuFnkyesz23f8QkZYaswjxAjA1muyNq4lRKpKO2IaYyisw_cqR77S8mhxGm688RSIypKuDIG58RE1O4BK2z8dHzdWukHCkb8SrYi_BrKxkU9QDNe18N-OnnU83GWk0cjH_VW32txRFQKagATjU8OZgWwHZ8CwLuf9uhmINraPtCQdHYaRfosFFlQCJg_KCz_CA.2c0EnNzpbsGLDE7RLSKnamT0rnm3WSO9N0-PdhTL85k%26dib_tag%3Dse%26keywords%3DBooks%26qid%3D1729423760%26sr%3D8-3-spons%26sp_csd%3Dd2lkZ2V0TmFtZT1zcF9hdGY%26psc%3D1</t>
-  </si>
-  <si>
-    <t>Cara de quê?: 1</t>
-  </si>
-  <si>
-    <t>R$ 47,30</t>
-  </si>
-  <si>
-    <t>https://www.amazon.com.br/sspa/click?ie=UTF8&amp;amp;spc=MTozNTQyMzA1MjY2NTA2Mjc3OjE3Mjk0MjM3NjA6c3BfYXRmOjMwMDI4NDg3NTc4NDAwMjo6MDo6&amp;amp;url=%2FCara-qu%25C3%25AA-IVANKE-MEY-CLERICI%2Fdp%2F8592689449%2Fref%3Dsr_1_4_sspa%3Fdib%3DeyJ2IjoiMSJ9.WIZ1zfU7dd1w2XXOOyDFmiRh8V23wumZWsFmZLtXYUiRMotyzmXAUpeX4kZgVPdQu9NbC5GdgP7D0IADri88HIeI7SGO2f9anxYQCsd8IUuFnkyesz23f8QkZYaswjxAjA1muyNq4lRKpKO2IaYyisw_cqR77S8mhxGm688RSIypKuDIG58RE1O4BK2z8dHzdWukHCkb8SrYi_BrKxkU9QDNe18N-OnnU83GWk0cjH_VW32txRFQKagATjU8OZgWwHZ8CwLuf9uhmINraPtCQdHYaRfosFFlQCJg_KCz_CA.2c0EnNzpbsGLDE7RLSKnamT0rnm3WSO9N0-PdhTL85k%26dib_tag%3Dse%26keywords%3DBooks%26qid%3D1729423760%26sr%3D8-4-spons%26sp_csd%3Dd2lkZ2V0TmFtZT1zcF9hdGY%26psc%3D1</t>
+    <t>https://www.amazon.com.br/Novos-Echo-Buds-Gera%C3%A7%C3%A3o-cancelamento/dp/B085WTR4CP/ref=sr_1_29?dib=eyJ2IjoiMSJ9.14cZBgy_n6hLGjrn9NIG4qVdiBu_XPObJ3QfIlBnSg5HY94pxwpa1Qh-FgRy7UDv1is077YFnApxLEQajEXlfe6LFB4xPaUFACumuBZO7kwkEfin1AfydbZnYpXpAmYK3g1VsAp1vzKLnprA-sTSRPdGIzw6AVVTIfbJLq_hCssWIsZZVyP7Y0wWb_8-5HpYubn9pqxIyP64yaZc3tzmJ-eL-zA2PtneLoTNV8MPblJP_2_mHoSEYEigAbxtmijjXnqDeW2Dcd1DICB6rqCLq0lWOzTREbb15bJEYhzWmjU.K1T9IxGx7o_B9mbAWauTwoJBVwm4FEDPVU8-83hoN_M&amp;amp;dib_tag=se&amp;amp;keywords=Alexa&amp;amp;qid=1729613925&amp;amp;sr=8-29&amp;amp;ufe=app_do%3Aamzn1.fos.95de73c3-5dda-43a7-bd1f-63af03b14751</t>
+  </si>
+  <si>
+    <t>Storybrand: Crie Mensagens Claras e Atraia a Atenção dos Clientes Para sua Marca</t>
+  </si>
+  <si>
+    <t>R$ 48,90</t>
+  </si>
+  <si>
+    <t>https://www.amazon.com.br/sspa/click?ie=UTF8&amp;amp;spc=MTo2NTQ3NzMxNDE2Mjg2NDE3OjE3Mjk2MTM5MjY6c3BfYXRmOjMwMDM5ODQxMDY5NjQwMjo6MDo6&amp;amp;url=%2FStorybrand-Mensagens-Claras-Aten%25C3%25A7%25C3%25A3o-Clientes%2Fdp%2F8550804592%2Fref%3Dsr_1_1_sspa%3Fdib%3DeyJ2IjoiMSJ9.bT8GzroLmAVv6jNNfMyhptR0_X2DqECFaFKUyAv8SWrBi1Ldf3bNg3TktAo_JgD4dPZIN-CDmIl74pFKUjsKAt0KuaWYabGZqU_0BIP5fIM_wjBz3Gnnhrfk-ULMERvPtCSarAkglCHDzin_g3GPjimer6BCbsiTbLuKUlufVGASyQq7xVrhIUPMPEuKy3NsQbLvHpjgxitRu3iHUUzxxgDNe18N-OnnU83GWk0cjH90pExpK7ctzVClaRoOAK3nm8ixEKrIMpO7pCmmc9YRoVZMBC2YbFvl7b9c-YePpCQ.ADH15n-WT0TShhxwIpaA_zaLcgBNEtQdPbst-1_l7zo%26dib_tag%3Dse%26keywords%3DBooks%26qid%3D1729613926%26sr%3D8-1-spons%26sp_csd%3Dd2lkZ2V0TmFtZT1zcF9hdGY%26psc%3D1</t>
+  </si>
+  <si>
+    <t>Execução: a Disciplina Para Atingir Resultados</t>
+  </si>
+  <si>
+    <t>R$ 56,59</t>
+  </si>
+  <si>
+    <t>https://www.amazon.com.br/sspa/click?ie=UTF8&amp;amp;spc=MTo2NTQ3NzMxNDE2Mjg2NDE3OjE3Mjk2MTM5MjY6c3BfYXRmOjMwMDM5ODQxMDY5NzEwMjo6MDo6&amp;amp;url=%2FExecu%25C3%25A7%25C3%25A3o-Disciplina-Para-Atingir-Resultados%2Fdp%2F8550809276%2Fref%3Dsr_1_2_sspa%3Fdib%3DeyJ2IjoiMSJ9.bT8GzroLmAVv6jNNfMyhptR0_X2DqECFaFKUyAv8SWrBi1Ldf3bNg3TktAo_JgD4dPZIN-CDmIl74pFKUjsKAt0KuaWYabGZqU_0BIP5fIM_wjBz3Gnnhrfk-ULMERvPtCSarAkglCHDzin_g3GPjimer6BCbsiTbLuKUlufVGASyQq7xVrhIUPMPEuKy3NsQbLvHpjgxitRu3iHUUzxxgDNe18N-OnnU83GWk0cjH90pExpK7ctzVClaRoOAK3nm8ixEKrIMpO7pCmmc9YRoVZMBC2YbFvl7b9c-YePpCQ.ADH15n-WT0TShhxwIpaA_zaLcgBNEtQdPbst-1_l7zo%26dib_tag%3Dse%26keywords%3DBooks%26qid%3D1729613926%26sr%3D8-2-spons%26sp_csd%3Dd2lkZ2V0TmFtZT1zcF9hdGY%26psc%3D1</t>
+  </si>
+  <si>
+    <t>Storytelling com Dados: um Guia Sobre Visualização de Dados Para Profissionais de Negócios</t>
+  </si>
+  <si>
+    <t>R$ 58,90</t>
+  </si>
+  <si>
+    <t>https://www.amazon.com.br/sspa/click?ie=UTF8&amp;amp;spc=MTo2NTQ3NzMxNDE2Mjg2NDE3OjE3Mjk2MTM5MjY6c3BfYXRmOjMwMDM5ODQxMDY5NjAwMjo6MDo6&amp;amp;url=%2FStorytelling-com-Dados-Visualiza%25C3%25A7%25C3%25A3o-Profissionais%2Fdp%2F8550804681%2Fref%3Dsr_1_3_sspa%3Fdib%3DeyJ2IjoiMSJ9.bT8GzroLmAVv6jNNfMyhptR0_X2DqECFaFKUyAv8SWrBi1Ldf3bNg3TktAo_JgD4dPZIN-CDmIl74pFKUjsKAt0KuaWYabGZqU_0BIP5fIM_wjBz3Gnnhrfk-ULMERvPtCSarAkglCHDzin_g3GPjimer6BCbsiTbLuKUlufVGASyQq7xVrhIUPMPEuKy3NsQbLvHpjgxitRu3iHUUzxxgDNe18N-OnnU83GWk0cjH90pExpK7ctzVClaRoOAK3nm8ixEKrIMpO7pCmmc9YRoVZMBC2YbFvl7b9c-YePpCQ.ADH15n-WT0TShhxwIpaA_zaLcgBNEtQdPbst-1_l7zo%26dib_tag%3Dse%26keywords%3DBooks%26qid%3D1729613926%26sr%3D8-3-spons%26sp_csd%3Dd2lkZ2V0TmFtZT1zcF9hdGY%26psc%3D1</t>
+  </si>
+  <si>
+    <t>Livro de Sangue</t>
+  </si>
+  <si>
+    <t>R$ 6,90</t>
+  </si>
+  <si>
+    <t>https://www.amazon.com.br/gp/video/ssoredirect/?ru=https%3A%2F%2Fapp.primevideo.com%2Fdetail%3Fgti%3Damzn1.dv.gti.3cbafb0b-2d26-6833-66e7-f7fd0d9f48e9%26ref_%3Ddvm_src_ret_br_xx_s&amp;amp;page-type-id=B08P29YWW9&amp;amp;ref=sr_1_4&amp;amp;keywords=Books&amp;amp;dib_tag=se&amp;amp;dib=eyJ2IjoiMSJ9.bT8GzroLmAVv6jNNfMyhptR0_X2DqECFaFKUyAv8SWrBi1Ldf3bNg3TktAo_JgD4dPZIN-CDmIl74pFKUjsKAt0KuaWYabGZqU_0BIP5fIM_wjBz3Gnnhrfk-ULMERvPtCSarAkglCHDzin_g3GPjimer6BCbsiTbLuKUlufVGASyQq7xVrhIUPMPEuKy3NsQbLvHpjgxitRu3iHUUzxxgDNe18N-OnnU83GWk0cjH90pExpK7ctzVClaRoOAK3nm8ixEKrIMpO7pCmmc9YRoVZMBC2YbFvl7b9c-YePpCQ.ADH15n-WT0TShhxwIpaA_zaLcgBNEtQdPbst-1_l7zo&amp;amp;qid=1729613926&amp;amp;sr=8-4</t>
+  </si>
+  <si>
+    <t>O Livro do Amor</t>
+  </si>
+  <si>
+    <t>https://www.amazon.com.br/gp/video/ssoredirect/?ru=https%3A%2F%2Fapp.primevideo.com%2Fdetail%3Fgti%3Damzn1.dv.gti.445c403c-3c27-4490-a720-abc78d1ff2b8%26ref_%3Ddvm_src_ret_br_xx_s&amp;amp;page-type-id=B09ZPFBFVN&amp;amp;ref=sr_1_5&amp;amp;keywords=Books&amp;amp;dib_tag=se&amp;amp;dib=eyJ2IjoiMSJ9.bT8GzroLmAVv6jNNfMyhptR0_X2DqECFaFKUyAv8SWrBi1Ldf3bNg3TktAo_JgD4dPZIN-CDmIl74pFKUjsKAt0KuaWYabGZqU_0BIP5fIM_wjBz3Gnnhrfk-ULMERvPtCSarAkglCHDzin_g3GPjimer6BCbsiTbLuKUlufVGASyQq7xVrhIUPMPEuKy3NsQbLvHpjgxitRu3iHUUzxxgDNe18N-OnnU83GWk0cjH90pExpK7ctzVClaRoOAK3nm8ixEKrIMpO7pCmmc9YRoVZMBC2YbFvl7b9c-YePpCQ.ADH15n-WT0TShhxwIpaA_zaLcgBNEtQdPbst-1_l7zo&amp;amp;qid=1729613926&amp;amp;sr=8-5</t>
+  </si>
+  <si>
+    <t>The Outsiders</t>
+  </si>
+  <si>
+    <t>R$ 34,80</t>
+  </si>
+  <si>
+    <t>https://www.amazon.com.br/Outsiders-S-Hinton/dp/014240733X/ref=sr_1_6?dib=eyJ2IjoiMSJ9.bT8GzroLmAVv6jNNfMyhptR0_X2DqECFaFKUyAv8SWrBi1Ldf3bNg3TktAo_JgD4dPZIN-CDmIl74pFKUjsKAt0KuaWYabGZqU_0BIP5fIM_wjBz3Gnnhrfk-ULMERvPtCSarAkglCHDzin_g3GPjimer6BCbsiTbLuKUlufVGASyQq7xVrhIUPMPEuKy3NsQbLvHpjgxitRu3iHUUzxxgDNe18N-OnnU83GWk0cjH90pExpK7ctzVClaRoOAK3nm8ixEKrIMpO7pCmmc9YRoVZMBC2YbFvl7b9c-YePpCQ.ADH15n-WT0TShhxwIpaA_zaLcgBNEtQdPbst-1_l7zo&amp;amp;dib_tag=se&amp;amp;keywords=Books&amp;amp;qid=1729613926&amp;amp;sr=8-6</t>
+  </si>
+  <si>
+    <t>Do Jeito que Elas Querem - O Próximo Capítulo</t>
+  </si>
+  <si>
+    <t>R$ 14,90</t>
+  </si>
+  <si>
+    <t>https://www.amazon.com.br/gp/video/ssoredirect/?ru=https%3A%2F%2Fapp.primevideo.com%2Fdetail%3Fgti%3Damzn1.dv.gti.a67150ad-8ed7-4043-be7d-505d0e2343e8%26ref_%3Ddvm_src_ret_br_xx_s&amp;amp;page-type-id=B0D7J7RSS5&amp;amp;ref=sr_1_7&amp;amp;keywords=Books&amp;amp;dib_tag=se&amp;amp;dib=eyJ2IjoiMSJ9.bT8GzroLmAVv6jNNfMyhptR0_X2DqECFaFKUyAv8SWrBi1Ldf3bNg3TktAo_JgD4dPZIN-CDmIl74pFKUjsKAt0KuaWYabGZqU_0BIP5fIM_wjBz3Gnnhrfk-ULMERvPtCSarAkglCHDzin_g3GPjimer6BCbsiTbLuKUlufVGASyQq7xVrhIUPMPEuKy3NsQbLvHpjgxitRu3iHUUzxxgDNe18N-OnnU83GWk0cjH90pExpK7ctzVClaRoOAK3nm8ixEKrIMpO7pCmmc9YRoVZMBC2YbFvl7b9c-YePpCQ.ADH15n-WT0TShhxwIpaA_zaLcgBNEtQdPbst-1_l7zo&amp;amp;qid=1729613926&amp;amp;sr=8-7</t>
+  </si>
+  <si>
+    <t>Green Book: O Guia</t>
+  </si>
+  <si>
+    <t>R$ 11,90</t>
+  </si>
+  <si>
+    <t>https://www.amazon.com.br/gp/video/ssoredirect/?ru=https%3A%2F%2Fapp.primevideo.com%2Fdetail%3Fgti%3Damzn1.dv.gti.80b97c70-cf6a-baf0-ebb9-57b305818f02%26ref_%3Ddvm_src_ret_br_xx_s&amp;amp;page-type-id=B08CD567T7&amp;amp;ref=sr_1_8&amp;amp;keywords=Books&amp;amp;dib_tag=se&amp;amp;dib=eyJ2IjoiMSJ9.bT8GzroLmAVv6jNNfMyhptR0_X2DqECFaFKUyAv8SWrBi1Ldf3bNg3TktAo_JgD4dPZIN-CDmIl74pFKUjsKAt0KuaWYabGZqU_0BIP5fIM_wjBz3Gnnhrfk-ULMERvPtCSarAkglCHDzin_g3GPjimer6BCbsiTbLuKUlufVGASyQq7xVrhIUPMPEuKy3NsQbLvHpjgxitRu3iHUUzxxgDNe18N-OnnU83GWk0cjH90pExpK7ctzVClaRoOAK3nm8ixEKrIMpO7pCmmc9YRoVZMBC2YbFvl7b9c-YePpCQ.ADH15n-WT0TShhxwIpaA_zaLcgBNEtQdPbst-1_l7zo&amp;amp;qid=1729613926&amp;amp;sr=8-8</t>
+  </si>
+  <si>
+    <t>Enemies With Benefits: An Enemies-to-Lovers Romance (Loveless Brothers Romance Book 1) (English Edition)</t>
+  </si>
+  <si>
+    <t>https://www.amazon.com.br/Enemies-Benefits-English-Roxie-Noir-ebook/dp/B07RWDH7XK/ref=sr_1_9?dib=eyJ2IjoiMSJ9.bT8GzroLmAVv6jNNfMyhptR0_X2DqECFaFKUyAv8SWrBi1Ldf3bNg3TktAo_JgD4dPZIN-CDmIl74pFKUjsKAt0KuaWYabGZqU_0BIP5fIM_wjBz3Gnnhrfk-ULMERvPtCSarAkglCHDzin_g3GPjimer6BCbsiTbLuKUlufVGASyQq7xVrhIUPMPEuKy3NsQbLvHpjgxitRu3iHUUzxxgDNe18N-OnnU83GWk0cjH90pExpK7ctzVClaRoOAK3nm8ixEKrIMpO7pCmmc9YRoVZMBC2YbFvl7b9c-YePpCQ.ADH15n-WT0TShhxwIpaA_zaLcgBNEtQdPbst-1_l7zo&amp;amp;dib_tag=se&amp;amp;keywords=Books&amp;amp;qid=1729613926&amp;amp;sr=8-9</t>
   </si>
   <si>
     <t>The Testaments: The Sequel to the Handmaid&amp;#x27;s Tale</t>
   </si>
   <si>
-    <t>R$ 24,98</t>
-  </si>
-  <si>
-    <t>https://www.amazon.com.br/Testaments-Sequel-Handmaids-Tale/dp/0385543786/ref=sr_1_5?dib=eyJ2IjoiMSJ9.WIZ1zfU7dd1w2XXOOyDFmiRh8V23wumZWsFmZLtXYUiRMotyzmXAUpeX4kZgVPdQu9NbC5GdgP7D0IADri88HIeI7SGO2f9anxYQCsd8IUuFnkyesz23f8QkZYaswjxAjA1muyNq4lRKpKO2IaYyisw_cqR77S8mhxGm688RSIypKuDIG58RE1O4BK2z8dHzdWukHCkb8SrYi_BrKxkU9QDNe18N-OnnU83GWk0cjH_VW32txRFQKagATjU8OZgWwHZ8CwLuf9uhmINraPtCQdHYaRfosFFlQCJg_KCz_CA.2c0EnNzpbsGLDE7RLSKnamT0rnm3WSO9N0-PdhTL85k&amp;amp;dib_tag=se&amp;amp;keywords=Books&amp;amp;qid=1729423760&amp;amp;sr=8-5</t>
-  </si>
-  <si>
-    <t>Livro de Sangue</t>
-  </si>
-  <si>
-    <t>R$ 6,90</t>
-  </si>
-  <si>
-    <t>https://www.amazon.com.br/gp/video/ssoredirect/?ru=https%3A%2F%2Fapp.primevideo.com%2Fdetail%3Fgti%3Damzn1.dv.gti.3cbafb0b-2d26-6833-66e7-f7fd0d9f48e9%26ref_%3Ddvm_src_ret_br_xx_s&amp;amp;page-type-id=B08P29YWW9&amp;amp;ref=sr_1_6&amp;amp;keywords=Books&amp;amp;dib_tag=se&amp;amp;dib=eyJ2IjoiMSJ9.WIZ1zfU7dd1w2XXOOyDFmiRh8V23wumZWsFmZLtXYUiRMotyzmXAUpeX4kZgVPdQu9NbC5GdgP7D0IADri88HIeI7SGO2f9anxYQCsd8IUuFnkyesz23f8QkZYaswjxAjA1muyNq4lRKpKO2IaYyisw_cqR77S8mhxGm688RSIypKuDIG58RE1O4BK2z8dHzdWukHCkb8SrYi_BrKxkU9QDNe18N-OnnU83GWk0cjH_VW32txRFQKagATjU8OZgWwHZ8CwLuf9uhmINraPtCQdHYaRfosFFlQCJg_KCz_CA.2c0EnNzpbsGLDE7RLSKnamT0rnm3WSO9N0-PdhTL85k&amp;amp;qid=1729423760&amp;amp;sr=8-6</t>
-  </si>
-  <si>
-    <t>A Book to Kill For : A Bookish Cafe Mystery (English Edition)</t>
-  </si>
-  <si>
-    <t>R$ 0,00</t>
-  </si>
-  <si>
-    <t>https://www.amazon.com.br/Book-Kill-Bookish-Mystery-English-ebook/dp/B08WH3NTKQ/ref=sr_1_7?dib=eyJ2IjoiMSJ9.WIZ1zfU7dd1w2XXOOyDFmiRh8V23wumZWsFmZLtXYUiRMotyzmXAUpeX4kZgVPdQu9NbC5GdgP7D0IADri88HIeI7SGO2f9anxYQCsd8IUuFnkyesz23f8QkZYaswjxAjA1muyNq4lRKpKO2IaYyisw_cqR77S8mhxGm688RSIypKuDIG58RE1O4BK2z8dHzdWukHCkb8SrYi_BrKxkU9QDNe18N-OnnU83GWk0cjH_VW32txRFQKagATjU8OZgWwHZ8CwLuf9uhmINraPtCQdHYaRfosFFlQCJg_KCz_CA.2c0EnNzpbsGLDE7RLSKnamT0rnm3WSO9N0-PdhTL85k&amp;amp;dib_tag=se&amp;amp;keywords=Books&amp;amp;qid=1729423760&amp;amp;sr=8-7</t>
-  </si>
-  <si>
-    <t>Contatos Alienígenas</t>
-  </si>
-  <si>
-    <t>https://www.amazon.com.br/gp/video/ssoredirect/?ru=https%3A%2F%2Fapp.primevideo.com%2Fdetail%3Fgti%3Damzn1.dv.gti.3eb6e811-089d-f6ec-8975-ba4e9b2244c4%26ref_%3Ddvm_src_ret_br_xx_s&amp;amp;page-type-id=B07Z5CYCD4&amp;amp;ref=sr_1_8&amp;amp;keywords=Books&amp;amp;dib_tag=se&amp;amp;dib=eyJ2IjoiMSJ9.WIZ1zfU7dd1w2XXOOyDFmiRh8V23wumZWsFmZLtXYUiRMotyzmXAUpeX4kZgVPdQu9NbC5GdgP7D0IADri88HIeI7SGO2f9anxYQCsd8IUuFnkyesz23f8QkZYaswjxAjA1muyNq4lRKpKO2IaYyisw_cqR77S8mhxGm688RSIypKuDIG58RE1O4BK2z8dHzdWukHCkb8SrYi_BrKxkU9QDNe18N-OnnU83GWk0cjH_VW32txRFQKagATjU8OZgWwHZ8CwLuf9uhmINraPtCQdHYaRfosFFlQCJg_KCz_CA.2c0EnNzpbsGLDE7RLSKnamT0rnm3WSO9N0-PdhTL85k&amp;amp;qid=1729423760&amp;amp;sr=8-8</t>
-  </si>
-  <si>
-    <t>Enemies With Benefits: An Enemies-to-Lovers Romance (Loveless Brothers Romance Book 1) (English Edition)</t>
-  </si>
-  <si>
-    <t>https://www.amazon.com.br/Enemies-Benefits-English-Roxie-Noir-ebook/dp/B07RWDH7XK/ref=sr_1_9?dib=eyJ2IjoiMSJ9.WIZ1zfU7dd1w2XXOOyDFmiRh8V23wumZWsFmZLtXYUiRMotyzmXAUpeX4kZgVPdQu9NbC5GdgP7D0IADri88HIeI7SGO2f9anxYQCsd8IUuFnkyesz23f8QkZYaswjxAjA1muyNq4lRKpKO2IaYyisw_cqR77S8mhxGm688RSIypKuDIG58RE1O4BK2z8dHzdWukHCkb8SrYi_BrKxkU9QDNe18N-OnnU83GWk0cjH_VW32txRFQKagATjU8OZgWwHZ8CwLuf9uhmINraPtCQdHYaRfosFFlQCJg_KCz_CA.2c0EnNzpbsGLDE7RLSKnamT0rnm3WSO9N0-PdhTL85k&amp;amp;dib_tag=se&amp;amp;keywords=Books&amp;amp;qid=1729423760&amp;amp;sr=8-9</t>
-  </si>
-  <si>
-    <t>Psicoses</t>
-  </si>
-  <si>
-    <t>https://www.amazon.com.br/gp/video/ssoredirect/?ru=https%3A%2F%2Fapp.primevideo.com%2Fdetail%3Fgti%3Damzn1.dv.gti.5e66fd7b-d4b2-45a9-b30f-d72c0fca43a2%26ref_%3Ddvm_src_ret_br_xx_s&amp;amp;page-type-id=B0B65TWTK5&amp;amp;ref=sr_1_10&amp;amp;keywords=Books&amp;amp;dib_tag=se&amp;amp;dib=eyJ2IjoiMSJ9.WIZ1zfU7dd1w2XXOOyDFmiRh8V23wumZWsFmZLtXYUiRMotyzmXAUpeX4kZgVPdQu9NbC5GdgP7D0IADri88HIeI7SGO2f9anxYQCsd8IUuFnkyesz23f8QkZYaswjxAjA1muyNq4lRKpKO2IaYyisw_cqR77S8mhxGm688RSIypKuDIG58RE1O4BK2z8dHzdWukHCkb8SrYi_BrKxkU9QDNe18N-OnnU83GWk0cjH_VW32txRFQKagATjU8OZgWwHZ8CwLuf9uhmINraPtCQdHYaRfosFFlQCJg_KCz_CA.2c0EnNzpbsGLDE7RLSKnamT0rnm3WSO9N0-PdhTL85k&amp;amp;qid=1729423760&amp;amp;sr=8-10</t>
+    <t>R$ 22,48</t>
+  </si>
+  <si>
+    <t>https://www.amazon.com.br/Testaments-Sequel-Handmaids-Tale/dp/0385543786/ref=sr_1_10?dib=eyJ2IjoiMSJ9.bT8GzroLmAVv6jNNfMyhptR0_X2DqECFaFKUyAv8SWrBi1Ldf3bNg3TktAo_JgD4dPZIN-CDmIl74pFKUjsKAt0KuaWYabGZqU_0BIP5fIM_wjBz3Gnnhrfk-ULMERvPtCSarAkglCHDzin_g3GPjimer6BCbsiTbLuKUlufVGASyQq7xVrhIUPMPEuKy3NsQbLvHpjgxitRu3iHUUzxxgDNe18N-OnnU83GWk0cjH90pExpK7ctzVClaRoOAK3nm8ixEKrIMpO7pCmmc9YRoVZMBC2YbFvl7b9c-YePpCQ.ADH15n-WT0TShhxwIpaA_zaLcgBNEtQdPbst-1_l7zo&amp;amp;dib_tag=se&amp;amp;keywords=Books&amp;amp;qid=1729613926&amp;amp;sr=8-10</t>
   </si>
   <si>
     <t>Notebook ASUS X515MA, Celeron Dual Core, SSD 128GB, 4GB, WIN 11 Home, 15,60&amp;quot; Led-Backlit Anti-Glare, Slate Gray - X515MA-BR933WS</t>
   </si>
   <si>
-    <t>R$ 1.875,00</t>
-  </si>
-  <si>
-    <t>https://www.amazon.com.br/Notebook-ASUS-Celeron-Led-Backlit-Anti-Glare/dp/B0CK8P6RVH/ref=sr_1_5?dib=eyJ2IjoiMSJ9.x1EbliBYop4O86qQsgi0rkbJ0-8JiuJN-5QEHVNSTkUyipaG_0urDoa-om7YR7033gTOj7ddjfaVHBPZ2svyIaqsQSGM6SJeuRQV7FfJ-EN8XNSITvqWd9wHIfHxJM7I98W1hvb5qj6v_ercszgHGoZ90H18H0yo9EI6NQ7NZuAXP3tSjptmcFW1Gd3odfusoZtVVqTuyg2q8MTsQYJMhJ80zJIIOQ7M3i2hA0G0w81XyMj7EgDmPDz1w6VnkBg9lnex0gIXMJYtv5fgEwG-p6ty-TREQpJbbrNGyGZGFjQ.anyi0HBT1MfIw3BNV932xAU0hQ9T0_tnan4qcOK3rkc&amp;amp;dib_tag=se&amp;amp;keywords=Laptop&amp;amp;qid=1729423761&amp;amp;sr=8-5&amp;amp;ufe=app_do%3Aamzn1.fos.25548f35-0de7-44b3-b28e-0f56f3f96147</t>
+    <t>R$ 1.729,00</t>
+  </si>
+  <si>
+    <t>https://www.amazon.com.br/Notebook-ASUS-Celeron-Led-Backlit-Anti-Glare/dp/B0CK8P6RVH/ref=sr_1_6?dib=eyJ2IjoiMSJ9.refE9-DRn6vlPET2KAjBPZZrEgNo7lD1Xb00c8KQ7_0z1Fg8rNwRPMIep0y5uZlQ2jJWhFnwXQM71sI3xW5e0-2NXDUXH89Je_t5wPFZHzSDQWUBrvyhGeRf6KIqKXbL5Uy995v5nr3IdK6EHnvvVwRSJ_ee7agsVsazUb3IAJUTSKkBOKiGoR5x24A1k7nXpFN21aoIUQUlNaxhqPZQJYlP89tMQWiDwJXTBI7Fv4T1_LRgXUk2GFdSm_6hDIMtMUZ670BqjMVlA1vPR4sdHiOO8iPiqRPmd_pEPCBVvBQ.-G1PCASQoMAwae7voCA4Y4LS6kAZmQak3fnP3aUaaE8&amp;amp;dib_tag=se&amp;amp;keywords=Laptop&amp;amp;qid=1729613927&amp;amp;sr=8-6&amp;amp;ufe=app_do%3Aamzn1.fos.25548f35-0de7-44b3-b28e-0f56f3f96147</t>
+  </si>
+  <si>
+    <t>Galaxy Book2 Intel® Core™ i7-1255U, Windows 11 Home, 8GB, 256GB SSD, 15.6&amp;#x27;&amp;#x27; Full HD LED, 1.81kg*.</t>
+  </si>
+  <si>
+    <t>R$ 3.199,00</t>
+  </si>
+  <si>
+    <t>https://www.amazon.com.br/Notebook-Samsung-i7-1255U-Windows-Grafite/dp/B0C5JWYN85/ref=sr_1_16?dib=eyJ2IjoiMSJ9.refE9-DRn6vlPET2KAjBPZZrEgNo7lD1Xb00c8KQ7_0z1Fg8rNwRPMIep0y5uZlQ2jJWhFnwXQM71sI3xW5e0-2NXDUXH89Je_t5wPFZHzSDQWUBrvyhGeRf6KIqKXbL5Uy995v5nr3IdK6EHnvvVwRSJ_ee7agsVsazUb3IAJUTSKkBOKiGoR5x24A1k7nXpFN21aoIUQUlNaxhqPZQJYlP89tMQWiDwJXTBI7Fv4T1_LRgXUk2GFdSm_6hDIMtMUZ670BqjMVlA1vPR4sdHiOO8iPiqRPmd_pEPCBVvBQ.-G1PCASQoMAwae7voCA4Y4LS6kAZmQak3fnP3aUaaE8&amp;amp;dib_tag=se&amp;amp;keywords=Laptop&amp;amp;qid=1729613927&amp;amp;sr=8-16&amp;amp;ufe=app_do%3Aamzn1.fos.25548f35-0de7-44b3-b28e-0f56f3f96147</t>
   </si>
   <si>
     <t>Notebook Samsung Galaxy Book4 i3 8GB 256 W11H NP750XGJ-KG5BR</t>
   </si>
   <si>
-    <t>R$ 2.590,00</t>
-  </si>
-  <si>
-    <t>https://www.amazon.com.br/Notebook-Samsung-Galaxy-Book4-NP750XGJ-KG5BR/dp/B0D4NSS9XV/ref=sr_1_7?dib=eyJ2IjoiMSJ9.x1EbliBYop4O86qQsgi0rkbJ0-8JiuJN-5QEHVNSTkUyipaG_0urDoa-om7YR7033gTOj7ddjfaVHBPZ2svyIaqsQSGM6SJeuRQV7FfJ-EN8XNSITvqWd9wHIfHxJM7I98W1hvb5qj6v_ercszgHGoZ90H18H0yo9EI6NQ7NZuAXP3tSjptmcFW1Gd3odfusoZtVVqTuyg2q8MTsQYJMhJ80zJIIOQ7M3i2hA0G0w81XyMj7EgDmPDz1w6VnkBg9lnex0gIXMJYtv5fgEwG-p6ty-TREQpJbbrNGyGZGFjQ.anyi0HBT1MfIw3BNV932xAU0hQ9T0_tnan4qcOK3rkc&amp;amp;dib_tag=se&amp;amp;keywords=Laptop&amp;amp;qid=1729423761&amp;amp;sr=8-7&amp;amp;ufe=app_do%3Aamzn1.fos.25548f35-0de7-44b3-b28e-0f56f3f96147</t>
+    <t>R$ 2.809,00</t>
+  </si>
+  <si>
+    <t>https://www.amazon.com.br/Notebook-Samsung-Galaxy-Book4-NP750XGJ-KG5BR/dp/B0D4NSS9XV/ref=sr_1_10?dib=eyJ2IjoiMSJ9.refE9-DRn6vlPET2KAjBPZZrEgNo7lD1Xb00c8KQ7_0z1Fg8rNwRPMIep0y5uZlQ2jJWhFnwXQM71sI3xW5e0-2NXDUXH89Je_t5wPFZHzSDQWUBrvyhGeRf6KIqKXbL5Uy995v5nr3IdK6EHnvvVwRSJ_ee7agsVsazUb3IAJUTSKkBOKiGoR5x24A1k7nXpFN21aoIUQUlNaxhqPZQJYlP89tMQWiDwJXTBI7Fv4T1_LRgXUk2GFdSm_6hDIMtMUZ670BqjMVlA1vPR4sdHiOO8iPiqRPmd_pEPCBVvBQ.-G1PCASQoMAwae7voCA4Y4LS6kAZmQak3fnP3aUaaE8&amp;amp;dib_tag=se&amp;amp;keywords=Laptop&amp;amp;qid=1729613927&amp;amp;sr=8-10&amp;amp;ufe=app_do%3Aamzn1.fos.a492fd4a-f54d-4e8d-8c31-35e0a04ce61e</t>
   </si>
   <si>
     <t>Notebook Positivo Vision C15 Lumina Bar Celeron 4GB 128GB eMMC, Windows 11 Home, Tela 15&amp;quot; HD Antirreflexo, Tecla Link - Cinza -2 ANOS DE GARANTIA</t>
   </si>
   <si>
-    <t>R$ 1.517,04</t>
-  </si>
-  <si>
-    <t>https://www.amazon.com.br/Notebook-Positivo-Celeron-polegadas-Antirreflexo/dp/B0CCJQ7B9R/ref=sr_1_12?dib=eyJ2IjoiMSJ9.x1EbliBYop4O86qQsgi0rkbJ0-8JiuJN-5QEHVNSTkUyipaG_0urDoa-om7YR7033gTOj7ddjfaVHBPZ2svyIaqsQSGM6SJeuRQV7FfJ-EN8XNSITvqWd9wHIfHxJM7I98W1hvb5qj6v_ercszgHGoZ90H18H0yo9EI6NQ7NZuAXP3tSjptmcFW1Gd3odfusoZtVVqTuyg2q8MTsQYJMhJ80zJIIOQ7M3i2hA0G0w81XyMj7EgDmPDz1w6VnkBg9lnex0gIXMJYtv5fgEwG-p6ty-TREQpJbbrNGyGZGFjQ.anyi0HBT1MfIw3BNV932xAU0hQ9T0_tnan4qcOK3rkc&amp;amp;dib_tag=se&amp;amp;keywords=Laptop&amp;amp;qid=1729423761&amp;amp;sr=8-12&amp;amp;ufe=app_do%3Aamzn1.fos.25548f35-0de7-44b3-b28e-0f56f3f96147</t>
+    <t>R$ 1.517,08</t>
+  </si>
+  <si>
+    <t>https://www.amazon.com.br/Notebook-Positivo-Celeron-polegadas-Antirreflexo/dp/B0CCJQ7B9R/ref=sr_1_11?dib=eyJ2IjoiMSJ9.refE9-DRn6vlPET2KAjBPZZrEgNo7lD1Xb00c8KQ7_0z1Fg8rNwRPMIep0y5uZlQ2jJWhFnwXQM71sI3xW5e0-2NXDUXH89Je_t5wPFZHzSDQWUBrvyhGeRf6KIqKXbL5Uy995v5nr3IdK6EHnvvVwRSJ_ee7agsVsazUb3IAJUTSKkBOKiGoR5x24A1k7nXpFN21aoIUQUlNaxhqPZQJYlP89tMQWiDwJXTBI7Fv4T1_LRgXUk2GFdSm_6hDIMtMUZ670BqjMVlA1vPR4sdHiOO8iPiqRPmd_pEPCBVvBQ.-G1PCASQoMAwae7voCA4Y4LS6kAZmQak3fnP3aUaaE8&amp;amp;dib_tag=se&amp;amp;keywords=Laptop&amp;amp;qid=1729613927&amp;amp;sr=8-11&amp;amp;ufe=app_do%3Aamzn1.fos.25548f35-0de7-44b3-b28e-0f56f3f96147</t>
   </si>
   <si>
     <t>Notebook Lenovo Ideapad 1i i5-1235U 8GB 512GB SSD 15.6&amp;quot; W11</t>
   </si>
   <si>
-    <t>R$ 2.847,50</t>
-  </si>
-  <si>
-    <t>https://www.amazon.com.br/Notebook-Lenovo-Ideapad-i5-1235U-512GB/dp/B0CK3R8JYG/ref=sr_1_13?dib=eyJ2IjoiMSJ9.x1EbliBYop4O86qQsgi0rkbJ0-8JiuJN-5QEHVNSTkUyipaG_0urDoa-om7YR7033gTOj7ddjfaVHBPZ2svyIaqsQSGM6SJeuRQV7FfJ-EN8XNSITvqWd9wHIfHxJM7I98W1hvb5qj6v_ercszgHGoZ90H18H0yo9EI6NQ7NZuAXP3tSjptmcFW1Gd3odfusoZtVVqTuyg2q8MTsQYJMhJ80zJIIOQ7M3i2hA0G0w81XyMj7EgDmPDz1w6VnkBg9lnex0gIXMJYtv5fgEwG-p6ty-TREQpJbbrNGyGZGFjQ.anyi0HBT1MfIw3BNV932xAU0hQ9T0_tnan4qcOK3rkc&amp;amp;dib_tag=se&amp;amp;keywords=Laptop&amp;amp;qid=1729423761&amp;amp;sr=8-13&amp;amp;ufe=app_do%3Aamzn1.fos.25548f35-0de7-44b3-b28e-0f56f3f96147</t>
-  </si>
-  <si>
-    <t>Galaxy Book2 Intel® Core™ i7-1255U, Windows 11 Home, 8GB, 256GB SSD, 15.6&amp;#x27;&amp;#x27; Full HD LED, 1.81kg*.</t>
-  </si>
-  <si>
-    <t>https://www.amazon.com.br/Notebook-Samsung-i7-1255U-Windows-Grafite/dp/B0C5JWYN85/ref=sr_1_15?dib=eyJ2IjoiMSJ9.x1EbliBYop4O86qQsgi0rkbJ0-8JiuJN-5QEHVNSTkUyipaG_0urDoa-om7YR7033gTOj7ddjfaVHBPZ2svyIaqsQSGM6SJeuRQV7FfJ-EN8XNSITvqWd9wHIfHxJM7I98W1hvb5qj6v_ercszgHGoZ90H18H0yo9EI6NQ7NZuAXP3tSjptmcFW1Gd3odfusoZtVVqTuyg2q8MTsQYJMhJ80zJIIOQ7M3i2hA0G0w81XyMj7EgDmPDz1w6VnkBg9lnex0gIXMJYtv5fgEwG-p6ty-TREQpJbbrNGyGZGFjQ.anyi0HBT1MfIw3BNV932xAU0hQ9T0_tnan4qcOK3rkc&amp;amp;dib_tag=se&amp;amp;keywords=Laptop&amp;amp;qid=1729423761&amp;amp;sr=8-15</t>
-  </si>
-  <si>
-    <t>Tablet Mirage 7 pol 64GB Android 13 4GB RAM Quad Core Wi-fi</t>
-  </si>
-  <si>
-    <t>R$ 358,90</t>
-  </si>
-  <si>
-    <t>https://www.amazon.com.br/sspa/click?ie=UTF8&amp;amp;spc=MTo1Mjc3NjY1MDQ1NjI0MTg6MTcyOTQyMzc2MTpzcF9idGY6MzAwMzE3MDczMzQ2ODAyOjowOjo&amp;amp;url=%2FTablet-Mirage-64GB-Android-Wi-fi%2Fdp%2FB0CM7LTCSS%2Fref%3Dsr_1_58_sspa%3Fdib%3DeyJ2IjoiMSJ9.x1EbliBYop4O86qQsgi0rkbJ0-8JiuJN-5QEHVNSTkUyipaG_0urDoa-om7YR7033gTOj7ddjfaVHBPZ2svyIaqsQSGM6SJeuRQV7FfJ-EN8XNSITvqWd9wHIfHxJM7I98W1hvb5qj6v_ercszgHGoZ90H18H0yo9EI6NQ7NZuAXP3tSjptmcFW1Gd3odfusoZtVVqTuyg2q8MTsQYJMhJ80zJIIOQ7M3i2hA0G0w81XyMj7EgDmPDz1w6VnkBg9lnex0gIXMJYtv5fgEwG-p6ty-TREQpJbbrNGyGZGFjQ.anyi0HBT1MfIw3BNV932xAU0hQ9T0_tnan4qcOK3rkc%26dib_tag%3Dse%26keywords%3DLaptop%26qid%3D1729423761%26sr%3D8-58-spons%26sp_csd%3Dd2lkZ2V0TmFtZT1zcF9idGY%26psc%3D1%26smid%3DA14GR036312K9K</t>
+    <t>R$ 2.804,15</t>
+  </si>
+  <si>
+    <t>https://www.amazon.com.br/Notebook-Lenovo-Ideapad-i5-1235U-512GB/dp/B0CK3R8JYG/ref=sr_1_14?dib=eyJ2IjoiMSJ9.refE9-DRn6vlPET2KAjBPZZrEgNo7lD1Xb00c8KQ7_0z1Fg8rNwRPMIep0y5uZlQ2jJWhFnwXQM71sI3xW5e0-2NXDUXH89Je_t5wPFZHzSDQWUBrvyhGeRf6KIqKXbL5Uy995v5nr3IdK6EHnvvVwRSJ_ee7agsVsazUb3IAJUTSKkBOKiGoR5x24A1k7nXpFN21aoIUQUlNaxhqPZQJYlP89tMQWiDwJXTBI7Fv4T1_LRgXUk2GFdSm_6hDIMtMUZ670BqjMVlA1vPR4sdHiOO8iPiqRPmd_pEPCBVvBQ.-G1PCASQoMAwae7voCA4Y4LS6kAZmQak3fnP3aUaaE8&amp;amp;dib_tag=se&amp;amp;keywords=Laptop&amp;amp;qid=1729613927&amp;amp;sr=8-14&amp;amp;ufe=app_do%3Aamzn1.fos.25548f35-0de7-44b3-b28e-0f56f3f96147</t>
+  </si>
+  <si>
+    <t>Notebook ASUS VivoBook Go 15, AMD RYZEN 5 7520U, 8GB, 256GB SSD, KeepOS, Tela 15,6&amp;quot; FHD, Mixed Black - E1504FA-NJ731</t>
+  </si>
+  <si>
+    <t>R$ 2.529,08</t>
+  </si>
+  <si>
+    <t>https://www.amazon.com.br/sspa/click?ie=UTF8&amp;amp;spc=MTo4MjIyMjg1NjEyMzU2MDI6MTcyOTYxMzkyNzpzcF9idGY6MzAwMTc3NzQ4Mzg5MjAyOjowOjo&amp;amp;url=%2FNotebook-ASUS-VivoBook-RYZEN-KeepOS%2Fdp%2FB0CYVVRSSZ%2Fref%3Dsr_1_60_sspa%3Fdib%3DeyJ2IjoiMSJ9.refE9-DRn6vlPET2KAjBPZZrEgNo7lD1Xb00c8KQ7_0z1Fg8rNwRPMIep0y5uZlQ2jJWhFnwXQM71sI3xW5e0-2NXDUXH89Je_t5wPFZHzSDQWUBrvyhGeRf6KIqKXbL5Uy995v5nr3IdK6EHnvvVwRSJ_ee7agsVsazUb3IAJUTSKkBOKiGoR5x24A1k7nXpFN21aoIUQUlNaxhqPZQJYlP89tMQWiDwJXTBI7Fv4T1_LRgXUk2GFdSm_6hDIMtMUZ670BqjMVlA1vPR4sdHiOO8iPiqRPmd_pEPCBVvBQ.-G1PCASQoMAwae7voCA4Y4LS6kAZmQak3fnP3aUaaE8%26dib_tag%3Dse%26keywords%3DLaptop%26qid%3D1729613927%26sr%3D8-60-spons%26ufe%3Dapp_do%253Aamzn1.fos.25548f35-0de7-44b3-b28e-0f56f3f96147%26sp_csd%3Dd2lkZ2V0TmFtZT1zcF9idGY%26psc%3D1</t>
+  </si>
+  <si>
+    <t>Notebook HP Intel Core i3-1215U 8GB 256GB SSD 15,6” - Windows 11</t>
+  </si>
+  <si>
+    <t>R$ 2.222,14</t>
+  </si>
+  <si>
+    <t>https://www.amazon.com.br/Notebook-HP-Intel-i3-1215U-256GB/dp/B0C6FQSWFC/ref=sr_1_7?dib=eyJ2IjoiMSJ9.refE9-DRn6vlPET2KAjBPZZrEgNo7lD1Xb00c8KQ7_0z1Fg8rNwRPMIep0y5uZlQ2jJWhFnwXQM71sI3xW5e0-2NXDUXH89Je_t5wPFZHzSDQWUBrvyhGeRf6KIqKXbL5Uy995v5nr3IdK6EHnvvVwRSJ_ee7agsVsazUb3IAJUTSKkBOKiGoR5x24A1k7nXpFN21aoIUQUlNaxhqPZQJYlP89tMQWiDwJXTBI7Fv4T1_LRgXUk2GFdSm_6hDIMtMUZ670BqjMVlA1vPR4sdHiOO8iPiqRPmd_pEPCBVvBQ.-G1PCASQoMAwae7voCA4Y4LS6kAZmQak3fnP3aUaaE8&amp;amp;dib_tag=se&amp;amp;keywords=Laptop&amp;amp;qid=1729613927&amp;amp;sr=8-7&amp;amp;ufe=app_do%3Aamzn1.fos.25548f35-0de7-44b3-b28e-0f56f3f96147</t>
+  </si>
+  <si>
+    <t>Notebook ASUS VivoBook Go 15, AMD RYZEN 5 7520U, 8GB, 512GB SSD, KeepOS, Tela 15,6&amp;quot; FHD, Mixed Black - E1504FA-NJ732</t>
+  </si>
+  <si>
+    <t>R$ 2.266,55</t>
+  </si>
+  <si>
+    <t>https://www.amazon.com.br/Notebook-ASUS-VivoBook-RYZEN-KeepOS/dp/B0CYW2N6TX/ref=sr_1_13?dib=eyJ2IjoiMSJ9.refE9-DRn6vlPET2KAjBPZZrEgNo7lD1Xb00c8KQ7_0z1Fg8rNwRPMIep0y5uZlQ2jJWhFnwXQM71sI3xW5e0-2NXDUXH89Je_t5wPFZHzSDQWUBrvyhGeRf6KIqKXbL5Uy995v5nr3IdK6EHnvvVwRSJ_ee7agsVsazUb3IAJUTSKkBOKiGoR5x24A1k7nXpFN21aoIUQUlNaxhqPZQJYlP89tMQWiDwJXTBI7Fv4T1_LRgXUk2GFdSm_6hDIMtMUZ670BqjMVlA1vPR4sdHiOO8iPiqRPmd_pEPCBVvBQ.-G1PCASQoMAwae7voCA4Y4LS6kAZmQak3fnP3aUaaE8&amp;amp;dib_tag=se&amp;amp;keywords=Laptop&amp;amp;qid=1729613927&amp;amp;sr=8-13&amp;amp;ufe=app_do%3Aamzn1.fos.25548f35-0de7-44b3-b28e-0f56f3f96147</t>
+  </si>
+  <si>
+    <t>Notebook Samsung Galaxy Book4 i5 8GB 256GB W11H NP750XGJ-KG4BR</t>
+  </si>
+  <si>
+    <t>R$ 2.989,01</t>
+  </si>
+  <si>
+    <t>https://www.amazon.com.br/Notebook-Samsung-Galaxy-Book4-NP750XGJ-KG4BR/dp/B0D4NPTDCD/ref=sr_1_15?dib=eyJ2IjoiMSJ9.refE9-DRn6vlPET2KAjBPZZrEgNo7lD1Xb00c8KQ7_0z1Fg8rNwRPMIep0y5uZlQ2jJWhFnwXQM71sI3xW5e0-2NXDUXH89Je_t5wPFZHzSDQWUBrvyhGeRf6KIqKXbL5Uy995v5nr3IdK6EHnvvVwRSJ_ee7agsVsazUb3IAJUTSKkBOKiGoR5x24A1k7nXpFN21aoIUQUlNaxhqPZQJYlP89tMQWiDwJXTBI7Fv4T1_LRgXUk2GFdSm_6hDIMtMUZ670BqjMVlA1vPR4sdHiOO8iPiqRPmd_pEPCBVvBQ.-G1PCASQoMAwae7voCA4Y4LS6kAZmQak3fnP3aUaaE8&amp;amp;dib_tag=se&amp;amp;keywords=Laptop&amp;amp;qid=1729613927&amp;amp;sr=8-15&amp;amp;ufe=app_do%3Aamzn1.fos.25548f35-0de7-44b3-b28e-0f56f3f96147</t>
   </si>
   <si>
     <t>Notebook Acer Aspire 5 A515-57-55B8 Intel Core i5 12º Geração 8GB RAM 256GB SSD (UHD) 15.6&amp;quot; LED Full HD TN 60hz Cinza aço Windows 11H</t>
   </si>
   <si>
-    <t>R$ 2.936,12</t>
-  </si>
-  <si>
-    <t>https://www.amazon.com.br/sspa/click?ie=UTF8&amp;amp;spc=MTo1Mjc3NjY1MDQ1NjI0MTg6MTcyOTQyMzc2MTpzcF9hdGY6MzAwNDU1NjUyNzI1NjAyOjowOjo&amp;amp;url=%2FNotebook-Aspire-A515-57-55B8-Gera%25C3%25A7%25C3%25A3o-Windows%2Fdp%2FB0CNQ77MX8%2Fref%3Dsr_1_4_sspa%3Fdib%3DeyJ2IjoiMSJ9.x1EbliBYop4O86qQsgi0rkbJ0-8JiuJN-5QEHVNSTkUyipaG_0urDoa-om7YR7033gTOj7ddjfaVHBPZ2svyIaqsQSGM6SJeuRQV7FfJ-EN8XNSITvqWd9wHIfHxJM7I98W1hvb5qj6v_ercszgHGoZ90H18H0yo9EI6NQ7NZuAXP3tSjptmcFW1Gd3odfusoZtVVqTuyg2q8MTsQYJMhJ80zJIIOQ7M3i2hA0G0w81XyMj7EgDmPDz1w6VnkBg9lnex0gIXMJYtv5fgEwG-p6ty-TREQpJbbrNGyGZGFjQ.anyi0HBT1MfIw3BNV932xAU0hQ9T0_tnan4qcOK3rkc%26dib_tag%3Dse%26keywords%3DLaptop%26qid%3D1729423761%26sr%3D8-4-spons%26ufe%3Dapp_do%253Aamzn1.fos.25548f35-0de7-44b3-b28e-0f56f3f96147%26sp_csd%3Dd2lkZ2V0TmFtZT1zcF9hdGY%26psc%3D1</t>
-  </si>
-  <si>
-    <t>Notebook HP Intel Core i3-1215U 8GB 256GB SSD 15,6” - Windows 11</t>
-  </si>
-  <si>
-    <t>R$ 2.222,14</t>
-  </si>
-  <si>
-    <t>https://www.amazon.com.br/Notebook-HP-Intel-i3-1215U-256GB/dp/B0C6FQSWFC/ref=sr_1_8?dib=eyJ2IjoiMSJ9.x1EbliBYop4O86qQsgi0rkbJ0-8JiuJN-5QEHVNSTkUyipaG_0urDoa-om7YR7033gTOj7ddjfaVHBPZ2svyIaqsQSGM6SJeuRQV7FfJ-EN8XNSITvqWd9wHIfHxJM7I98W1hvb5qj6v_ercszgHGoZ90H18H0yo9EI6NQ7NZuAXP3tSjptmcFW1Gd3odfusoZtVVqTuyg2q8MTsQYJMhJ80zJIIOQ7M3i2hA0G0w81XyMj7EgDmPDz1w6VnkBg9lnex0gIXMJYtv5fgEwG-p6ty-TREQpJbbrNGyGZGFjQ.anyi0HBT1MfIw3BNV932xAU0hQ9T0_tnan4qcOK3rkc&amp;amp;dib_tag=se&amp;amp;keywords=Laptop&amp;amp;qid=1729423761&amp;amp;sr=8-8&amp;amp;ufe=app_do%3Aamzn1.fos.25548f35-0de7-44b3-b28e-0f56f3f96147</t>
-  </si>
-  <si>
-    <t>Notebook ASUS VivoBook Go 15, AMD RYZEN 5 7520U, 8GB, 512GB SSD, KeepOS, Tela 15,6&amp;quot; FHD, Mixed Black - E1504FA-NJ732</t>
-  </si>
-  <si>
-    <t>R$ 2.266,56</t>
-  </si>
-  <si>
-    <t>https://www.amazon.com.br/Notebook-ASUS-VivoBook-RYZEN-KeepOS/dp/B0CYW2N6TX/ref=sr_1_9?dib=eyJ2IjoiMSJ9.x1EbliBYop4O86qQsgi0rkbJ0-8JiuJN-5QEHVNSTkUyipaG_0urDoa-om7YR7033gTOj7ddjfaVHBPZ2svyIaqsQSGM6SJeuRQV7FfJ-EN8XNSITvqWd9wHIfHxJM7I98W1hvb5qj6v_ercszgHGoZ90H18H0yo9EI6NQ7NZuAXP3tSjptmcFW1Gd3odfusoZtVVqTuyg2q8MTsQYJMhJ80zJIIOQ7M3i2hA0G0w81XyMj7EgDmPDz1w6VnkBg9lnex0gIXMJYtv5fgEwG-p6ty-TREQpJbbrNGyGZGFjQ.anyi0HBT1MfIw3BNV932xAU0hQ9T0_tnan4qcOK3rkc&amp;amp;dib_tag=se&amp;amp;keywords=Laptop&amp;amp;qid=1729423761&amp;amp;sr=8-9&amp;amp;ufe=app_do%3Aamzn1.fos.25548f35-0de7-44b3-b28e-0f56f3f96147</t>
-  </si>
-  <si>
-    <t>https://www.amazon.com.br/Notebook-Aspire-A515-57-55B8-Gera%C3%A7%C3%A3o-Windows/dp/B0CNQ77MX8/ref=sr_1_25?dib=eyJ2IjoiMSJ9.x1EbliBYop4O86qQsgi0rkbJ0-8JiuJN-5QEHVNSTkUyipaG_0urDoa-om7YR7033gTOj7ddjfaVHBPZ2svyIaqsQSGM6SJeuRQV7FfJ-EN8XNSITvqWd9wHIfHxJM7I98W1hvb5qj6v_ercszgHGoZ90H18H0yo9EI6NQ7NZuAXP3tSjptmcFW1Gd3odfusoZtVVqTuyg2q8MTsQYJMhJ80zJIIOQ7M3i2hA0G0w81XyMj7EgDmPDz1w6VnkBg9lnex0gIXMJYtv5fgEwG-p6ty-TREQpJbbrNGyGZGFjQ.anyi0HBT1MfIw3BNV932xAU0hQ9T0_tnan4qcOK3rkc&amp;amp;dib_tag=se&amp;amp;keywords=Laptop&amp;amp;qid=1729423761&amp;amp;sr=8-25&amp;amp;ufe=app_do%3Aamzn1.fos.25548f35-0de7-44b3-b28e-0f56f3f96147</t>
+    <t>R$ 3.050,00</t>
+  </si>
+  <si>
+    <t>https://www.amazon.com.br/Notebook-Aspire-A515-57-55B8-Gera%C3%A7%C3%A3o-Windows/dp/B0CNQ77MX8/ref=sr_1_17?dib=eyJ2IjoiMSJ9.refE9-DRn6vlPET2KAjBPZZrEgNo7lD1Xb00c8KQ7_0z1Fg8rNwRPMIep0y5uZlQ2jJWhFnwXQM71sI3xW5e0-2NXDUXH89Je_t5wPFZHzSDQWUBrvyhGeRf6KIqKXbL5Uy995v5nr3IdK6EHnvvVwRSJ_ee7agsVsazUb3IAJUTSKkBOKiGoR5x24A1k7nXpFN21aoIUQUlNaxhqPZQJYlP89tMQWiDwJXTBI7Fv4T1_LRgXUk2GFdSm_6hDIMtMUZ670BqjMVlA1vPR4sdHiOO8iPiqRPmd_pEPCBVvBQ.-G1PCASQoMAwae7voCA4Y4LS6kAZmQak3fnP3aUaaE8&amp;amp;dib_tag=se&amp;amp;keywords=Laptop&amp;amp;qid=1729613927&amp;amp;sr=8-17&amp;amp;ufe=app_do%3Aamzn1.fos.25548f35-0de7-44b3-b28e-0f56f3f96147</t>
   </si>
   <si>
     <t>Monitor AOC 21.5&amp;quot; VGA e HDMI e painel VA, preta, pequeno, 22B1HM5</t>
   </si>
   <si>
-    <t>R$ 529,00</t>
-  </si>
-  <si>
-    <t>https://www.amazon.com.br/Monitor-AOC-painel-pequeno-22B1HM5/dp/B09FFYR1GB/ref=sr_1_6?dib=eyJ2IjoiMSJ9.fdrqsCPcm44eLE5UEEB1JNgUMS3sZyqwhVqtoAPYNFhlloj9WmI9UbLVmK1BOlJy5MyGFxYvwRc5VGgjqSA9v9_sIgHJNfJTxlvvguxXZ7mglNa3xbvPhu8TeEeYLRNfdNc_p_pBrp5kl93lxy7J1FGZ9GvwLpkAhFgWqO2hYlmgbg0ovO1al-XWNItC8JYhtg0xr34H9SIuUp1wI-3AlZMPy626JzKsW-LpAahKgVHM8N4jpHnJSH_9t9DYdtAYSXKlrG3rqLnqbRUKZN4afRMAvPic7e630YI3rG9uN8g.AnFtMwD3YcY1oio-quYBVwYvESDkAkFvHoaDVxDrpKw&amp;amp;dib_tag=se&amp;amp;keywords=Monitor&amp;amp;qid=1729423762&amp;amp;sr=8-6&amp;amp;ufe=app_do%3Aamzn1.fos.25548f35-0de7-44b3-b28e-0f56f3f96147</t>
+    <t>R$ 759,90</t>
+  </si>
+  <si>
+    <t>https://www.amazon.com.br/Monitor-AOC-painel-pequeno-22B1HM5/dp/B09FFYR1GB/ref=sr_1_9?dib=eyJ2IjoiMSJ9.R698vkRQnjdBRc8JyxPyPp-kID2sV_wIa6vRyrl6Q1d8sQpVYVc2wS7vBQnHTZIGgb15pzQiL3wxy3_IRmdt-HhuzCs59u7pb_DjCjG70uW-UTF7SurFHP08zpJhduokdNc_p_pBrp5kl93lxy7J1MrGHsR7MWrI25tdKnm4fb-gbg0ovO1al-XWNItC8JYhrzs-wHUNXg4-sdaVVBEN97fX3w9_qdkEkE8CvgSSj2nM8N4jpHnJSH_9t9DYdtAYSXKlrG3rqLnqbRUKZN4afWD7JbeAxQJknDw0W2QWvx0.7kIg7BRQEAUYPYWO_vmcC1PocY6SSagpgk_PuVjWpKk&amp;amp;dib_tag=se&amp;amp;keywords=Monitor&amp;amp;qid=1729613928&amp;amp;sr=8-9&amp;amp;ufe=app_do%3Aamzn1.fos.a492fd4a-f54d-4e8d-8c31-35e0a04ce61e</t>
+  </si>
+  <si>
+    <t>Monitor Gamer LG 25.7&amp;quot; UltraWide Full HD 75Hz 1ms Preto 26WQ500-B.AWZM</t>
+  </si>
+  <si>
+    <t>R$ 701,10</t>
+  </si>
+  <si>
+    <t>https://www.amazon.com.br/MONITOR-LG-ULTRAWIDE-FULL-26WQ500-B-AWZM/dp/B0BLZFR2H8/ref=sr_1_11?dib=eyJ2IjoiMSJ9.R698vkRQnjdBRc8JyxPyPp-kID2sV_wIa6vRyrl6Q1d8sQpVYVc2wS7vBQnHTZIGgb15pzQiL3wxy3_IRmdt-HhuzCs59u7pb_DjCjG70uW-UTF7SurFHP08zpJhduokdNc_p_pBrp5kl93lxy7J1MrGHsR7MWrI25tdKnm4fb-gbg0ovO1al-XWNItC8JYhrzs-wHUNXg4-sdaVVBEN97fX3w9_qdkEkE8CvgSSj2nM8N4jpHnJSH_9t9DYdtAYSXKlrG3rqLnqbRUKZN4afWD7JbeAxQJknDw0W2QWvx0.7kIg7BRQEAUYPYWO_vmcC1PocY6SSagpgk_PuVjWpKk&amp;amp;dib_tag=se&amp;amp;keywords=Monitor&amp;amp;qid=1729613928&amp;amp;sr=8-11&amp;amp;ufe=app_do%3Aamzn1.fos.25548f35-0de7-44b3-b28e-0f56f3f96147</t>
   </si>
   <si>
     <t>Monitor AOC 23,8&amp;quot;</t>
@@ -827,25 +851,13 @@
     <t>R$ 566,10</t>
   </si>
   <si>
-    <t>https://www.amazon.com.br/AOC-24B1XHM-Monitor-23-8/dp/B09BG7RLLR/ref=sr_1_10?dib=eyJ2IjoiMSJ9.fdrqsCPcm44eLE5UEEB1JNgUMS3sZyqwhVqtoAPYNFhlloj9WmI9UbLVmK1BOlJy5MyGFxYvwRc5VGgjqSA9v9_sIgHJNfJTxlvvguxXZ7mglNa3xbvPhu8TeEeYLRNfdNc_p_pBrp5kl93lxy7J1FGZ9GvwLpkAhFgWqO2hYlmgbg0ovO1al-XWNItC8JYhtg0xr34H9SIuUp1wI-3AlZMPy626JzKsW-LpAahKgVHM8N4jpHnJSH_9t9DYdtAYSXKlrG3rqLnqbRUKZN4afRMAvPic7e630YI3rG9uN8g.AnFtMwD3YcY1oio-quYBVwYvESDkAkFvHoaDVxDrpKw&amp;amp;dib_tag=se&amp;amp;keywords=Monitor&amp;amp;qid=1729423762&amp;amp;sr=8-10&amp;amp;ufe=app_do%3Aamzn1.fos.25548f35-0de7-44b3-b28e-0f56f3f96147</t>
-  </si>
-  <si>
-    <t>Monitor Gamer LG 25.7&amp;quot; UltraWide Full HD 75Hz 1ms Preto 26WQ500-B.AWZM</t>
-  </si>
-  <si>
-    <t>R$ 752,06</t>
-  </si>
-  <si>
-    <t>https://www.amazon.com.br/MONITOR-LG-ULTRAWIDE-FULL-26WQ500-B-AWZM/dp/B0BLZFR2H8/ref=sr_1_12?dib=eyJ2IjoiMSJ9.fdrqsCPcm44eLE5UEEB1JNgUMS3sZyqwhVqtoAPYNFhlloj9WmI9UbLVmK1BOlJy5MyGFxYvwRc5VGgjqSA9v9_sIgHJNfJTxlvvguxXZ7mglNa3xbvPhu8TeEeYLRNfdNc_p_pBrp5kl93lxy7J1FGZ9GvwLpkAhFgWqO2hYlmgbg0ovO1al-XWNItC8JYhtg0xr34H9SIuUp1wI-3AlZMPy626JzKsW-LpAahKgVHM8N4jpHnJSH_9t9DYdtAYSXKlrG3rqLnqbRUKZN4afRMAvPic7e630YI3rG9uN8g.AnFtMwD3YcY1oio-quYBVwYvESDkAkFvHoaDVxDrpKw&amp;amp;dib_tag=se&amp;amp;keywords=Monitor&amp;amp;qid=1729423762&amp;amp;sr=8-12&amp;amp;ufe=app_do%3Aamzn1.fos.25548f35-0de7-44b3-b28e-0f56f3f96147</t>
+    <t>https://www.amazon.com.br/AOC-24B1XHM-Monitor-23-8/dp/B09BG7RLLR/ref=sr_1_12?dib=eyJ2IjoiMSJ9.R698vkRQnjdBRc8JyxPyPp-kID2sV_wIa6vRyrl6Q1d8sQpVYVc2wS7vBQnHTZIGgb15pzQiL3wxy3_IRmdt-HhuzCs59u7pb_DjCjG70uW-UTF7SurFHP08zpJhduokdNc_p_pBrp5kl93lxy7J1MrGHsR7MWrI25tdKnm4fb-gbg0ovO1al-XWNItC8JYhrzs-wHUNXg4-sdaVVBEN97fX3w9_qdkEkE8CvgSSj2nM8N4jpHnJSH_9t9DYdtAYSXKlrG3rqLnqbRUKZN4afWD7JbeAxQJknDw0W2QWvx0.7kIg7BRQEAUYPYWO_vmcC1PocY6SSagpgk_PuVjWpKk&amp;amp;dib_tag=se&amp;amp;keywords=Monitor&amp;amp;qid=1729613928&amp;amp;sr=8-12&amp;amp;ufe=app_do%3Aamzn1.fos.25548f35-0de7-44b3-b28e-0f56f3f96147</t>
   </si>
   <si>
     <t>Monitor LG 27” IPS, Full HD, 100Hz, HDMI, Ajuste de Inclinação - 27MS500-B</t>
   </si>
   <si>
-    <t>R$ 759,90</t>
-  </si>
-  <si>
-    <t>https://www.amazon.com.br/Monitor-LG-100Hz-Ajuste-Inclina%C3%A7%C3%A3o/dp/B0D8DBW4NW/ref=sr_1_14?dib=eyJ2IjoiMSJ9.fdrqsCPcm44eLE5UEEB1JNgUMS3sZyqwhVqtoAPYNFhlloj9WmI9UbLVmK1BOlJy5MyGFxYvwRc5VGgjqSA9v9_sIgHJNfJTxlvvguxXZ7mglNa3xbvPhu8TeEeYLRNfdNc_p_pBrp5kl93lxy7J1FGZ9GvwLpkAhFgWqO2hYlmgbg0ovO1al-XWNItC8JYhtg0xr34H9SIuUp1wI-3AlZMPy626JzKsW-LpAahKgVHM8N4jpHnJSH_9t9DYdtAYSXKlrG3rqLnqbRUKZN4afRMAvPic7e630YI3rG9uN8g.AnFtMwD3YcY1oio-quYBVwYvESDkAkFvHoaDVxDrpKw&amp;amp;dib_tag=se&amp;amp;keywords=Monitor&amp;amp;qid=1729423762&amp;amp;sr=8-14&amp;amp;ufe=app_do%3Aamzn1.fos.25548f35-0de7-44b3-b28e-0f56f3f96147</t>
+    <t>https://www.amazon.com.br/Monitor-LG-100Hz-Ajuste-Inclina%C3%A7%C3%A3o/dp/B0D8DBW4NW/ref=sr_1_14?dib=eyJ2IjoiMSJ9.R698vkRQnjdBRc8JyxPyPp-kID2sV_wIa6vRyrl6Q1d8sQpVYVc2wS7vBQnHTZIGgb15pzQiL3wxy3_IRmdt-HhuzCs59u7pb_DjCjG70uW-UTF7SurFHP08zpJhduokdNc_p_pBrp5kl93lxy7J1MrGHsR7MWrI25tdKnm4fb-gbg0ovO1al-XWNItC8JYhrzs-wHUNXg4-sdaVVBEN97fX3w9_qdkEkE8CvgSSj2nM8N4jpHnJSH_9t9DYdtAYSXKlrG3rqLnqbRUKZN4afWD7JbeAxQJknDw0W2QWvx0.7kIg7BRQEAUYPYWO_vmcC1PocY6SSagpgk_PuVjWpKk&amp;amp;dib_tag=se&amp;amp;keywords=Monitor&amp;amp;qid=1729613928&amp;amp;sr=8-14&amp;amp;ufe=app_do%3Aamzn1.fos.25548f35-0de7-44b3-b28e-0f56f3f96147</t>
   </si>
   <si>
     <t>Samsung T350 - Monitor Gamer 27&amp;quot; FHD,75Hz, HDMI, VGA, Freesync, Preto</t>
@@ -854,28 +866,25 @@
     <t>R$ 758,00</t>
   </si>
   <si>
-    <t>https://www.amazon.com.br/Monitor-Gamer-Samsung-Freesync-Preto/dp/B098ZN8NTX/ref=sr_1_18?dib=eyJ2IjoiMSJ9.fdrqsCPcm44eLE5UEEB1JNgUMS3sZyqwhVqtoAPYNFhlloj9WmI9UbLVmK1BOlJy5MyGFxYvwRc5VGgjqSA9v9_sIgHJNfJTxlvvguxXZ7mglNa3xbvPhu8TeEeYLRNfdNc_p_pBrp5kl93lxy7J1FGZ9GvwLpkAhFgWqO2hYlmgbg0ovO1al-XWNItC8JYhtg0xr34H9SIuUp1wI-3AlZMPy626JzKsW-LpAahKgVHM8N4jpHnJSH_9t9DYdtAYSXKlrG3rqLnqbRUKZN4afRMAvPic7e630YI3rG9uN8g.AnFtMwD3YcY1oio-quYBVwYvESDkAkFvHoaDVxDrpKw&amp;amp;dib_tag=se&amp;amp;keywords=Monitor&amp;amp;qid=1729423762&amp;amp;sr=8-18&amp;amp;ufe=app_do%3Aamzn1.fos.25548f35-0de7-44b3-b28e-0f56f3f96147</t>
+    <t>https://www.amazon.com.br/Monitor-Gamer-Samsung-Freesync-Preto/dp/B098ZN8NTX/ref=sr_1_19?dib=eyJ2IjoiMSJ9.R698vkRQnjdBRc8JyxPyPp-kID2sV_wIa6vRyrl6Q1d8sQpVYVc2wS7vBQnHTZIGgb15pzQiL3wxy3_IRmdt-HhuzCs59u7pb_DjCjG70uW-UTF7SurFHP08zpJhduokdNc_p_pBrp5kl93lxy7J1MrGHsR7MWrI25tdKnm4fb-gbg0ovO1al-XWNItC8JYhrzs-wHUNXg4-sdaVVBEN97fX3w9_qdkEkE8CvgSSj2nM8N4jpHnJSH_9t9DYdtAYSXKlrG3rqLnqbRUKZN4afWD7JbeAxQJknDw0W2QWvx0.7kIg7BRQEAUYPYWO_vmcC1PocY6SSagpgk_PuVjWpKk&amp;amp;dib_tag=se&amp;amp;keywords=Monitor&amp;amp;qid=1729613928&amp;amp;sr=8-19&amp;amp;ufe=app_do%3Aamzn1.fos.25548f35-0de7-44b3-b28e-0f56f3f96147</t>
   </si>
   <si>
     <t>MONITOR GAMER SAMSUNG ODYSSEY G30 24&amp;quot; 144Hz 1ms AMD FreeSync Premium</t>
   </si>
   <si>
-    <t>R$ 850,00</t>
-  </si>
-  <si>
-    <t>https://www.amazon.com.br/MONITOR-SAMSUNG-ODYSSEY-G30-24/dp/B0BTJ86YFZ/ref=sr_1_26?dib=eyJ2IjoiMSJ9.fdrqsCPcm44eLE5UEEB1JNgUMS3sZyqwhVqtoAPYNFhlloj9WmI9UbLVmK1BOlJy5MyGFxYvwRc5VGgjqSA9v9_sIgHJNfJTxlvvguxXZ7mglNa3xbvPhu8TeEeYLRNfdNc_p_pBrp5kl93lxy7J1FGZ9GvwLpkAhFgWqO2hYlmgbg0ovO1al-XWNItC8JYhtg0xr34H9SIuUp1wI-3AlZMPy626JzKsW-LpAahKgVHM8N4jpHnJSH_9t9DYdtAYSXKlrG3rqLnqbRUKZN4afRMAvPic7e630YI3rG9uN8g.AnFtMwD3YcY1oio-quYBVwYvESDkAkFvHoaDVxDrpKw&amp;amp;dib_tag=se&amp;amp;keywords=Monitor&amp;amp;qid=1729423762&amp;amp;sr=8-26&amp;amp;ufe=app_do%3Aamzn1.fos.a492fd4a-f54d-4e8d-8c31-35e0a04ce61e</t>
+    <t>R$ 856,90</t>
+  </si>
+  <si>
+    <t>https://www.amazon.com.br/MONITOR-SAMSUNG-ODYSSEY-G30-24/dp/B0BTJ86YFZ/ref=sr_1_26?dib=eyJ2IjoiMSJ9.R698vkRQnjdBRc8JyxPyPp-kID2sV_wIa6vRyrl6Q1d8sQpVYVc2wS7vBQnHTZIGgb15pzQiL3wxy3_IRmdt-HhuzCs59u7pb_DjCjG70uW-UTF7SurFHP08zpJhduokdNc_p_pBrp5kl93lxy7J1MrGHsR7MWrI25tdKnm4fb-gbg0ovO1al-XWNItC8JYhrzs-wHUNXg4-sdaVVBEN97fX3w9_qdkEkE8CvgSSj2nM8N4jpHnJSH_9t9DYdtAYSXKlrG3rqLnqbRUKZN4afWD7JbeAxQJknDw0W2QWvx0.7kIg7BRQEAUYPYWO_vmcC1PocY6SSagpgk_PuVjWpKk&amp;amp;dib_tag=se&amp;amp;keywords=Monitor&amp;amp;qid=1729613928&amp;amp;sr=8-26&amp;amp;ufe=app_do%3Aamzn1.fos.25548f35-0de7-44b3-b28e-0f56f3f96147</t>
   </si>
   <si>
     <t>Monitor LG 29&amp;quot; UltraWide Full HD Inclinação 75Hz 5ms Branco 29WK600-WAWZ</t>
   </si>
   <si>
-    <t>R$ 1.373,17</t>
-  </si>
-  <si>
-    <t>https://www.amazon.com.br/Monitor-para-Full-UltraWide-LG/dp/B07HJFN4L6/ref=sr_1_30?dib=eyJ2IjoiMSJ9.fdrqsCPcm44eLE5UEEB1JNgUMS3sZyqwhVqtoAPYNFhlloj9WmI9UbLVmK1BOlJy5MyGFxYvwRc5VGgjqSA9v9_sIgHJNfJTxlvvguxXZ7mglNa3xbvPhu8TeEeYLRNfdNc_p_pBrp5kl93lxy7J1FGZ9GvwLpkAhFgWqO2hYlmgbg0ovO1al-XWNItC8JYhtg0xr34H9SIuUp1wI-3AlZMPy626JzKsW-LpAahKgVHM8N4jpHnJSH_9t9DYdtAYSXKlrG3rqLnqbRUKZN4afRMAvPic7e630YI3rG9uN8g.AnFtMwD3YcY1oio-quYBVwYvESDkAkFvHoaDVxDrpKw&amp;amp;dib_tag=se&amp;amp;keywords=Monitor&amp;amp;qid=1729423762&amp;amp;sr=8-30&amp;amp;ufe=app_do%3Aamzn1.fos.25548f35-0de7-44b3-b28e-0f56f3f96147</t>
-  </si>
-  <si>
-    <t>https://www.amazon.com.br/sspa/click?ie=UTF8&amp;amp;spc=MTo3Njk5Mjg1NDY2MTYyNTg3OjE3Mjk0MjM3NjI6c3BfYnRmOjMwMDQ2NTM4NDU5OTEwMjo6MDo6&amp;amp;url=%2FMonitor-Gamer-Samsung-Freesync-Preto%2Fdp%2FB098ZN8NTX%2Fref%3Dsr_1_58_sspa%3Fdib%3DeyJ2IjoiMSJ9.fdrqsCPcm44eLE5UEEB1JNgUMS3sZyqwhVqtoAPYNFhlloj9WmI9UbLVmK1BOlJy5MyGFxYvwRc5VGgjqSA9v9_sIgHJNfJTxlvvguxXZ7mglNa3xbvPhu8TeEeYLRNfdNc_p_pBrp5kl93lxy7J1FGZ9GvwLpkAhFgWqO2hYlmgbg0ovO1al-XWNItC8JYhtg0xr34H9SIuUp1wI-3AlZMPy626JzKsW-LpAahKgVHM8N4jpHnJSH_9t9DYdtAYSXKlrG3rqLnqbRUKZN4afRMAvPic7e630YI3rG9uN8g.AnFtMwD3YcY1oio-quYBVwYvESDkAkFvHoaDVxDrpKw%26dib_tag%3Dse%26keywords%3DMonitor%26qid%3D1729423762%26sr%3D8-58-spons%26ufe%3Dapp_do%253Aamzn1.fos.25548f35-0de7-44b3-b28e-0f56f3f96147%26sp_csd%3Dd2lkZ2V0TmFtZT1zcF9idGY%26psc%3D1</t>
+    <t>R$ 1.372,00</t>
+  </si>
+  <si>
+    <t>https://www.amazon.com.br/Monitor-para-Full-UltraWide-LG/dp/B07HJFN4L6/ref=sr_1_32?dib=eyJ2IjoiMSJ9.R698vkRQnjdBRc8JyxPyPp-kID2sV_wIa6vRyrl6Q1d8sQpVYVc2wS7vBQnHTZIGgb15pzQiL3wxy3_IRmdt-HhuzCs59u7pb_DjCjG70uW-UTF7SurFHP08zpJhduokdNc_p_pBrp5kl93lxy7J1MrGHsR7MWrI25tdKnm4fb-gbg0ovO1al-XWNItC8JYhrzs-wHUNXg4-sdaVVBEN97fX3w9_qdkEkE8CvgSSj2nM8N4jpHnJSH_9t9DYdtAYSXKlrG3rqLnqbRUKZN4afWD7JbeAxQJknDw0W2QWvx0.7kIg7BRQEAUYPYWO_vmcC1PocY6SSagpgk_PuVjWpKk&amp;amp;dib_tag=se&amp;amp;keywords=Monitor&amp;amp;qid=1729613928&amp;amp;sr=8-32&amp;amp;ufe=app_do%3Aamzn1.fos.a492fd4a-f54d-4e8d-8c31-35e0a04ce61e</t>
   </si>
   <si>
     <t>Monitor Gamer AOC Hero 27&amp;quot; 165Hz 1ms Ajuste de Altura 27G2S/BK</t>
@@ -884,28 +893,37 @@
     <t>R$ 899,00</t>
   </si>
   <si>
-    <t>https://www.amazon.com.br/Monitor-AOC-Ajuste-27G2S-BK/dp/B0CT3LT786/ref=sr_1_11?dib=eyJ2IjoiMSJ9.fdrqsCPcm44eLE5UEEB1JNgUMS3sZyqwhVqtoAPYNFhlloj9WmI9UbLVmK1BOlJy5MyGFxYvwRc5VGgjqSA9v9_sIgHJNfJTxlvvguxXZ7mglNa3xbvPhu8TeEeYLRNfdNc_p_pBrp5kl93lxy7J1FGZ9GvwLpkAhFgWqO2hYlmgbg0ovO1al-XWNItC8JYhtg0xr34H9SIuUp1wI-3AlZMPy626JzKsW-LpAahKgVHM8N4jpHnJSH_9t9DYdtAYSXKlrG3rqLnqbRUKZN4afRMAvPic7e630YI3rG9uN8g.AnFtMwD3YcY1oio-quYBVwYvESDkAkFvHoaDVxDrpKw&amp;amp;dib_tag=se&amp;amp;keywords=Monitor&amp;amp;qid=1729423762&amp;amp;sr=8-11&amp;amp;ufe=app_do%3Aamzn1.fos.25548f35-0de7-44b3-b28e-0f56f3f96147</t>
+    <t>https://www.amazon.com.br/Monitor-AOC-Ajuste-27G2S-BK/dp/B0CT3LT786/ref=sr_1_15?dib=eyJ2IjoiMSJ9.R698vkRQnjdBRc8JyxPyPp-kID2sV_wIa6vRyrl6Q1d8sQpVYVc2wS7vBQnHTZIGgb15pzQiL3wxy3_IRmdt-HhuzCs59u7pb_DjCjG70uW-UTF7SurFHP08zpJhduokdNc_p_pBrp5kl93lxy7J1MrGHsR7MWrI25tdKnm4fb-gbg0ovO1al-XWNItC8JYhrzs-wHUNXg4-sdaVVBEN97fX3w9_qdkEkE8CvgSSj2nM8N4jpHnJSH_9t9DYdtAYSXKlrG3rqLnqbRUKZN4afWD7JbeAxQJknDw0W2QWvx0.7kIg7BRQEAUYPYWO_vmcC1PocY6SSagpgk_PuVjWpKk&amp;amp;dib_tag=se&amp;amp;keywords=Monitor&amp;amp;qid=1729613928&amp;amp;sr=8-15&amp;amp;ufe=app_do%3Aamzn1.fos.25548f35-0de7-44b3-b28e-0f56f3f96147</t>
   </si>
   <si>
     <t>Monitor LG 23.8&amp;quot; Full HD Inclinação 75Hz 5ms Preto 24MP400-B.AWZM</t>
   </si>
   <si>
-    <t>R$ 639,01</t>
-  </si>
-  <si>
-    <t>https://www.amazon.com.br/Monitor-LG-Widescreen-24MP400-23-8-Preto/dp/B09HYTW34G/ref=sr_1_20?dib=eyJ2IjoiMSJ9.fdrqsCPcm44eLE5UEEB1JNgUMS3sZyqwhVqtoAPYNFhlloj9WmI9UbLVmK1BOlJy5MyGFxYvwRc5VGgjqSA9v9_sIgHJNfJTxlvvguxXZ7mglNa3xbvPhu8TeEeYLRNfdNc_p_pBrp5kl93lxy7J1FGZ9GvwLpkAhFgWqO2hYlmgbg0ovO1al-XWNItC8JYhtg0xr34H9SIuUp1wI-3AlZMPy626JzKsW-LpAahKgVHM8N4jpHnJSH_9t9DYdtAYSXKlrG3rqLnqbRUKZN4afRMAvPic7e630YI3rG9uN8g.AnFtMwD3YcY1oio-quYBVwYvESDkAkFvHoaDVxDrpKw&amp;amp;dib_tag=se&amp;amp;keywords=Monitor&amp;amp;qid=1729423762&amp;amp;sr=8-20&amp;amp;ufe=app_do%3Aamzn1.fos.25548f35-0de7-44b3-b28e-0f56f3f96147</t>
+    <t>R$ 639,90</t>
+  </si>
+  <si>
+    <t>https://www.amazon.com.br/Monitor-LG-Widescreen-24MP400-23-8-Preto/dp/B09HYTW34G/ref=sr_1_18?dib=eyJ2IjoiMSJ9.R698vkRQnjdBRc8JyxPyPp-kID2sV_wIa6vRyrl6Q1d8sQpVYVc2wS7vBQnHTZIGgb15pzQiL3wxy3_IRmdt-HhuzCs59u7pb_DjCjG70uW-UTF7SurFHP08zpJhduokdNc_p_pBrp5kl93lxy7J1MrGHsR7MWrI25tdKnm4fb-gbg0ovO1al-XWNItC8JYhrzs-wHUNXg4-sdaVVBEN97fX3w9_qdkEkE8CvgSSj2nM8N4jpHnJSH_9t9DYdtAYSXKlrG3rqLnqbRUKZN4afWD7JbeAxQJknDw0W2QWvx0.7kIg7BRQEAUYPYWO_vmcC1PocY6SSagpgk_PuVjWpKk&amp;amp;dib_tag=se&amp;amp;keywords=Monitor&amp;amp;qid=1729613928&amp;amp;sr=8-18&amp;amp;ufe=app_do%3Aamzn1.fos.25548f35-0de7-44b3-b28e-0f56f3f96147</t>
+  </si>
+  <si>
+    <t>Monitor Gamer AOC LEGEND 27 240Hz 0,5ms, Preta/Vermelho, MEDIO, C27G2ZE</t>
+  </si>
+  <si>
+    <t>R$ 1.403,10</t>
+  </si>
+  <si>
+    <t>https://www.amazon.com.br/sspa/click?ie=UTF8&amp;amp;spc=MTo0MTY4NjY4NDIyNjA4NjMzOjE3Mjk2MTM5Mjg6c3BfbXRmOjMwMDE2NTI4NjMzNjQwMjo6MDo6&amp;amp;url=%2FMonitor-AOC-LEGEND-Vermelho-C27G2ZE%2Fdp%2FB09FFWRDTP%2Fref%3Dsr_1_21_sspa%3Fdib%3DeyJ2IjoiMSJ9.R698vkRQnjdBRc8JyxPyPp-kID2sV_wIa6vRyrl6Q1d8sQpVYVc2wS7vBQnHTZIGgb15pzQiL3wxy3_IRmdt-HhuzCs59u7pb_DjCjG70uW-UTF7SurFHP08zpJhduokdNc_p_pBrp5kl93lxy7J1MrGHsR7MWrI25tdKnm4fb-gbg0ovO1al-XWNItC8JYhrzs-wHUNXg4-sdaVVBEN97fX3w9_qdkEkE8CvgSSj2nM8N4jpHnJSH_9t9DYdtAYSXKlrG3rqLnqbRUKZN4afWD7JbeAxQJknDw0W2QWvx0.7kIg7BRQEAUYPYWO_vmcC1PocY6SSagpgk_PuVjWpKk%26dib_tag%3Dse%26keywords%3DMonitor%26qid%3D1729613928%26sr%3D8-21-spons%26ufe%3Dapp_do%253Aamzn1.fos.25548f35-0de7-44b3-b28e-0f56f3f96147%26sp_csd%3Dd2lkZ2V0TmFtZT1zcF9tdGY%26psc%3D1</t>
   </si>
   <si>
     <t>Nintendo, Console, Nintendo Switch OLED, Nacional, Portátil e Doméstico, Tela de 7 Polegadas, Bateria de até 9 Horas, 64GB de Armazenamento, Porta LAN Integrada, Áudio Aprimorado, Inclui Joy-Con com Suporte e Alças, Branco</t>
   </si>
   <si>
-    <t>R$ 2.089,05</t>
+    <t>R$ 2.084,90</t>
   </si>
   <si>
     <t>Mais de 800 compras no mês passado</t>
   </si>
   <si>
-    <t>https://www.amazon.com.br/Nintendo-Interruptor-polegadas-armazenamento-Bluetooth/dp/B09KMW2N9Z/ref=sr_1_8?dib=eyJ2IjoiMSJ9.o1Qx6IUvthLPeadaFYmLMmmf4fePBnFLPfgUbaixV1NafNMl3EJq188QrRaSWJOdz0I7ENxUF7lHRJtO-cT1SNPZNsTb6H_EWqU7xcOY1AJH1APqQ61hb0ceYeLp4RSelhTLmTdOoZoMT3Q9AZtePCVjEaqie0ilNEosPMoRAO4_aLi41YIZlQSsHeiy5BDDyYxy1O6HJNHdsRgfP8t3GhsY0atpHquU70LxeoMFdA3M7gb-oNWuEmDwpwaqE__YC8XEkO7O0cFh8oGAAKkM7eTJTtBFAedl-s41_9ggh9s.C7GJGpvc3aha_n84i5B7QC24nfvmQVCmGlT0V7S4d-E&amp;amp;dib_tag=se&amp;amp;keywords=Consoles&amp;amp;qid=1729423764&amp;amp;sr=8-8&amp;amp;ufe=app_do%3Aamzn1.fos.25548f35-0de7-44b3-b28e-0f56f3f96147</t>
+    <t>https://www.amazon.com.br/Nintendo-Interruptor-polegadas-armazenamento-Bluetooth/dp/B09KMW2N9Z/ref=sr_1_6?dib=eyJ2IjoiMSJ9.ZloPV2acXrRZ3UpdRe0jzALIz-onJL7H4QBXFs0HC9UqoiJB5-hdcvaeF7UvPI2IkeQiYGp5XiapoHiPM4gm9FFCsGzx8ne8zQTLThFMu47k6ZRCMdjENUf7RkXhgKL7v5Kpch3Vx6xBMKuiYY9Paqc2_ypwJdDVS70fF2brwE6Rfd-9-UCPur_rzys-qk3eimFz3AYj8y9gSgPkq_qJ0-hTYLlGq-G5B0-an12a_t-qz9uEWGsW4U_pXYWtYJOABJYnjcnKH-j-pJm-AMXUUo0fds8s_AprhENFwbcxRfc.iZHCm7Pf8l87KRBhWEDSvjWL0yaWrIGyAtJ-V5cRxKQ&amp;amp;dib_tag=se&amp;amp;keywords=Consoles&amp;amp;qid=1729613929&amp;amp;sr=8-6&amp;amp;ufe=app_do%3Aamzn1.fos.25548f35-0de7-44b3-b28e-0f56f3f96147</t>
   </si>
   <si>
     <t>PlayStation®5 Slim Disk + 2 Jogos</t>
@@ -917,43 +935,34 @@
     <t>Mais de 600 compras no mês passado</t>
   </si>
   <si>
-    <t>https://www.amazon.com.br/PlayStation%C2%AE5-Slim-Disk-2-Jogos/dp/B0CSPNDPKG/ref=sr_1_14?dib=eyJ2IjoiMSJ9.o1Qx6IUvthLPeadaFYmLMmmf4fePBnFLPfgUbaixV1NafNMl3EJq188QrRaSWJOdz0I7ENxUF7lHRJtO-cT1SNPZNsTb6H_EWqU7xcOY1AJH1APqQ61hb0ceYeLp4RSelhTLmTdOoZoMT3Q9AZtePCVjEaqie0ilNEosPMoRAO4_aLi41YIZlQSsHeiy5BDDyYxy1O6HJNHdsRgfP8t3GhsY0atpHquU70LxeoMFdA3M7gb-oNWuEmDwpwaqE__YC8XEkO7O0cFh8oGAAKkM7eTJTtBFAedl-s41_9ggh9s.C7GJGpvc3aha_n84i5B7QC24nfvmQVCmGlT0V7S4d-E&amp;amp;dib_tag=se&amp;amp;keywords=Consoles&amp;amp;qid=1729423764&amp;amp;sr=8-14&amp;amp;ufe=app_do%3Aamzn1.fos.25548f35-0de7-44b3-b28e-0f56f3f96147</t>
+    <t>https://www.amazon.com.br/PlayStation%C2%AE5-Slim-Disk-2-Jogos/dp/B0CSPNDPKG/ref=sr_1_13?dib=eyJ2IjoiMSJ9.ZloPV2acXrRZ3UpdRe0jzALIz-onJL7H4QBXFs0HC9UqoiJB5-hdcvaeF7UvPI2IkeQiYGp5XiapoHiPM4gm9FFCsGzx8ne8zQTLThFMu47k6ZRCMdjENUf7RkXhgKL7v5Kpch3Vx6xBMKuiYY9Paqc2_ypwJdDVS70fF2brwE6Rfd-9-UCPur_rzys-qk3eimFz3AYj8y9gSgPkq_qJ0-hTYLlGq-G5B0-an12a_t-qz9uEWGsW4U_pXYWtYJOABJYnjcnKH-j-pJm-AMXUUo0fds8s_AprhENFwbcxRfc.iZHCm7Pf8l87KRBhWEDSvjWL0yaWrIGyAtJ-V5cRxKQ&amp;amp;dib_tag=se&amp;amp;keywords=Consoles&amp;amp;qid=1729613929&amp;amp;sr=8-13&amp;amp;ufe=app_do%3Aamzn1.fos.25548f35-0de7-44b3-b28e-0f56f3f96147</t>
   </si>
   <si>
     <t>Console Xbox Series S</t>
   </si>
   <si>
-    <t>R$ 2.633,00</t>
-  </si>
-  <si>
-    <t>https://www.amazon.com.br/Microsoft-Console-Xbox-Series-S/dp/B08JN2VMGX/ref=sr_1_5?dib=eyJ2IjoiMSJ9.o1Qx6IUvthLPeadaFYmLMmmf4fePBnFLPfgUbaixV1NafNMl3EJq188QrRaSWJOdz0I7ENxUF7lHRJtO-cT1SNPZNsTb6H_EWqU7xcOY1AJH1APqQ61hb0ceYeLp4RSelhTLmTdOoZoMT3Q9AZtePCVjEaqie0ilNEosPMoRAO4_aLi41YIZlQSsHeiy5BDDyYxy1O6HJNHdsRgfP8t3GhsY0atpHquU70LxeoMFdA3M7gb-oNWuEmDwpwaqE__YC8XEkO7O0cFh8oGAAKkM7eTJTtBFAedl-s41_9ggh9s.C7GJGpvc3aha_n84i5B7QC24nfvmQVCmGlT0V7S4d-E&amp;amp;dib_tag=se&amp;amp;keywords=Consoles&amp;amp;qid=1729423764&amp;amp;sr=8-5&amp;amp;ufe=app_do%3Aamzn1.fos.25548f35-0de7-44b3-b28e-0f56f3f96147</t>
+    <t>R$ 2.600,00</t>
+  </si>
+  <si>
+    <t>https://www.amazon.com.br/Microsoft-Console-Xbox-Series-S/dp/B08JN2VMGX/ref=sr_1_4?dib=eyJ2IjoiMSJ9.ZloPV2acXrRZ3UpdRe0jzALIz-onJL7H4QBXFs0HC9UqoiJB5-hdcvaeF7UvPI2IkeQiYGp5XiapoHiPM4gm9FFCsGzx8ne8zQTLThFMu47k6ZRCMdjENUf7RkXhgKL7v5Kpch3Vx6xBMKuiYY9Paqc2_ypwJdDVS70fF2brwE6Rfd-9-UCPur_rzys-qk3eimFz3AYj8y9gSgPkq_qJ0-hTYLlGq-G5B0-an12a_t-qz9uEWGsW4U_pXYWtYJOABJYnjcnKH-j-pJm-AMXUUo0fds8s_AprhENFwbcxRfc.iZHCm7Pf8l87KRBhWEDSvjWL0yaWrIGyAtJ-V5cRxKQ&amp;amp;dib_tag=se&amp;amp;keywords=Consoles&amp;amp;qid=1729613929&amp;amp;sr=8-4&amp;amp;ufe=app_do%3Aamzn1.fos.a492fd4a-f54d-4e8d-8c31-35e0a04ce61e</t>
   </si>
   <si>
     <t>Nintendo, Console, Nintendo Switch Lite, Console Portátil, Tela de 5,5 Polegadas, Leve e Compacto, 32GB de Armazenamento, Controles Embutidos, Bateria de até 7 horas, Compatível com Jogos do Nintendo Switch, Turquesa</t>
   </si>
   <si>
-    <t>R$ 1.282,15</t>
-  </si>
-  <si>
-    <t>https://www.amazon.com.br/Nintendo-Switch-Lite-Turquesa-Nacional/dp/B09BDLVLW5/ref=sr_1_11?dib=eyJ2IjoiMSJ9.o1Qx6IUvthLPeadaFYmLMmmf4fePBnFLPfgUbaixV1NafNMl3EJq188QrRaSWJOdz0I7ENxUF7lHRJtO-cT1SNPZNsTb6H_EWqU7xcOY1AJH1APqQ61hb0ceYeLp4RSelhTLmTdOoZoMT3Q9AZtePCVjEaqie0ilNEosPMoRAO4_aLi41YIZlQSsHeiy5BDDyYxy1O6HJNHdsRgfP8t3GhsY0atpHquU70LxeoMFdA3M7gb-oNWuEmDwpwaqE__YC8XEkO7O0cFh8oGAAKkM7eTJTtBFAedl-s41_9ggh9s.C7GJGpvc3aha_n84i5B7QC24nfvmQVCmGlT0V7S4d-E&amp;amp;dib_tag=se&amp;amp;keywords=Consoles&amp;amp;qid=1729423764&amp;amp;sr=8-11&amp;amp;ufe=app_do%3Aamzn1.fos.25548f35-0de7-44b3-b28e-0f56f3f96147</t>
+    <t>R$ 1.282,19</t>
+  </si>
+  <si>
+    <t>https://www.amazon.com.br/Nintendo-Switch-Lite-Turquesa-Nacional/dp/B09BDLVLW5/ref=sr_1_9?dib=eyJ2IjoiMSJ9.ZloPV2acXrRZ3UpdRe0jzALIz-onJL7H4QBXFs0HC9UqoiJB5-hdcvaeF7UvPI2IkeQiYGp5XiapoHiPM4gm9FFCsGzx8ne8zQTLThFMu47k6ZRCMdjENUf7RkXhgKL7v5Kpch3Vx6xBMKuiYY9Paqc2_ypwJdDVS70fF2brwE6Rfd-9-UCPur_rzys-qk3eimFz3AYj8y9gSgPkq_qJ0-hTYLlGq-G5B0-an12a_t-qz9uEWGsW4U_pXYWtYJOABJYnjcnKH-j-pJm-AMXUUo0fds8s_AprhENFwbcxRfc.iZHCm7Pf8l87KRBhWEDSvjWL0yaWrIGyAtJ-V5cRxKQ&amp;amp;dib_tag=se&amp;amp;keywords=Consoles&amp;amp;qid=1729613929&amp;amp;sr=8-9&amp;amp;ufe=app_do%3Aamzn1.fos.25548f35-0de7-44b3-b28e-0f56f3f96147</t>
   </si>
   <si>
     <t>PlayStation Portal™ Reprodutor Remoto</t>
   </si>
   <si>
-    <t>R$ 1.436,85</t>
-  </si>
-  <si>
-    <t>https://www.amazon.com.br/PlayStation-CFI-Y1001-PortalTM-Reprodutor-Remoto/dp/B0D2DPR628/ref=sr_1_9?dib=eyJ2IjoiMSJ9.o1Qx6IUvthLPeadaFYmLMmmf4fePBnFLPfgUbaixV1NafNMl3EJq188QrRaSWJOdz0I7ENxUF7lHRJtO-cT1SNPZNsTb6H_EWqU7xcOY1AJH1APqQ61hb0ceYeLp4RSelhTLmTdOoZoMT3Q9AZtePCVjEaqie0ilNEosPMoRAO4_aLi41YIZlQSsHeiy5BDDyYxy1O6HJNHdsRgfP8t3GhsY0atpHquU70LxeoMFdA3M7gb-oNWuEmDwpwaqE__YC8XEkO7O0cFh8oGAAKkM7eTJTtBFAedl-s41_9ggh9s.C7GJGpvc3aha_n84i5B7QC24nfvmQVCmGlT0V7S4d-E&amp;amp;dib_tag=se&amp;amp;keywords=Consoles&amp;amp;qid=1729423764&amp;amp;sr=8-9&amp;amp;ufe=app_do%3Aamzn1.fos.25548f35-0de7-44b3-b28e-0f56f3f96147</t>
-  </si>
-  <si>
-    <t>Nintendo, Controle Nintendo Switch, Joy-Con, Esquerdo e Direito, Versátil, Azul Neon e Vermelho Neon</t>
-  </si>
-  <si>
-    <t>R$ 452,42</t>
-  </si>
-  <si>
-    <t>https://www.amazon.com.br/sspa/click?ie=UTF8&amp;amp;spc=MTozNTM4NTE0MjQwNjg3NDUwOjE3Mjk0MjM3NjQ6c3BfbXRmOjMwMDI5MDU1NjgxMDkwMjo6MDo6&amp;amp;url=%2FControle-Nintendo-Joy-Vermelho-Nacional%2Fdp%2FB08M4VZ4Q3%2Fref%3Dsr_1_21_sspa%3Fdib%3DeyJ2IjoiMSJ9.o1Qx6IUvthLPeadaFYmLMmmf4fePBnFLPfgUbaixV1NafNMl3EJq188QrRaSWJOdz0I7ENxUF7lHRJtO-cT1SNPZNsTb6H_EWqU7xcOY1AJH1APqQ61hb0ceYeLp4RSelhTLmTdOoZoMT3Q9AZtePCVjEaqie0ilNEosPMoRAO4_aLi41YIZlQSsHeiy5BDDyYxy1O6HJNHdsRgfP8t3GhsY0atpHquU70LxeoMFdA3M7gb-oNWuEmDwpwaqE__YC8XEkO7O0cFh8oGAAKkM7eTJTtBFAedl-s41_9ggh9s.C7GJGpvc3aha_n84i5B7QC24nfvmQVCmGlT0V7S4d-E%26dib_tag%3Dse%26keywords%3DConsoles%26qid%3D1729423764%26sr%3D8-21-spons%26ufe%3Dapp_do%253Aamzn1.fos.4bddec23-2dcf-4403-8597-e1a02442043d%26sp_csd%3Dd2lkZ2V0TmFtZT1zcF9tdGY%26psc%3D1</t>
+    <t>R$ 1.404,44</t>
+  </si>
+  <si>
+    <t>https://www.amazon.com.br/PlayStation-CFI-Y1001-PortalTM-Reprodutor-Remoto/dp/B0D2DPR628/ref=sr_1_8?dib=eyJ2IjoiMSJ9.ZloPV2acXrRZ3UpdRe0jzALIz-onJL7H4QBXFs0HC9UqoiJB5-hdcvaeF7UvPI2IkeQiYGp5XiapoHiPM4gm9FFCsGzx8ne8zQTLThFMu47k6ZRCMdjENUf7RkXhgKL7v5Kpch3Vx6xBMKuiYY9Paqc2_ypwJdDVS70fF2brwE6Rfd-9-UCPur_rzys-qk3eimFz3AYj8y9gSgPkq_qJ0-hTYLlGq-G5B0-an12a_t-qz9uEWGsW4U_pXYWtYJOABJYnjcnKH-j-pJm-AMXUUo0fds8s_AprhENFwbcxRfc.iZHCm7Pf8l87KRBhWEDSvjWL0yaWrIGyAtJ-V5cRxKQ&amp;amp;dib_tag=se&amp;amp;keywords=Consoles&amp;amp;qid=1729613929&amp;amp;sr=8-8&amp;amp;ufe=app_do%3Aamzn1.fos.25548f35-0de7-44b3-b28e-0f56f3f96147</t>
   </si>
   <si>
     <t>Mini Game Portátil 400 Jogos Super Console Controle Retro</t>
@@ -962,7 +971,7 @@
     <t>R$ 42,30</t>
   </si>
   <si>
-    <t>https://www.amazon.com.br/Port%C3%A1til-Jogos-Super-Console-Controle/dp/B07Z5F5WJJ/ref=sr_1_26?dib=eyJ2IjoiMSJ9.o1Qx6IUvthLPeadaFYmLMmmf4fePBnFLPfgUbaixV1NafNMl3EJq188QrRaSWJOdz0I7ENxUF7lHRJtO-cT1SNPZNsTb6H_EWqU7xcOY1AJH1APqQ61hb0ceYeLp4RSelhTLmTdOoZoMT3Q9AZtePCVjEaqie0ilNEosPMoRAO4_aLi41YIZlQSsHeiy5BDDyYxy1O6HJNHdsRgfP8t3GhsY0atpHquU70LxeoMFdA3M7gb-oNWuEmDwpwaqE__YC8XEkO7O0cFh8oGAAKkM7eTJTtBFAedl-s41_9ggh9s.C7GJGpvc3aha_n84i5B7QC24nfvmQVCmGlT0V7S4d-E&amp;amp;dib_tag=se&amp;amp;keywords=Consoles&amp;amp;qid=1729423764&amp;amp;sr=8-26</t>
+    <t>https://www.amazon.com.br/Port%C3%A1til-Jogos-Super-Console-Controle/dp/B07Z5F5WJJ/ref=sr_1_27?dib=eyJ2IjoiMSJ9.ZloPV2acXrRZ3UpdRe0jzALIz-onJL7H4QBXFs0HC9UqoiJB5-hdcvaeF7UvPI2IkeQiYGp5XiapoHiPM4gm9FFCsGzx8ne8zQTLThFMu47k6ZRCMdjENUf7RkXhgKL7v5Kpch3Vx6xBMKuiYY9Paqc2_ypwJdDVS70fF2brwE6Rfd-9-UCPur_rzys-qk3eimFz3AYj8y9gSgPkq_qJ0-hTYLlGq-G5B0-an12a_t-qz9uEWGsW4U_pXYWtYJOABJYnjcnKH-j-pJm-AMXUUo0fds8s_AprhENFwbcxRfc.iZHCm7Pf8l87KRBhWEDSvjWL0yaWrIGyAtJ-V5cRxKQ&amp;amp;dib_tag=se&amp;amp;keywords=Consoles&amp;amp;qid=1729613929&amp;amp;sr=8-27</t>
   </si>
   <si>
     <t>Mini Console Retro Super Nintendo com 130 mil jogos + 2 Controles Super 3D Games</t>
@@ -971,25 +980,34 @@
     <t>R$ 289,00</t>
   </si>
   <si>
-    <t>https://www.amazon.com.br/Console-Retro-Super-Nintendo-Controles/dp/B0B59YX7JJ/ref=sr_1_10?dib=eyJ2IjoiMSJ9.o1Qx6IUvthLPeadaFYmLMmmf4fePBnFLPfgUbaixV1NafNMl3EJq188QrRaSWJOdz0I7ENxUF7lHRJtO-cT1SNPZNsTb6H_EWqU7xcOY1AJH1APqQ61hb0ceYeLp4RSelhTLmTdOoZoMT3Q9AZtePCVjEaqie0ilNEosPMoRAO4_aLi41YIZlQSsHeiy5BDDyYxy1O6HJNHdsRgfP8t3GhsY0atpHquU70LxeoMFdA3M7gb-oNWuEmDwpwaqE__YC8XEkO7O0cFh8oGAAKkM7eTJTtBFAedl-s41_9ggh9s.C7GJGpvc3aha_n84i5B7QC24nfvmQVCmGlT0V7S4d-E&amp;amp;dib_tag=se&amp;amp;keywords=Consoles&amp;amp;qid=1729423764&amp;amp;sr=8-10&amp;amp;ufe=app_do%3Aamzn1.fos.db68964d-7c0e-4bb2-a95c-e5cb9e32eb12</t>
+    <t>https://www.amazon.com.br/Console-Retro-Super-Nintendo-Controles/dp/B0B59YX7JJ/ref=sr_1_10?dib=eyJ2IjoiMSJ9.ZloPV2acXrRZ3UpdRe0jzALIz-onJL7H4QBXFs0HC9UqoiJB5-hdcvaeF7UvPI2IkeQiYGp5XiapoHiPM4gm9FFCsGzx8ne8zQTLThFMu47k6ZRCMdjENUf7RkXhgKL7v5Kpch3Vx6xBMKuiYY9Paqc2_ypwJdDVS70fF2brwE6Rfd-9-UCPur_rzys-qk3eimFz3AYj8y9gSgPkq_qJ0-hTYLlGq-G5B0-an12a_t-qz9uEWGsW4U_pXYWtYJOABJYnjcnKH-j-pJm-AMXUUo0fds8s_AprhENFwbcxRfc.iZHCm7Pf8l87KRBhWEDSvjWL0yaWrIGyAtJ-V5cRxKQ&amp;amp;dib_tag=se&amp;amp;keywords=Consoles&amp;amp;qid=1729613929&amp;amp;sr=8-10&amp;amp;ufe=app_do%3Aamzn1.fos.db68964d-7c0e-4bb2-a95c-e5cb9e32eb12</t>
+  </si>
+  <si>
+    <t>Nintendo Switch Azul e Vermelho + Jogo Digital Mario Kart 8 + 3 meses de assinatura NSO</t>
+  </si>
+  <si>
+    <t>R$ 2.124,84</t>
+  </si>
+  <si>
+    <t>https://www.amazon.com.br/Nintendo-Switch-Vermelho-Digital-assinatura/dp/B09NK8J76T/ref=sr_1_16?dib=eyJ2IjoiMSJ9.ZloPV2acXrRZ3UpdRe0jzALIz-onJL7H4QBXFs0HC9UqoiJB5-hdcvaeF7UvPI2IkeQiYGp5XiapoHiPM4gm9FFCsGzx8ne8zQTLThFMu47k6ZRCMdjENUf7RkXhgKL7v5Kpch3Vx6xBMKuiYY9Paqc2_ypwJdDVS70fF2brwE6Rfd-9-UCPur_rzys-qk3eimFz3AYj8y9gSgPkq_qJ0-hTYLlGq-G5B0-an12a_t-qz9uEWGsW4U_pXYWtYJOABJYnjcnKH-j-pJm-AMXUUo0fds8s_AprhENFwbcxRfc.iZHCm7Pf8l87KRBhWEDSvjWL0yaWrIGyAtJ-V5cRxKQ&amp;amp;dib_tag=se&amp;amp;keywords=Consoles&amp;amp;qid=1729613929&amp;amp;sr=8-16&amp;amp;ufe=app_do%3Aamzn1.fos.25548f35-0de7-44b3-b28e-0f56f3f96147</t>
   </si>
   <si>
     <t>PlayStation®5 Standard Edition</t>
   </si>
   <si>
-    <t>R$ 3.699,90</t>
-  </si>
-  <si>
-    <t>https://www.amazon.com.br/PlayStation-CFI-1214A01X-Console-5/dp/B0BNSR3MW9/ref=sr_1_15?dib=eyJ2IjoiMSJ9.o1Qx6IUvthLPeadaFYmLMmmf4fePBnFLPfgUbaixV1NafNMl3EJq188QrRaSWJOdz0I7ENxUF7lHRJtO-cT1SNPZNsTb6H_EWqU7xcOY1AJH1APqQ61hb0ceYeLp4RSelhTLmTdOoZoMT3Q9AZtePCVjEaqie0ilNEosPMoRAO4_aLi41YIZlQSsHeiy5BDDyYxy1O6HJNHdsRgfP8t3GhsY0atpHquU70LxeoMFdA3M7gb-oNWuEmDwpwaqE__YC8XEkO7O0cFh8oGAAKkM7eTJTtBFAedl-s41_9ggh9s.C7GJGpvc3aha_n84i5B7QC24nfvmQVCmGlT0V7S4d-E&amp;amp;dib_tag=se&amp;amp;keywords=Consoles&amp;amp;qid=1729423764&amp;amp;sr=8-15&amp;amp;ufe=app_do%3Aamzn1.fos.25548f35-0de7-44b3-b28e-0f56f3f96147</t>
-  </si>
-  <si>
-    <t>Nintendo Switch Azul e Vermelho + Jogo Digital Mario Kart 8 + 3 meses de assinatura NSO</t>
-  </si>
-  <si>
-    <t>R$ 2.124,84</t>
-  </si>
-  <si>
-    <t>https://www.amazon.com.br/Nintendo-Switch-Vermelho-Digital-assinatura/dp/B09NK8J76T/ref=sr_1_16?dib=eyJ2IjoiMSJ9.o1Qx6IUvthLPeadaFYmLMmmf4fePBnFLPfgUbaixV1NafNMl3EJq188QrRaSWJOdz0I7ENxUF7lHRJtO-cT1SNPZNsTb6H_EWqU7xcOY1AJH1APqQ61hb0ceYeLp4RSelhTLmTdOoZoMT3Q9AZtePCVjEaqie0ilNEosPMoRAO4_aLi41YIZlQSsHeiy5BDDyYxy1O6HJNHdsRgfP8t3GhsY0atpHquU70LxeoMFdA3M7gb-oNWuEmDwpwaqE__YC8XEkO7O0cFh8oGAAKkM7eTJTtBFAedl-s41_9ggh9s.C7GJGpvc3aha_n84i5B7QC24nfvmQVCmGlT0V7S4d-E&amp;amp;dib_tag=se&amp;amp;keywords=Consoles&amp;amp;qid=1729423764&amp;amp;sr=8-16&amp;amp;ufe=app_do%3Aamzn1.fos.25548f35-0de7-44b3-b28e-0f56f3f96147</t>
+    <t>R$ 3.950,00</t>
+  </si>
+  <si>
+    <t>https://www.amazon.com.br/PlayStation-CFI-1214A01X-Console-5/dp/B0BNSR3MW9/ref=sr_1_18?dib=eyJ2IjoiMSJ9.ZloPV2acXrRZ3UpdRe0jzALIz-onJL7H4QBXFs0HC9UqoiJB5-hdcvaeF7UvPI2IkeQiYGp5XiapoHiPM4gm9FFCsGzx8ne8zQTLThFMu47k6ZRCMdjENUf7RkXhgKL7v5Kpch3Vx6xBMKuiYY9Paqc2_ypwJdDVS70fF2brwE6Rfd-9-UCPur_rzys-qk3eimFz3AYj8y9gSgPkq_qJ0-hTYLlGq-G5B0-an12a_t-qz9uEWGsW4U_pXYWtYJOABJYnjcnKH-j-pJm-AMXUUo0fds8s_AprhENFwbcxRfc.iZHCm7Pf8l87KRBhWEDSvjWL0yaWrIGyAtJ-V5cRxKQ&amp;amp;dib_tag=se&amp;amp;keywords=Consoles&amp;amp;qid=1729613929&amp;amp;sr=8-18&amp;amp;ufe=app_do%3Aamzn1.fos.25548f35-0de7-44b3-b28e-0f56f3f96147</t>
+  </si>
+  <si>
+    <t>Bundle Nintendo Switch OLED com Mario Kart 8 + 3 Meses de Assinatura Nintendo Switch Online</t>
+  </si>
+  <si>
+    <t>R$ 2.496,18</t>
+  </si>
+  <si>
+    <t>https://www.amazon.com.br/Nintendo-Switch-OLED-Mario-meses/dp/B0D9WTRLTB/ref=sr_1_19?dib=eyJ2IjoiMSJ9.ZloPV2acXrRZ3UpdRe0jzALIz-onJL7H4QBXFs0HC9UqoiJB5-hdcvaeF7UvPI2IkeQiYGp5XiapoHiPM4gm9FFCsGzx8ne8zQTLThFMu47k6ZRCMdjENUf7RkXhgKL7v5Kpch3Vx6xBMKuiYY9Paqc2_ypwJdDVS70fF2brwE6Rfd-9-UCPur_rzys-qk3eimFz3AYj8y9gSgPkq_qJ0-hTYLlGq-G5B0-an12a_t-qz9uEWGsW4U_pXYWtYJOABJYnjcnKH-j-pJm-AMXUUo0fds8s_AprhENFwbcxRfc.iZHCm7Pf8l87KRBhWEDSvjWL0yaWrIGyAtJ-V5cRxKQ&amp;amp;dib_tag=se&amp;amp;keywords=Consoles&amp;amp;qid=1729613929&amp;amp;sr=8-19&amp;amp;ufe=app_do%3Aamzn1.fos.25548f35-0de7-44b3-b28e-0f56f3f96147</t>
   </si>
 </sst>
 </file>
@@ -1072,321 +1090,321 @@
     </row>
     <row r="3">
       <c r="A3" s="0" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="C3" s="0" t="s">
         <v>6</v>
       </c>
       <c r="D3" s="0" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="0" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C4" s="0" t="s">
         <v>6</v>
       </c>
       <c r="D4" s="0" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="0" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="D5" s="0" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="0" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="C6" s="0" t="s">
-        <v>6</v>
+        <v>20</v>
       </c>
       <c r="D6" s="0" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="0" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="C7" s="0" t="s">
-        <v>6</v>
+        <v>20</v>
       </c>
       <c r="D7" s="0" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="0" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="C8" s="0" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="D8" s="0" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="0" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="C9" s="0" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="D9" s="0" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="0" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="B10" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="C10" s="0" t="s">
         <v>30</v>
       </c>
-      <c r="C10" s="0" t="s">
-        <v>27</v>
-      </c>
       <c r="D10" s="0" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="0" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="C11" s="0" t="s">
-        <v>27</v>
+        <v>37</v>
       </c>
       <c r="D11" s="0" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="B12" s="0" t="s">
         <v>9</v>
       </c>
-      <c r="B12" s="0" t="s">
-        <v>10</v>
-      </c>
       <c r="C12" s="0" t="s">
         <v>6</v>
       </c>
       <c r="D12" s="0" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="0" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="B13" s="0" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="C13" s="0" t="s">
         <v>6</v>
       </c>
       <c r="D13" s="0" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="0" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="B14" s="0" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="C14" s="0" t="s">
         <v>6</v>
       </c>
       <c r="D14" s="0" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="0" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="B15" s="0" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="C15" s="0" t="s">
         <v>6</v>
       </c>
       <c r="D15" s="0" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="0" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="B16" s="0" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="C16" s="0" t="s">
         <v>6</v>
       </c>
       <c r="D16" s="0" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="0" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="B17" s="0" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="C17" s="0" t="s">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="D17" s="0" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="0" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="B18" s="0" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="C18" s="0" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="D18" s="0" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="0" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="B19" s="0" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="C19" s="0" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="D19" s="0" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="0" t="s">
-        <v>57</v>
+        <v>25</v>
       </c>
       <c r="B20" s="0" t="s">
-        <v>58</v>
+        <v>26</v>
       </c>
       <c r="C20" s="0" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="D20" s="0" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="0" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="B21" s="0" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="C21" s="0" t="s">
-        <v>62</v>
+        <v>20</v>
       </c>
       <c r="D21" s="0" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="0" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B22" s="0" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C22" s="0" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="D22" s="0" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="0" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B23" s="0" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C23" s="0" t="s">
-        <v>62</v>
+        <v>30</v>
       </c>
       <c r="D23" s="0" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="0" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B24" s="0" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C24" s="0" t="s">
-        <v>62</v>
+        <v>37</v>
       </c>
       <c r="D24" s="0" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="0" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B25" s="0" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C25" s="0" t="s">
-        <v>75</v>
+        <v>37</v>
       </c>
       <c r="D25" s="0" t="s">
         <v>76</v>
@@ -1397,7 +1415,7 @@
         <v>77</v>
       </c>
       <c r="B26" s="0" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C26" s="0" t="s">
         <v>78</v>
@@ -1464,10 +1482,10 @@
     </row>
     <row r="31">
       <c r="A31" s="0" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="B31" s="0" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="C31" s="0" t="s">
         <v>78</v>
@@ -1548,321 +1566,321 @@
     </row>
     <row r="37">
       <c r="A37" s="0" t="s">
+        <v>96</v>
+      </c>
+      <c r="B37" s="0" t="s">
+        <v>97</v>
+      </c>
+      <c r="C37" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="D37" s="0" t="s">
         <v>108</v>
-      </c>
-      <c r="B37" s="0" t="s">
-        <v>109</v>
-      </c>
-      <c r="C37" s="0" t="s">
-        <v>23</v>
-      </c>
-      <c r="D37" s="0" t="s">
-        <v>110</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="0" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="B38" s="0" t="s">
-        <v>112</v>
+        <v>94</v>
       </c>
       <c r="C38" s="0" t="s">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="D38" s="0" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="0" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="B39" s="0" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="C39" s="0" t="s">
-        <v>27</v>
+        <v>16</v>
       </c>
       <c r="D39" s="0" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="0" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="B40" s="0" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="C40" s="0" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="D40" s="0" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="0" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="B41" s="0" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="C41" s="0" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="D41" s="0" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="0" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="B42" s="0" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="C42" s="0" t="s">
         <v>6</v>
       </c>
       <c r="D42" s="0" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="0" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="B43" s="0" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="C43" s="0" t="s">
         <v>6</v>
       </c>
       <c r="D43" s="0" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="0" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="B44" s="0" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="C44" s="0" t="s">
         <v>6</v>
       </c>
       <c r="D44" s="0" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="0" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="B45" s="0" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="C45" s="0" t="s">
         <v>6</v>
       </c>
       <c r="D45" s="0" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="0" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="B46" s="0" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="C46" s="0" t="s">
         <v>6</v>
       </c>
       <c r="D46" s="0" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="0" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="B47" s="0" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="C47" s="0" t="s">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="D47" s="0" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="0" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="B48" s="0" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="C48" s="0" t="s">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="D48" s="0" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="0" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="B49" s="0" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="C49" s="0" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="D49" s="0" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="0" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="B50" s="0" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="C50" s="0" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="D50" s="0" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="0" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="B51" s="0" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="C51" s="0" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="D51" s="0" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="0" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="B52" s="0" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="C52" s="0" t="s">
         <v>6</v>
       </c>
       <c r="D52" s="0" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="0" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="B53" s="0" t="s">
-        <v>43</v>
+        <v>154</v>
       </c>
       <c r="C53" s="0" t="s">
         <v>6</v>
       </c>
       <c r="D53" s="0" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="0" t="s">
+        <v>156</v>
+      </c>
+      <c r="B54" s="0" t="s">
+        <v>157</v>
+      </c>
+      <c r="C54" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="D54" s="0" t="s">
         <v>158</v>
-      </c>
-      <c r="B54" s="0" t="s">
-        <v>159</v>
-      </c>
-      <c r="C54" s="0" t="s">
-        <v>23</v>
-      </c>
-      <c r="D54" s="0" t="s">
-        <v>160</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="0" t="s">
+        <v>159</v>
+      </c>
+      <c r="B55" s="0" t="s">
+        <v>160</v>
+      </c>
+      <c r="C55" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="D55" s="0" t="s">
         <v>161</v>
-      </c>
-      <c r="B55" s="0" t="s">
-        <v>162</v>
-      </c>
-      <c r="C55" s="0" t="s">
-        <v>23</v>
-      </c>
-      <c r="D55" s="0" t="s">
-        <v>163</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="0" t="s">
+        <v>162</v>
+      </c>
+      <c r="B56" s="0" t="s">
+        <v>163</v>
+      </c>
+      <c r="C56" s="0" t="s">
+        <v>78</v>
+      </c>
+      <c r="D56" s="0" t="s">
         <v>164</v>
-      </c>
-      <c r="B56" s="0" t="s">
-        <v>165</v>
-      </c>
-      <c r="C56" s="0" t="s">
-        <v>27</v>
-      </c>
-      <c r="D56" s="0" t="s">
-        <v>166</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="0" t="s">
+        <v>165</v>
+      </c>
+      <c r="B57" s="0" t="s">
+        <v>166</v>
+      </c>
+      <c r="C57" s="0" t="s">
+        <v>78</v>
+      </c>
+      <c r="D57" s="0" t="s">
         <v>167</v>
-      </c>
-      <c r="B57" s="0" t="s">
-        <v>168</v>
-      </c>
-      <c r="C57" s="0" t="s">
-        <v>62</v>
-      </c>
-      <c r="D57" s="0" t="s">
-        <v>169</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="0" t="s">
+        <v>168</v>
+      </c>
+      <c r="B58" s="0" t="s">
+        <v>169</v>
+      </c>
+      <c r="C58" s="0" t="s">
         <v>170</v>
       </c>
-      <c r="B58" s="0" t="s">
+      <c r="D58" s="0" t="s">
         <v>171</v>
-      </c>
-      <c r="C58" s="0" t="s">
-        <v>75</v>
-      </c>
-      <c r="D58" s="0" t="s">
-        <v>172</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="0" t="s">
+        <v>172</v>
+      </c>
+      <c r="B59" s="0" t="s">
         <v>173</v>
       </c>
-      <c r="B59" s="0" t="s">
+      <c r="C59" s="0" t="s">
         <v>174</v>
-      </c>
-      <c r="C59" s="0" t="s">
-        <v>75</v>
       </c>
       <c r="D59" s="0" t="s">
         <v>175</v>
@@ -1873,234 +1891,234 @@
         <v>176</v>
       </c>
       <c r="B60" s="0" t="s">
-        <v>26</v>
+        <v>177</v>
       </c>
       <c r="C60" s="0" t="s">
-        <v>78</v>
+        <v>170</v>
       </c>
       <c r="D60" s="0" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="0" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="B61" s="0" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="C61" s="0" t="s">
-        <v>78</v>
+        <v>181</v>
       </c>
       <c r="D61" s="0" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="0" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="B62" s="0" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="C62" s="0" t="s">
         <v>6</v>
       </c>
       <c r="D62" s="0" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="0" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="B63" s="0" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="C63" s="0" t="s">
         <v>6</v>
       </c>
       <c r="D63" s="0" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="0" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="B64" s="0" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="C64" s="0" t="s">
         <v>6</v>
       </c>
       <c r="D64" s="0" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="0" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="B65" s="0" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="C65" s="0" t="s">
         <v>6</v>
       </c>
       <c r="D65" s="0" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="0" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="B66" s="0" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="C66" s="0" t="s">
         <v>6</v>
       </c>
       <c r="D66" s="0" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="0" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="B67" s="0" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="C67" s="0" t="s">
         <v>6</v>
       </c>
       <c r="D67" s="0" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="0" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="B68" s="0" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="C68" s="0" t="s">
         <v>6</v>
       </c>
       <c r="D68" s="0" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="0" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="B69" s="0" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="C69" s="0" t="s">
         <v>6</v>
       </c>
       <c r="D69" s="0" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="0" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="B70" s="0" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="C70" s="0" t="s">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="D70" s="0" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="0" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="B71" s="0" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="C71" s="0" t="s">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="D71" s="0" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="0" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="B72" s="0" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="C72" s="0" t="s">
-        <v>213</v>
+        <v>181</v>
       </c>
       <c r="D72" s="0" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="0" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="B73" s="0" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="C73" s="0" t="s">
-        <v>213</v>
+        <v>181</v>
       </c>
       <c r="D73" s="0" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="0" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="B74" s="0" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="C74" s="0" t="s">
-        <v>213</v>
+        <v>181</v>
       </c>
       <c r="D74" s="0" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="0" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="B75" s="0" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="C75" s="0" t="s">
-        <v>213</v>
+        <v>181</v>
       </c>
       <c r="D75" s="0" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="0" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="B76" s="0" t="s">
-        <v>225</v>
+        <v>15</v>
       </c>
       <c r="C76" s="0" t="s">
-        <v>213</v>
+        <v>181</v>
       </c>
       <c r="D76" s="0" t="s">
         <v>226</v>
@@ -2114,7 +2132,7 @@
         <v>228</v>
       </c>
       <c r="C77" s="0" t="s">
-        <v>213</v>
+        <v>181</v>
       </c>
       <c r="D77" s="0" t="s">
         <v>229</v>
@@ -2128,7 +2146,7 @@
         <v>231</v>
       </c>
       <c r="C78" s="0" t="s">
-        <v>213</v>
+        <v>181</v>
       </c>
       <c r="D78" s="0" t="s">
         <v>232</v>
@@ -2139,461 +2157,461 @@
         <v>233</v>
       </c>
       <c r="B79" s="0" t="s">
-        <v>165</v>
+        <v>234</v>
       </c>
       <c r="C79" s="0" t="s">
-        <v>213</v>
+        <v>181</v>
       </c>
       <c r="D79" s="0" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="0" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="B80" s="0" t="s">
-        <v>231</v>
+        <v>180</v>
       </c>
       <c r="C80" s="0" t="s">
-        <v>213</v>
+        <v>181</v>
       </c>
       <c r="D80" s="0" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="0" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="B81" s="0" t="s">
-        <v>165</v>
+        <v>239</v>
       </c>
       <c r="C81" s="0" t="s">
-        <v>213</v>
+        <v>181</v>
       </c>
       <c r="D81" s="0" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="0" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="B82" s="0" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="C82" s="0" t="s">
         <v>6</v>
       </c>
       <c r="D82" s="0" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" s="0" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="B83" s="0" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="C83" s="0" t="s">
-        <v>23</v>
+        <v>6</v>
       </c>
       <c r="D83" s="0" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" s="0" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="B84" s="0" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="C84" s="0" t="s">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="D84" s="0" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" s="0" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="B85" s="0" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="C85" s="0" t="s">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="D85" s="0" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" s="0" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="B86" s="0" t="s">
-        <v>165</v>
+        <v>254</v>
       </c>
       <c r="C86" s="0" t="s">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="D86" s="0" t="s">
-        <v>252</v>
+        <v>255</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" s="0" t="s">
-        <v>253</v>
+        <v>256</v>
       </c>
       <c r="B87" s="0" t="s">
-        <v>254</v>
+        <v>257</v>
       </c>
       <c r="C87" s="0" t="s">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="D87" s="0" t="s">
-        <v>255</v>
+        <v>258</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" s="0" t="s">
-        <v>256</v>
+        <v>259</v>
       </c>
       <c r="B88" s="0" t="s">
-        <v>257</v>
+        <v>260</v>
       </c>
       <c r="C88" s="0" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="D88" s="0" t="s">
-        <v>258</v>
+        <v>261</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" s="0" t="s">
-        <v>259</v>
+        <v>262</v>
       </c>
       <c r="B89" s="0" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="C89" s="0" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="D89" s="0" t="s">
-        <v>261</v>
+        <v>264</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" s="0" t="s">
-        <v>262</v>
+        <v>265</v>
       </c>
       <c r="B90" s="0" t="s">
-        <v>263</v>
+        <v>266</v>
       </c>
       <c r="C90" s="0" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="D90" s="0" t="s">
-        <v>264</v>
+        <v>267</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" s="0" t="s">
-        <v>256</v>
+        <v>268</v>
       </c>
       <c r="B91" s="0" t="s">
-        <v>257</v>
+        <v>269</v>
       </c>
       <c r="C91" s="0" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="D91" s="0" t="s">
-        <v>265</v>
+        <v>270</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" s="0" t="s">
-        <v>266</v>
+        <v>271</v>
       </c>
       <c r="B92" s="0" t="s">
-        <v>267</v>
+        <v>272</v>
       </c>
       <c r="C92" s="0" t="s">
         <v>6</v>
       </c>
       <c r="D92" s="0" t="s">
-        <v>268</v>
+        <v>273</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" s="0" t="s">
-        <v>269</v>
+        <v>274</v>
       </c>
       <c r="B93" s="0" t="s">
-        <v>270</v>
+        <v>275</v>
       </c>
       <c r="C93" s="0" t="s">
         <v>6</v>
       </c>
       <c r="D93" s="0" t="s">
-        <v>271</v>
+        <v>276</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" s="0" t="s">
-        <v>272</v>
+        <v>277</v>
       </c>
       <c r="B94" s="0" t="s">
-        <v>273</v>
+        <v>278</v>
       </c>
       <c r="C94" s="0" t="s">
         <v>6</v>
       </c>
       <c r="D94" s="0" t="s">
-        <v>274</v>
+        <v>279</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" s="0" t="s">
-        <v>275</v>
+        <v>280</v>
       </c>
       <c r="B95" s="0" t="s">
-        <v>276</v>
+        <v>272</v>
       </c>
       <c r="C95" s="0" t="s">
         <v>6</v>
       </c>
       <c r="D95" s="0" t="s">
-        <v>277</v>
+        <v>281</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" s="0" t="s">
-        <v>278</v>
+        <v>282</v>
       </c>
       <c r="B96" s="0" t="s">
-        <v>279</v>
+        <v>283</v>
       </c>
       <c r="C96" s="0" t="s">
         <v>6</v>
       </c>
       <c r="D96" s="0" t="s">
-        <v>280</v>
+        <v>284</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" s="0" t="s">
-        <v>281</v>
+        <v>285</v>
       </c>
       <c r="B97" s="0" t="s">
-        <v>282</v>
+        <v>286</v>
       </c>
       <c r="C97" s="0" t="s">
         <v>6</v>
       </c>
       <c r="D97" s="0" t="s">
-        <v>283</v>
+        <v>287</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" s="0" t="s">
-        <v>284</v>
+        <v>288</v>
       </c>
       <c r="B98" s="0" t="s">
-        <v>285</v>
+        <v>289</v>
       </c>
       <c r="C98" s="0" t="s">
         <v>6</v>
       </c>
       <c r="D98" s="0" t="s">
-        <v>286</v>
+        <v>290</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" s="0" t="s">
-        <v>278</v>
+        <v>291</v>
       </c>
       <c r="B99" s="0" t="s">
-        <v>279</v>
+        <v>292</v>
       </c>
       <c r="C99" s="0" t="s">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="D99" s="0" t="s">
-        <v>287</v>
+        <v>293</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" s="0" t="s">
-        <v>288</v>
+        <v>294</v>
       </c>
       <c r="B100" s="0" t="s">
-        <v>289</v>
+        <v>295</v>
       </c>
       <c r="C100" s="0" t="s">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="D100" s="0" t="s">
-        <v>290</v>
+        <v>296</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" s="0" t="s">
-        <v>291</v>
+        <v>297</v>
       </c>
       <c r="B101" s="0" t="s">
-        <v>292</v>
+        <v>298</v>
       </c>
       <c r="C101" s="0" t="s">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="D101" s="0" t="s">
-        <v>293</v>
+        <v>299</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" s="0" t="s">
-        <v>294</v>
+        <v>300</v>
       </c>
       <c r="B102" s="0" t="s">
-        <v>295</v>
+        <v>301</v>
       </c>
       <c r="C102" s="0" t="s">
-        <v>296</v>
+        <v>302</v>
       </c>
       <c r="D102" s="0" t="s">
-        <v>297</v>
+        <v>303</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" s="0" t="s">
-        <v>298</v>
+        <v>304</v>
       </c>
       <c r="B103" s="0" t="s">
-        <v>299</v>
+        <v>305</v>
       </c>
       <c r="C103" s="0" t="s">
-        <v>300</v>
+        <v>306</v>
       </c>
       <c r="D103" s="0" t="s">
-        <v>301</v>
+        <v>307</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" s="0" t="s">
-        <v>302</v>
+        <v>308</v>
       </c>
       <c r="B104" s="0" t="s">
-        <v>303</v>
+        <v>309</v>
       </c>
       <c r="C104" s="0" t="s">
         <v>6</v>
       </c>
       <c r="D104" s="0" t="s">
-        <v>304</v>
+        <v>310</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" s="0" t="s">
-        <v>305</v>
+        <v>311</v>
       </c>
       <c r="B105" s="0" t="s">
-        <v>306</v>
+        <v>312</v>
       </c>
       <c r="C105" s="0" t="s">
         <v>6</v>
       </c>
       <c r="D105" s="0" t="s">
-        <v>307</v>
+        <v>313</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" s="0" t="s">
-        <v>308</v>
+        <v>314</v>
       </c>
       <c r="B106" s="0" t="s">
-        <v>309</v>
+        <v>315</v>
       </c>
       <c r="C106" s="0" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="D106" s="0" t="s">
-        <v>310</v>
+        <v>316</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" s="0" t="s">
-        <v>311</v>
+        <v>317</v>
       </c>
       <c r="B107" s="0" t="s">
-        <v>312</v>
+        <v>318</v>
       </c>
       <c r="C107" s="0" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="D107" s="0" t="s">
-        <v>313</v>
+        <v>319</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" s="0" t="s">
-        <v>314</v>
+        <v>320</v>
       </c>
       <c r="B108" s="0" t="s">
-        <v>315</v>
+        <v>321</v>
       </c>
       <c r="C108" s="0" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="D108" s="0" t="s">
-        <v>316</v>
+        <v>322</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" s="0" t="s">
-        <v>317</v>
+        <v>323</v>
       </c>
       <c r="B109" s="0" t="s">
-        <v>318</v>
+        <v>324</v>
       </c>
       <c r="C109" s="0" t="s">
-        <v>62</v>
+        <v>37</v>
       </c>
       <c r="D109" s="0" t="s">
-        <v>319</v>
+        <v>325</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" s="0" t="s">
-        <v>320</v>
+        <v>326</v>
       </c>
       <c r="B110" s="0" t="s">
-        <v>321</v>
+        <v>327</v>
       </c>
       <c r="C110" s="0" t="s">
-        <v>75</v>
+        <v>37</v>
       </c>
       <c r="D110" s="0" t="s">
-        <v>322</v>
+        <v>328</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" s="0" t="s">
-        <v>323</v>
+        <v>329</v>
       </c>
       <c r="B111" s="0" t="s">
-        <v>324</v>
+        <v>330</v>
       </c>
       <c r="C111" s="0" t="s">
-        <v>75</v>
+        <v>37</v>
       </c>
       <c r="D111" s="0" t="s">
-        <v>325</v>
+        <v>331</v>
       </c>
     </row>
   </sheetData>
